--- a/Данные/Kur_UD/all.xlsx
+++ b/Данные/Kur_UD/all.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>K_wz</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>i_H</t>
+  </si>
+  <si>
+    <t>i_H*10^3</t>
+  </si>
+  <si>
+    <t>q*10^-3</t>
+  </si>
+  <si>
+    <t>i_p*10^4</t>
   </si>
 </sst>
 </file>
@@ -69,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -216,34 +226,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>118.89999999999999</c:v>
+                  <c:v>9.504999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.399999999999991</c:v>
+                  <c:v>5.7890000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.4</c:v>
+                  <c:v>3.8719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.200000000000003</c:v>
+                  <c:v>2.7330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>1.9969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.900000000000002</c:v>
+                  <c:v>1.5079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.799999999999999</c:v>
+                  <c:v>1.1829999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.1</c:v>
+                  <c:v>0.96199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>0.77300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3999999999999995</c:v>
+                  <c:v>0.59099999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,34 +342,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>119.89999999999999</c:v>
+                  <c:v>9.5849999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.099999999999994</c:v>
+                  <c:v>6.2470000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.5</c:v>
+                  <c:v>4.3580000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.6</c:v>
+                  <c:v>3.1659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.6</c:v>
+                  <c:v>2.3679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.900000000000002</c:v>
+                  <c:v>1.8259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.3</c:v>
+                  <c:v>1.4609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.1</c:v>
+                  <c:v>1.2009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.2</c:v>
+                  <c:v>0.97299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5</c:v>
+                  <c:v>0.754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,34 +458,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>120.5</c:v>
+                  <c:v>9.6359999999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.8</c:v>
+                  <c:v>6.6970000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>4.8740000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.7</c:v>
+                  <c:v>3.6519999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.1</c:v>
+                  <c:v>2.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.8</c:v>
+                  <c:v>2.2199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.700000000000003</c:v>
+                  <c:v>1.8149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.900000000000002</c:v>
+                  <c:v>1.5109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.5</c:v>
+                  <c:v>1.2369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.2</c:v>
+                  <c:v>0.97099999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,34 +572,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>121.6</c:v>
+                  <c:v>9.7270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.6</c:v>
+                  <c:v>7.165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>5.4330000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.7</c:v>
+                  <c:v>4.2120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.800000000000004</c:v>
+                  <c:v>3.339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>2.714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.400000000000002</c:v>
+                  <c:v>2.2709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>1.9159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.900000000000002</c:v>
+                  <c:v>1.5879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.9</c:v>
+                  <c:v>1.2679999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,34 +686,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>119.69999999999999</c:v>
+                  <c:v>9.5689999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.3</c:v>
+                  <c:v>7.4630000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.099999999999994</c:v>
+                  <c:v>5.9240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.9</c:v>
+                  <c:v>4.7860000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.300000000000004</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.5</c:v>
+                  <c:v>3.3180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.6</c:v>
+                  <c:v>2.8479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.6</c:v>
+                  <c:v>2.4419999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.8</c:v>
+                  <c:v>2.0569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,34 +802,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>127.19999999999999</c:v>
+                  <c:v>10.174999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103.3</c:v>
+                  <c:v>8.2619999999999987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.1</c:v>
+                  <c:v>6.8020000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.099999999999994</c:v>
+                  <c:v>5.6830000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.4</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.300000000000004</c:v>
+                  <c:v>4.1820000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.7</c:v>
+                  <c:v>3.6549999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.700000000000003</c:v>
+                  <c:v>3.1749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>2.7130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.3</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,34 +920,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>116.89999999999999</c:v>
+                  <c:v>9.3490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.39999999999999</c:v>
+                  <c:v>8.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.8</c:v>
+                  <c:v>7.1040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.699999999999989</c:v>
+                  <c:v>6.2940000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.599999999999994</c:v>
+                  <c:v>5.641</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.5</c:v>
+                  <c:v>5.0780000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>4.5590000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.800000000000004</c:v>
+                  <c:v>4.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.7</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.6</c:v>
+                  <c:v>3.0859999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,34 +1042,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>106.8</c:v>
+                  <c:v>8.536999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.3</c:v>
+                  <c:v>7.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.6</c:v>
+                  <c:v>7.4060000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.399999999999991</c:v>
+                  <c:v>6.9119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.599999999999994</c:v>
+                  <c:v>6.4420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.899999999999991</c:v>
+                  <c:v>5.9860000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.3</c:v>
+                  <c:v>5.5390000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.800000000000004</c:v>
+                  <c:v>5.0970000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.300000000000004</c:v>
+                  <c:v>4.66</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.9</c:v>
+                  <c:v>4.2250000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,34 +1164,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>97.3</c:v>
+                  <c:v>7.782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.5</c:v>
+                  <c:v>7.556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.699999999999989</c:v>
+                  <c:v>7.3320000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.899999999999991</c:v>
+                  <c:v>7.109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.1</c:v>
+                  <c:v>6.8860000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.3</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.599999999999994</c:v>
+                  <c:v>6.4430000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.8</c:v>
+                  <c:v>6.2220000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.099999999999994</c:v>
+                  <c:v>6.0020000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.3</c:v>
+                  <c:v>5.7830000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,34 +1512,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>54.5</c:v>
+                  <c:v>4.359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>3.1179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.5</c:v>
+                  <c:v>2.3569999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.200000000000003</c:v>
+                  <c:v>1.855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>1.5149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.9</c:v>
+                  <c:v>1.2649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.5</c:v>
+                  <c:v>1.075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.9</c:v>
+                  <c:v>0.95099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.299999999999999</c:v>
+                  <c:v>0.81799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5</c:v>
+                  <c:v>0.67900000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,34 +1628,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>52.6</c:v>
+                  <c:v>4.2040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.200000000000003</c:v>
+                  <c:v>3.052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.900000000000002</c:v>
+                  <c:v>2.391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.1</c:v>
+                  <c:v>1.9269999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.5</c:v>
+                  <c:v>1.5599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.400000000000002</c:v>
+                  <c:v>1.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.299999999999999</c:v>
+                  <c:v>1.1379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.6</c:v>
+                  <c:v>1.0069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>0.874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1</c:v>
+                  <c:v>0.72199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,34 +1744,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>49.300000000000004</c:v>
+                  <c:v>3.9369999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.6</c:v>
+                  <c:v>3.004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.400000000000002</c:v>
+                  <c:v>2.4299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.6</c:v>
+                  <c:v>1.9669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.400000000000002</c:v>
+                  <c:v>1.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.5</c:v>
+                  <c:v>1.3949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.2</c:v>
+                  <c:v>1.2129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.4</c:v>
+                  <c:v>1.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.799999999999999</c:v>
+                  <c:v>0.93800000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>0.77600000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,34 +1858,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>47.300000000000004</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.5</c:v>
+                  <c:v>2.9990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.5</c:v>
+                  <c:v>2.4369999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.200000000000003</c:v>
+                  <c:v>2.016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.3</c:v>
+                  <c:v>1.698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.3</c:v>
+                  <c:v>1.462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.5</c:v>
+                  <c:v>1.3139999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.6</c:v>
+                  <c:v>1.1659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.7</c:v>
+                  <c:v>1.0139999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.6</c:v>
+                  <c:v>0.84799999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,34 +1972,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44.1</c:v>
+                  <c:v>3.5269999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.300000000000004</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.3</c:v>
+                  <c:v>2.4209999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.700000000000003</c:v>
+                  <c:v>2.0509999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.1</c:v>
+                  <c:v>1.7679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.900000000000002</c:v>
+                  <c:v>1.5879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.8</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.9</c:v>
+                  <c:v>1.2669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.9</c:v>
+                  <c:v>1.1079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>0.95499999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,34 +2088,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43.1</c:v>
+                  <c:v>3.4449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.1</c:v>
+                  <c:v>2.9630000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.400000000000002</c:v>
+                  <c:v>2.5069999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.700000000000003</c:v>
+                  <c:v>2.2090000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.1</c:v>
+                  <c:v>1.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.900000000000002</c:v>
+                  <c:v>1.7509999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>1.5659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.8</c:v>
+                  <c:v>1.4239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.6</c:v>
+                  <c:v>1.244</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.6</c:v>
+                  <c:v>1.0819999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2196,34 +2206,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>38.4</c:v>
+                  <c:v>3.0720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.4</c:v>
+                  <c:v>2.746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.1</c:v>
+                  <c:v>2.4049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.5</c:v>
+                  <c:v>2.194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.3</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.400000000000002</c:v>
+                  <c:v>1.8719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.6</c:v>
+                  <c:v>1.726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.8</c:v>
+                  <c:v>1.5779999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.8</c:v>
+                  <c:v>1.4229999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.799999999999999</c:v>
+                  <c:v>1.2609999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,34 +2328,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>2.6339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.700000000000003</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.5</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.6</c:v>
+                  <c:v>2.202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.5</c:v>
+                  <c:v>2.117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.6</c:v>
+                  <c:v>1.9669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.5</c:v>
+                  <c:v>1.8759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.6</c:v>
+                  <c:v>1.726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.3</c:v>
+                  <c:v>1.6239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.5</c:v>
+                  <c:v>1.4729999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,34 +2450,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29.1</c:v>
+                  <c:v>2.3239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.200000000000003</c:v>
+                  <c:v>2.2559999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.400000000000002</c:v>
+                  <c:v>2.1890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.6</c:v>
+                  <c:v>2.1229999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.700000000000003</c:v>
+                  <c:v>2.056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.900000000000002</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.1</c:v>
+                  <c:v>1.9239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.200000000000003</c:v>
+                  <c:v>1.8519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.400000000000002</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,34 +2798,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>54.5</c:v>
+                  <c:v>4.359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>3.1179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.5</c:v>
+                  <c:v>2.3569999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.200000000000003</c:v>
+                  <c:v>1.855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>1.5149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.9</c:v>
+                  <c:v>1.2649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.5</c:v>
+                  <c:v>1.075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.9</c:v>
+                  <c:v>0.95099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.299999999999999</c:v>
+                  <c:v>0.81799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5</c:v>
+                  <c:v>0.67900000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2904,34 +2914,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>52.6</c:v>
+                  <c:v>4.2040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.200000000000003</c:v>
+                  <c:v>3.052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.900000000000002</c:v>
+                  <c:v>2.391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.1</c:v>
+                  <c:v>1.9269999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.5</c:v>
+                  <c:v>1.5599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.400000000000002</c:v>
+                  <c:v>1.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.299999999999999</c:v>
+                  <c:v>1.1379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.6</c:v>
+                  <c:v>1.0069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>0.874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1</c:v>
+                  <c:v>0.72199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3020,34 +3030,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>49.300000000000004</c:v>
+                  <c:v>3.9369999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.6</c:v>
+                  <c:v>3.004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.400000000000002</c:v>
+                  <c:v>2.4299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.6</c:v>
+                  <c:v>1.9669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.400000000000002</c:v>
+                  <c:v>1.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.5</c:v>
+                  <c:v>1.3949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.2</c:v>
+                  <c:v>1.2129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.4</c:v>
+                  <c:v>1.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.799999999999999</c:v>
+                  <c:v>0.93800000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>0.77600000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,34 +3144,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>47.300000000000004</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.5</c:v>
+                  <c:v>2.9990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.5</c:v>
+                  <c:v>2.4369999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.200000000000003</c:v>
+                  <c:v>2.016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.3</c:v>
+                  <c:v>1.698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.3</c:v>
+                  <c:v>1.462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.5</c:v>
+                  <c:v>1.3139999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.6</c:v>
+                  <c:v>1.1659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.7</c:v>
+                  <c:v>1.0139999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.6</c:v>
+                  <c:v>0.84799999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,34 +3258,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44.1</c:v>
+                  <c:v>3.5269999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.300000000000004</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.3</c:v>
+                  <c:v>2.4209999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.700000000000003</c:v>
+                  <c:v>2.0509999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.1</c:v>
+                  <c:v>1.7679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.900000000000002</c:v>
+                  <c:v>1.5879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.8</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.9</c:v>
+                  <c:v>1.2669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.9</c:v>
+                  <c:v>1.1079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>0.95499999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,34 +3374,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43.1</c:v>
+                  <c:v>3.4449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.1</c:v>
+                  <c:v>2.9630000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.400000000000002</c:v>
+                  <c:v>2.5069999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.700000000000003</c:v>
+                  <c:v>2.2090000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.1</c:v>
+                  <c:v>1.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.900000000000002</c:v>
+                  <c:v>1.7509999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>1.5659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.8</c:v>
+                  <c:v>1.4239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.6</c:v>
+                  <c:v>1.244</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.6</c:v>
+                  <c:v>1.0819999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3482,34 +3492,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>38.4</c:v>
+                  <c:v>3.0720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.4</c:v>
+                  <c:v>2.746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.1</c:v>
+                  <c:v>2.4049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.5</c:v>
+                  <c:v>2.194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.3</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.400000000000002</c:v>
+                  <c:v>1.8719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.6</c:v>
+                  <c:v>1.726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.8</c:v>
+                  <c:v>1.5779999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.8</c:v>
+                  <c:v>1.4229999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.799999999999999</c:v>
+                  <c:v>1.2609999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3604,34 +3614,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>2.6339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.700000000000003</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.5</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.6</c:v>
+                  <c:v>2.202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.5</c:v>
+                  <c:v>2.117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.6</c:v>
+                  <c:v>1.9669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.5</c:v>
+                  <c:v>1.8759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.6</c:v>
+                  <c:v>1.726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.3</c:v>
+                  <c:v>1.6239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.5</c:v>
+                  <c:v>1.4729999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3726,34 +3736,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29.1</c:v>
+                  <c:v>2.3239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.200000000000003</c:v>
+                  <c:v>2.2559999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.400000000000002</c:v>
+                  <c:v>2.1890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.6</c:v>
+                  <c:v>2.1229999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.700000000000003</c:v>
+                  <c:v>2.056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.900000000000002</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.1</c:v>
+                  <c:v>1.9239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.200000000000003</c:v>
+                  <c:v>1.8519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.400000000000002</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5048,6 +5058,1292 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-6487-4E57-A52D-6252E33408F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1790762928"/>
+        <c:axId val="1790756272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1790762928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790756272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1790756272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790762928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Н=0 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$40:$U$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5560.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9192.3000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13731.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19178.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25533.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32796.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40967.799999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50046.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60033.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70927.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$86:$J$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8095292124458202E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0822865011616201E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3237638253839503E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5861398095996499E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.915626792711069E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1296151497636299E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2678226690955099E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.40251620292681E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.54130621656381E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6973457212519499E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3F8-4A49-8D61-93F97BC2A330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Н=2 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$41:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5533.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8525.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16442.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21366.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26935.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33148.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40004.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47505.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$87:$J$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.5459226130984701E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3327646123099401E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1111877678882995E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9148458548119096E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7592041097408299E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6284511297607604E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4912833547554903E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3351389633003501E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0209865869646E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.11917213811201E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3F8-4A49-8D61-93F97BC2A330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Н=4 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$42:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5521.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7945.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10808.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14111.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17853.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31719.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37221.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43162.299999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$88:$J$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5796138854143098E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0523933119851101E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.52921550074297E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0274638765416202E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5468482734391301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0758598968784596E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5963366562668195E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1088619826746499E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6435448928844204E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.24221725675956E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B3F8-4A49-8D61-93F97BC2A330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Н=6 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$43:$U$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5475.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7391.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9594.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12084.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14861.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17926</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21277.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24915.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28840.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33052.400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$89:$J$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.83877770248873E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.11507409949185E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.40000166258921E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6977253528014599E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0045452308364201E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3131239989535902E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6146721220099302E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9147508282831399E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2297803962022498E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5812165955629399E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B3F8-4A49-8D61-93F97BC2A330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Н=8 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$44:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5536.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7004.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8644.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10457.700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14600.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19433.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22108.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24956.199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$90:$J$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3021662738757001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.45865021020605E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6215455718334999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7895623237215301E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9599447743766699E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.12857587730497E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.29356453388E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4601324851132302E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6360743916938002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8311696018319199E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B3F8-4A49-8D61-93F97BC2A330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Н=10 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$45:$U$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5142.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6221.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7402.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8687.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10074.300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13156.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14851.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16649.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$91:$J$91</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.7195984401527803E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5930428583858003E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.0492792398291499E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.14082274692002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.2323384963517899E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.3220237826964699E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.4107060828359301E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.5012170249548699E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.59713595436138E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.7028201568817199E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B3F8-4A49-8D61-93F97BC2A330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Н=12 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$46:$U$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5389.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6116.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6888.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7706.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8570.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9480.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10436.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11438.300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13579.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$92:$J$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.8616717701319899E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2619256827219598E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6636906850712406E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0617778172974699E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4525340077120106E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8405388589566401E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2333590439293201E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6400900671462595E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0714063784539403E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5396683323032306E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B3F8-4A49-8D61-93F97BC2A330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Н=14 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$47:$U$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5679.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6092.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6962.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7418.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7889.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8375.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8875.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9390.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9919.3000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$93:$J$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7849082899907902E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9221740959456202E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0583899046714701E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.19460448590779E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.33201804793325E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4719831198673797E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6160073593352602E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7657586530346299E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9230728777452199E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0899646893195601E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B3F8-4A49-8D61-93F97BC2A330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Н=16 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$48:$U$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6001.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6133.9000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6267.9000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6403.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6540.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6678.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6818.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7102.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$94:$J$94</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.4383390765228E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4671238313822701E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4963311538547501E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.52600932880931E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5562083550157E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5869799859048199E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6183777748589201E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6504571252174201E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.68327534518405E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7168917078211499E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B3F8-4A49-8D61-93F97BC2A330}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5384,6 +6680,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7503,20 +8839,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>605517</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:colOff>583105</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>489856</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>70117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7538,15 +9394,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>20409</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
+      <xdr:colOff>87644</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>65954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7567,16 +9423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>39461</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>304802</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>78922</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>276227</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>117022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7624,6 +9480,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>393648</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152561</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7895,10 +9783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U61"/>
+  <dimension ref="A2:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W65" sqref="W65"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z90" sqref="Z90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7913,650 +9801,650 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>118.80568029182599</v>
+        <v>9.5044544233461163</v>
       </c>
       <c r="B3">
-        <v>72.354054658076507</v>
+        <v>5.7883243726461204</v>
       </c>
       <c r="C3">
-        <v>48.396640025038003</v>
+        <v>3.8717312020030437</v>
       </c>
       <c r="D3">
-        <v>34.161726005252397</v>
+        <v>2.7329380804201895</v>
       </c>
       <c r="E3">
-        <v>24.959085245593901</v>
+        <v>1.996726819647513</v>
       </c>
       <c r="F3">
-        <v>18.843845433896501</v>
+        <v>1.5075076347117191</v>
       </c>
       <c r="G3">
-        <v>14.7865389591217</v>
+        <v>1.1829231167297329</v>
       </c>
       <c r="H3">
-        <v>12.0125218473719</v>
+        <v>0.96100174778975178</v>
       </c>
       <c r="I3">
-        <v>9.6502853746856996</v>
+        <v>0.77202282997485561</v>
       </c>
       <c r="J3">
-        <v>7.38538124637821</v>
+        <v>0.5908304997102567</v>
       </c>
       <c r="L3">
-        <f>ROUNDUP(A3,1)</f>
-        <v>118.89999999999999</v>
+        <f>ROUNDUP(A3,3)</f>
+        <v>9.504999999999999</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:U11" si="0">ROUNDUP(B3,1)</f>
-        <v>72.399999999999991</v>
+        <f t="shared" ref="M3:U3" si="0">ROUNDUP(B3,3)</f>
+        <v>5.7890000000000006</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>48.4</v>
+        <v>3.8719999999999999</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>34.200000000000003</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1.9969999999999999</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>18.900000000000002</v>
+        <v>1.5079999999999998</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>14.799999999999999</v>
+        <v>1.1829999999999998</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>12.1</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>7.3999999999999995</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>119.80520208207599</v>
+        <v>9.5844161665660614</v>
       </c>
       <c r="B4">
-        <v>78.081838865927494</v>
+        <v>6.2465471092741982</v>
       </c>
       <c r="C4">
-        <v>54.474172481267999</v>
+        <v>4.3579337985014392</v>
       </c>
       <c r="D4">
-        <v>39.5634290161099</v>
+        <v>3.1650743212887931</v>
       </c>
       <c r="E4">
-        <v>29.5980802886275</v>
+        <v>2.367846423090203</v>
       </c>
       <c r="F4">
-        <v>22.822796968675899</v>
+        <v>1.8258237574940739</v>
       </c>
       <c r="G4">
-        <v>18.255302881175702</v>
+        <v>1.4604242304940531</v>
       </c>
       <c r="H4">
-        <v>15.002706331275601</v>
+        <v>1.2002165065020454</v>
       </c>
       <c r="I4">
-        <v>12.155880571884801</v>
+        <v>0.972470445750788</v>
       </c>
       <c r="J4">
-        <v>9.4127116602886503</v>
+        <v>0.75301693282309201</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L11" si="1">ROUNDUP(A4,1)</f>
-        <v>119.89999999999999</v>
+        <f t="shared" ref="L4:L11" si="1">ROUNDUP(A4,3)</f>
+        <v>9.5849999999999991</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>78.099999999999994</v>
+        <f t="shared" ref="M4:M11" si="2">ROUNDUP(B4,3)</f>
+        <v>6.2470000000000008</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>54.5</v>
+        <f t="shared" ref="N4:N11" si="3">ROUNDUP(C4,3)</f>
+        <v>4.3580000000000005</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
-        <v>39.6</v>
+        <f t="shared" ref="O4:O11" si="4">ROUNDUP(D4,3)</f>
+        <v>3.1659999999999999</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
-        <v>29.6</v>
+        <f t="shared" ref="P4:P11" si="5">ROUNDUP(E4,3)</f>
+        <v>2.3679999999999999</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>22.900000000000002</v>
+        <f t="shared" ref="Q4:Q11" si="6">ROUNDUP(F4,3)</f>
+        <v>1.8259999999999998</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
-        <v>18.3</v>
+        <f t="shared" ref="R4:R11" si="7">ROUNDUP(G4,3)</f>
+        <v>1.4609999999999999</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
-        <v>15.1</v>
+        <f t="shared" ref="S4:S11" si="8">ROUNDUP(H4,3)</f>
+        <v>1.2009999999999998</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
-        <v>12.2</v>
+        <f t="shared" ref="T4:T11" si="9">ROUNDUP(I4,3)</f>
+        <v>0.97299999999999998</v>
       </c>
       <c r="U4">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+        <f t="shared" ref="U4:U11" si="10">ROUNDUP(J4,3)</f>
+        <v>0.754</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>120.439673499758</v>
+        <v>9.6351738799806466</v>
       </c>
       <c r="B5">
-        <v>83.710158100035301</v>
+        <v>6.6968126480028252</v>
       </c>
       <c r="C5">
-        <v>60.922795893769099</v>
+        <v>4.8738236715015244</v>
       </c>
       <c r="D5">
-        <v>45.6492127670382</v>
+        <v>3.6519370213630555</v>
       </c>
       <c r="E5">
-        <v>35.096284039424397</v>
+        <v>2.8077027231539522</v>
       </c>
       <c r="F5">
-        <v>27.738844070775698</v>
+        <v>2.2191075256620563</v>
       </c>
       <c r="G5">
-        <v>22.6783634980609</v>
+        <v>1.8142690798448708</v>
       </c>
       <c r="H5">
-        <v>18.875142061901801</v>
+        <v>1.5100113649521432</v>
       </c>
       <c r="I5">
-        <v>15.4518586590662</v>
+        <v>1.2361486927252969</v>
       </c>
       <c r="J5">
-        <v>12.1362131090501</v>
+        <v>0.97089704872400717</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>120.5</v>
+        <v>9.6359999999999992</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>83.8</v>
+        <f t="shared" si="2"/>
+        <v>6.6970000000000001</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>4.8740000000000006</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>45.7</v>
+        <f t="shared" si="4"/>
+        <v>3.6519999999999997</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
-        <v>35.1</v>
+        <f t="shared" si="5"/>
+        <v>2.8079999999999998</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>27.8</v>
+        <f t="shared" si="6"/>
+        <v>2.2199999999999998</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
-        <v>22.700000000000003</v>
+        <f t="shared" si="7"/>
+        <v>1.8149999999999999</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
-        <v>18.900000000000002</v>
+        <f t="shared" si="8"/>
+        <v>1.5109999999999999</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
+        <f t="shared" si="9"/>
+        <v>1.2369999999999999</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
-        <v>12.2</v>
+        <f t="shared" si="10"/>
+        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>121.577081501081</v>
+        <v>9.7261665200864957</v>
       </c>
       <c r="B6">
-        <v>89.560740183436295</v>
+        <v>7.1648592146749053</v>
       </c>
       <c r="C6">
-        <v>67.904954806193501</v>
+        <v>5.4323963844954823</v>
       </c>
       <c r="D6">
-        <v>52.640661771521202</v>
+        <v>4.2112529417216908</v>
       </c>
       <c r="E6">
-        <v>41.725719941654297</v>
+        <v>3.3380575953323426</v>
       </c>
       <c r="F6">
-        <v>33.917020756541902</v>
+        <v>2.7133616605233515</v>
       </c>
       <c r="G6">
-        <v>28.3840608304989</v>
+        <v>2.2707248664399118</v>
       </c>
       <c r="H6">
-        <v>23.945004935319702</v>
+        <v>1.9156003948255742</v>
       </c>
       <c r="I6">
-        <v>19.8421938979162</v>
+        <v>1.5873755118332966</v>
       </c>
       <c r="J6">
-        <v>15.8484072631661</v>
+        <v>1.2678725810532887</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>121.6</v>
+        <v>9.7270000000000003</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>89.6</v>
+        <f t="shared" si="2"/>
+        <v>7.165</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <f t="shared" si="3"/>
+        <v>5.4330000000000007</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>52.7</v>
+        <f t="shared" si="4"/>
+        <v>4.2120000000000006</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>41.800000000000004</v>
+        <f t="shared" si="5"/>
+        <v>3.339</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="6"/>
+        <v>2.714</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
-        <v>28.400000000000002</v>
+        <f t="shared" si="7"/>
+        <v>2.2709999999999999</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="8"/>
+        <v>1.9159999999999999</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
-        <v>19.900000000000002</v>
+        <f t="shared" si="9"/>
+        <v>1.5879999999999999</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
-        <v>15.9</v>
+        <f t="shared" si="10"/>
+        <v>1.2679999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>119.60416633535201</v>
+        <v>9.5683333068281868</v>
       </c>
       <c r="B7">
-        <v>93.275215213072499</v>
+        <v>7.4620172170457995</v>
       </c>
       <c r="C7">
-        <v>74.047535867157507</v>
+        <v>5.9238028693725937</v>
       </c>
       <c r="D7">
-        <v>59.8203731065623</v>
+        <v>4.7856298485249829</v>
       </c>
       <c r="E7">
-        <v>49.244080216324299</v>
+        <v>3.9395264173059434</v>
       </c>
       <c r="F7">
-        <v>41.468971514204497</v>
+        <v>3.3175177211363609</v>
       </c>
       <c r="G7">
-        <v>35.598972249113402</v>
+        <v>2.8479177799290736</v>
       </c>
       <c r="H7">
-        <v>30.520018774212101</v>
+        <v>2.4416015019369701</v>
       </c>
       <c r="I7">
-        <v>25.7032583717553</v>
+        <v>2.0562606697404218</v>
       </c>
       <c r="J7">
-        <v>20.989906618195899</v>
+        <v>1.67919252945567</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>119.69999999999999</v>
+        <v>9.5689999999999991</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>93.3</v>
+        <f t="shared" si="2"/>
+        <v>7.4630000000000001</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
-        <v>74.099999999999994</v>
+        <f t="shared" si="3"/>
+        <v>5.9240000000000004</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
-        <v>59.9</v>
+        <f t="shared" si="4"/>
+        <v>4.7860000000000005</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
-        <v>49.300000000000004</v>
+        <f t="shared" si="5"/>
+        <v>3.94</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>41.5</v>
+        <f t="shared" si="6"/>
+        <v>3.3180000000000001</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
-        <v>35.6</v>
+        <f t="shared" si="7"/>
+        <v>2.8479999999999999</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
+        <f t="shared" si="8"/>
+        <v>2.4419999999999997</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
-        <v>25.8</v>
+        <f t="shared" si="9"/>
+        <v>2.0569999999999999</v>
       </c>
       <c r="U7">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>1.68</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>127.178642448505</v>
+        <v>10.174291395880392</v>
       </c>
       <c r="B8">
-        <v>103.263564586859</v>
+        <v>8.2610851669487158</v>
       </c>
       <c r="C8">
-        <v>85.022929081510995</v>
+        <v>6.8018343265208809</v>
       </c>
       <c r="D8">
-        <v>71.034220968188606</v>
+        <v>5.6827376774550835</v>
       </c>
       <c r="E8">
-        <v>60.345308345435797</v>
+        <v>4.8276246676348666</v>
       </c>
       <c r="F8">
-        <v>52.267819635326099</v>
+        <v>4.1814255708260912</v>
       </c>
       <c r="G8">
-        <v>45.675437879933703</v>
+        <v>3.6540350303946987</v>
       </c>
       <c r="H8">
-        <v>39.6831399704703</v>
+        <v>3.1746511976376217</v>
       </c>
       <c r="I8">
-        <v>33.909219849370501</v>
+        <v>2.7127375879496363</v>
       </c>
       <c r="J8">
-        <v>28.2387388174775</v>
+        <v>2.2590991053981999</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>127.19999999999999</v>
+        <v>10.174999999999999</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>103.3</v>
+        <f t="shared" si="2"/>
+        <v>8.2619999999999987</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>85.1</v>
+        <f t="shared" si="3"/>
+        <v>6.8020000000000005</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
-        <v>71.099999999999994</v>
+        <f t="shared" si="4"/>
+        <v>5.6830000000000007</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
-        <v>60.4</v>
+        <f t="shared" si="5"/>
+        <v>4.8280000000000003</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>52.300000000000004</v>
+        <f t="shared" si="6"/>
+        <v>4.1820000000000004</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
-        <v>45.7</v>
+        <f t="shared" si="7"/>
+        <v>3.6549999999999998</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
-        <v>39.700000000000003</v>
+        <f t="shared" si="8"/>
+        <v>3.1749999999999998</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>2.7130000000000001</v>
       </c>
       <c r="U8">
-        <f t="shared" si="0"/>
-        <v>28.3</v>
+        <f t="shared" si="10"/>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>116.857765174432</v>
+        <v>9.348621213954587</v>
       </c>
       <c r="B9">
-        <v>101.370598327463</v>
+        <v>8.1096478661970082</v>
       </c>
       <c r="C9">
-        <v>88.793877799362605</v>
+        <v>7.1035102239490078</v>
       </c>
       <c r="D9">
-        <v>78.667162409409997</v>
+        <v>6.293372992752797</v>
       </c>
       <c r="E9">
-        <v>70.501561311702105</v>
+        <v>5.6401249049361688</v>
       </c>
       <c r="F9">
-        <v>63.463189871491402</v>
+        <v>5.0770551897193092</v>
       </c>
       <c r="G9">
-        <v>56.976074053371399</v>
+        <v>4.558085924269708</v>
       </c>
       <c r="H9">
-        <v>50.737626420072601</v>
+        <v>4.0590101136058072</v>
       </c>
       <c r="I9">
-        <v>44.616928677323003</v>
+        <v>3.5693542941858394</v>
       </c>
       <c r="J9">
-        <v>38.574582450450599</v>
+        <v>3.0859665960360507</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>116.89999999999999</v>
+        <v>9.3490000000000002</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
-        <v>101.39999999999999</v>
+        <f t="shared" si="2"/>
+        <v>8.11</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
-        <v>88.8</v>
+        <f t="shared" si="3"/>
+        <v>7.1040000000000001</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
-        <v>78.699999999999989</v>
+        <f t="shared" si="4"/>
+        <v>6.2940000000000005</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
-        <v>70.599999999999994</v>
+        <f t="shared" si="5"/>
+        <v>5.641</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>63.5</v>
+        <f t="shared" si="6"/>
+        <v>5.0780000000000003</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f t="shared" si="7"/>
+        <v>4.5590000000000002</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
-        <v>50.800000000000004</v>
+        <f t="shared" si="8"/>
+        <v>4.0600000000000005</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
-        <v>44.7</v>
+        <f t="shared" si="9"/>
+        <v>3.57</v>
       </c>
       <c r="U9">
-        <f t="shared" si="0"/>
-        <v>38.6</v>
+        <f t="shared" si="10"/>
+        <v>3.0859999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>106.70526173668</v>
+        <v>8.536420938934377</v>
       </c>
       <c r="B10">
-        <v>99.246583933097597</v>
+        <v>7.9397267146478088</v>
       </c>
       <c r="C10">
-        <v>92.567864701076402</v>
+        <v>7.40542917608611</v>
       </c>
       <c r="D10">
-        <v>86.388003229610106</v>
+        <v>6.9110402583688062</v>
       </c>
       <c r="E10">
-        <v>80.5139267479083</v>
+        <v>6.4411141398326652</v>
       </c>
       <c r="F10">
-        <v>74.820359918654503</v>
+        <v>5.9856287934923609</v>
       </c>
       <c r="G10">
-        <v>69.232589818422397</v>
+        <v>5.5386071854737917</v>
       </c>
       <c r="H10">
-        <v>63.710984302865299</v>
+        <v>5.0968787442292216</v>
       </c>
       <c r="I10">
-        <v>58.238003609818499</v>
+        <v>4.6590402887854809</v>
       </c>
       <c r="J10">
-        <v>52.809309244636502</v>
+        <v>4.2247447395709168</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>106.8</v>
+        <v>8.536999999999999</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>99.3</v>
+        <f t="shared" si="2"/>
+        <v>7.94</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
-        <v>92.6</v>
+        <f t="shared" si="3"/>
+        <v>7.4060000000000006</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
-        <v>86.399999999999991</v>
+        <f t="shared" si="4"/>
+        <v>6.9119999999999999</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
-        <v>80.599999999999994</v>
+        <f t="shared" si="5"/>
+        <v>6.4420000000000002</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>74.899999999999991</v>
+        <f t="shared" si="6"/>
+        <v>5.9860000000000007</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
-        <v>69.3</v>
+        <f t="shared" si="7"/>
+        <v>5.5390000000000006</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
-        <v>63.800000000000004</v>
+        <f t="shared" si="8"/>
+        <v>5.0970000000000004</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
-        <v>58.300000000000004</v>
+        <f t="shared" si="9"/>
+        <v>4.66</v>
       </c>
       <c r="U10">
-        <f t="shared" si="0"/>
-        <v>52.9</v>
+        <f t="shared" si="10"/>
+        <v>4.2250000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>97.264075500130801</v>
+        <v>7.7811260400104665</v>
       </c>
       <c r="B11">
-        <v>94.449343712814695</v>
+        <v>7.5559474970251772</v>
       </c>
       <c r="C11">
-        <v>91.646514548748996</v>
+        <v>7.331721163899914</v>
       </c>
       <c r="D11">
-        <v>88.854107362306394</v>
+        <v>7.1083285889845156</v>
       </c>
       <c r="E11">
-        <v>86.071080795706493</v>
+        <v>6.8856864636565218</v>
       </c>
       <c r="F11">
-        <v>83.296750652230301</v>
+        <v>6.6637400521784249</v>
       </c>
       <c r="G11">
-        <v>80.530726857631606</v>
+        <v>6.4424581486105241</v>
       </c>
       <c r="H11">
-        <v>77.772870862465496</v>
+        <v>6.2218296689972368</v>
       </c>
       <c r="I11">
-        <v>75.023274121816797</v>
+        <v>6.0018619297453402</v>
       </c>
       <c r="J11">
-        <v>72.282257436565203</v>
+        <v>5.782580594925216</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>97.3</v>
+        <v>7.782</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
-        <v>94.5</v>
+        <f t="shared" si="2"/>
+        <v>7.556</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
-        <v>91.699999999999989</v>
+        <f t="shared" si="3"/>
+        <v>7.3320000000000007</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
+        <f t="shared" si="4"/>
+        <v>7.109</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
-        <v>86.1</v>
+        <f t="shared" si="5"/>
+        <v>6.8860000000000001</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>83.3</v>
+        <f t="shared" si="6"/>
+        <v>6.6640000000000006</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
-        <v>80.599999999999994</v>
+        <f t="shared" si="7"/>
+        <v>6.4430000000000005</v>
       </c>
       <c r="S11">
-        <f t="shared" si="0"/>
-        <v>77.8</v>
+        <f t="shared" si="8"/>
+        <v>6.2220000000000004</v>
       </c>
       <c r="T11">
-        <f t="shared" si="0"/>
-        <v>75.099999999999994</v>
+        <f t="shared" si="9"/>
+        <v>6.0020000000000007</v>
       </c>
       <c r="U11">
-        <f t="shared" si="0"/>
-        <v>72.3</v>
+        <f t="shared" si="10"/>
+        <v>5.7830000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -8569,650 +10457,650 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>54.4786190914432</v>
+        <v>4.3582895273154518</v>
       </c>
       <c r="B16">
-        <v>38.966443245048197</v>
+        <v>3.1173154596038515</v>
       </c>
       <c r="C16">
-        <v>29.4518870641277</v>
+        <v>2.3561509651302144</v>
       </c>
       <c r="D16">
-        <v>23.180518080794101</v>
+        <v>1.8544414464635299</v>
       </c>
       <c r="E16">
-        <v>18.9327717585542</v>
+        <v>1.5146217406843367</v>
       </c>
       <c r="F16">
-        <v>15.8015501103436</v>
+        <v>1.2641240088274874</v>
       </c>
       <c r="G16">
-        <v>13.434344122303701</v>
+        <v>1.0747475297842979</v>
       </c>
       <c r="H16">
-        <v>11.875006216342699</v>
+        <v>0.95000049730741409</v>
       </c>
       <c r="I16">
-        <v>10.215331871674801</v>
+        <v>0.8172265497339869</v>
       </c>
       <c r="J16">
-        <v>8.4824966878059005</v>
+        <v>0.67859973502447168</v>
       </c>
       <c r="L16">
-        <f>ROUNDUP(A16,1)</f>
-        <v>54.5</v>
+        <f>ROUNDUP(A16,3)</f>
+        <v>4.359</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:U24" si="2">ROUNDUP(B16,1)</f>
-        <v>39</v>
+        <f t="shared" ref="M16:U24" si="11">ROUNDUP(B16,3)</f>
+        <v>3.1179999999999999</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
-        <v>29.5</v>
+        <f t="shared" si="11"/>
+        <v>2.3569999999999998</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
-        <v>23.200000000000003</v>
+        <f t="shared" si="11"/>
+        <v>1.855</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>1.5149999999999999</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>15.9</v>
+        <f t="shared" si="11"/>
+        <v>1.2649999999999999</v>
       </c>
       <c r="R16">
-        <f t="shared" si="2"/>
-        <v>13.5</v>
+        <f t="shared" si="11"/>
+        <v>1.075</v>
       </c>
       <c r="S16">
-        <f t="shared" si="2"/>
-        <v>11.9</v>
+        <f t="shared" si="11"/>
+        <v>0.95099999999999996</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
-        <v>10.299999999999999</v>
+        <f t="shared" si="11"/>
+        <v>0.81799999999999995</v>
       </c>
       <c r="U16">
-        <f t="shared" si="2"/>
-        <v>8.5</v>
+        <f t="shared" si="11"/>
+        <v>0.67900000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>52.540848075216203</v>
+        <v>4.2032678460172965</v>
       </c>
       <c r="B17">
-        <v>38.147062715781601</v>
+        <v>3.0517650172625288</v>
       </c>
       <c r="C17">
-        <v>29.8819331281607</v>
+        <v>2.3905546502528536</v>
       </c>
       <c r="D17">
-        <v>24.0764161034583</v>
+        <v>1.9261132882766652</v>
       </c>
       <c r="E17">
-        <v>19.4918841338086</v>
+        <v>1.559350730704689</v>
       </c>
       <c r="F17">
-        <v>16.3993734733791</v>
+        <v>1.3119498778703313</v>
       </c>
       <c r="G17">
-        <v>14.212708220591001</v>
+        <v>1.1370166576472791</v>
       </c>
       <c r="H17">
-        <v>12.580554044345099</v>
+        <v>1.0064443235476059</v>
       </c>
       <c r="I17">
-        <v>10.922694563091699</v>
+        <v>0.87381556504733282</v>
       </c>
       <c r="J17">
-        <v>9.0225765015706703</v>
+        <v>0.72180612012565393</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L24" si="3">ROUNDUP(A17,1)</f>
-        <v>52.6</v>
+        <f t="shared" ref="L17:L24" si="12">ROUNDUP(A17,3)</f>
+        <v>4.2040000000000006</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
-        <v>38.200000000000003</v>
+        <f t="shared" si="11"/>
+        <v>3.052</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
-        <v>29.900000000000002</v>
+        <f t="shared" si="11"/>
+        <v>2.391</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
-        <v>24.1</v>
+        <f t="shared" si="11"/>
+        <v>1.9269999999999998</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
-        <v>19.5</v>
+        <f t="shared" si="11"/>
+        <v>1.5599999999999998</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
-        <v>16.400000000000002</v>
+        <f t="shared" si="11"/>
+        <v>1.3119999999999998</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
-        <v>14.299999999999999</v>
+        <f t="shared" si="11"/>
+        <v>1.1379999999999999</v>
       </c>
       <c r="S17">
-        <f t="shared" si="2"/>
-        <v>12.6</v>
+        <f t="shared" si="11"/>
+        <v>1.0069999999999999</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>0.874</v>
       </c>
       <c r="U17">
-        <f t="shared" si="2"/>
-        <v>9.1</v>
+        <f t="shared" si="11"/>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>49.205906775823401</v>
+        <v>3.9364725420658697</v>
       </c>
       <c r="B18">
-        <v>37.548384752771</v>
+        <v>3.0038707802216766</v>
       </c>
       <c r="C18">
-        <v>30.3732006001418</v>
+        <v>2.4298560480113416</v>
       </c>
       <c r="D18">
-        <v>24.584488967120599</v>
+        <v>1.9667591173696459</v>
       </c>
       <c r="E18">
-        <v>20.305036189394599</v>
+        <v>1.624402895151565</v>
       </c>
       <c r="F18">
-        <v>17.435314506326598</v>
+        <v>1.3948251605061299</v>
       </c>
       <c r="G18">
-        <v>15.1616722945821</v>
+        <v>1.2129337835665668</v>
       </c>
       <c r="H18">
-        <v>13.3740255019929</v>
+        <v>1.069922040159432</v>
       </c>
       <c r="I18">
-        <v>11.7210430734509</v>
+        <v>0.93768344587607522</v>
       </c>
       <c r="J18">
-        <v>9.6914010080324999</v>
+        <v>0.77531208064260004</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
-        <v>49.300000000000004</v>
+        <f t="shared" si="12"/>
+        <v>3.9369999999999998</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
-        <v>37.6</v>
+        <f t="shared" si="11"/>
+        <v>3.004</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
-        <v>30.400000000000002</v>
+        <f t="shared" si="11"/>
+        <v>2.4299999999999997</v>
       </c>
       <c r="O18">
-        <f t="shared" si="2"/>
-        <v>24.6</v>
+        <f t="shared" si="11"/>
+        <v>1.9669999999999999</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
-        <v>20.400000000000002</v>
+        <f t="shared" si="11"/>
+        <v>1.625</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
-        <v>17.5</v>
+        <f t="shared" si="11"/>
+        <v>1.3949999999999998</v>
       </c>
       <c r="R18">
-        <f t="shared" si="2"/>
-        <v>15.2</v>
+        <f t="shared" si="11"/>
+        <v>1.2129999999999999</v>
       </c>
       <c r="S18">
-        <f t="shared" si="2"/>
-        <v>13.4</v>
+        <f t="shared" si="11"/>
+        <v>1.0699999999999998</v>
       </c>
       <c r="T18">
-        <f t="shared" si="2"/>
-        <v>11.799999999999999</v>
+        <f t="shared" si="11"/>
+        <v>0.93800000000000006</v>
       </c>
       <c r="U18">
-        <f t="shared" si="2"/>
-        <v>9.6999999999999993</v>
+        <f t="shared" si="11"/>
+        <v>0.77600000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>47.239055811700098</v>
+        <v>3.7791244649360065</v>
       </c>
       <c r="B19">
-        <v>37.485854653283099</v>
+        <v>2.9988683722626472</v>
       </c>
       <c r="C19">
-        <v>30.4589243116171</v>
+        <v>2.4367139449293695</v>
       </c>
       <c r="D19">
-        <v>25.1913102696458</v>
+        <v>2.015304821571664</v>
       </c>
       <c r="E19">
-        <v>21.219711246060498</v>
+        <v>1.6975768996848417</v>
       </c>
       <c r="F19">
-        <v>18.266089863194502</v>
+        <v>1.4612871890555572</v>
       </c>
       <c r="G19">
-        <v>16.4216639493185</v>
+        <v>1.3137331159454773</v>
       </c>
       <c r="H19">
-        <v>14.571788056777599</v>
+        <v>1.1657430445422095</v>
       </c>
       <c r="I19">
-        <v>12.6702787410499</v>
+        <v>1.0136222992839936</v>
       </c>
       <c r="J19">
-        <v>10.5954892792747</v>
+        <v>0.8476391423419769</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
-        <v>47.300000000000004</v>
+        <f t="shared" si="12"/>
+        <v>3.78</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>2.9990000000000001</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
-        <v>30.5</v>
+        <f t="shared" si="11"/>
+        <v>2.4369999999999998</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
-        <v>25.200000000000003</v>
+        <f t="shared" si="11"/>
+        <v>2.016</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
-        <v>21.3</v>
+        <f t="shared" si="11"/>
+        <v>1.698</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="2"/>
-        <v>18.3</v>
+        <f t="shared" si="11"/>
+        <v>1.462</v>
       </c>
       <c r="R19">
-        <f t="shared" si="2"/>
-        <v>16.5</v>
+        <f t="shared" si="11"/>
+        <v>1.3139999999999998</v>
       </c>
       <c r="S19">
-        <f t="shared" si="2"/>
-        <v>14.6</v>
+        <f t="shared" si="11"/>
+        <v>1.1659999999999999</v>
       </c>
       <c r="T19">
-        <f t="shared" si="2"/>
-        <v>12.7</v>
+        <f t="shared" si="11"/>
+        <v>1.0139999999999998</v>
       </c>
       <c r="U19">
-        <f t="shared" si="2"/>
-        <v>10.6</v>
+        <f t="shared" si="11"/>
+        <v>0.84799999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>44.080391740703803</v>
+        <v>3.5264313392563014</v>
       </c>
       <c r="B20">
-        <v>36.242300299497501</v>
+        <v>2.8993840239598008</v>
       </c>
       <c r="C20">
-        <v>30.252291798732799</v>
+        <v>2.4201833438986227</v>
       </c>
       <c r="D20">
-        <v>25.636159055964601</v>
+        <v>2.0508927244771642</v>
       </c>
       <c r="E20">
-        <v>22.0885459151711</v>
+        <v>1.7670836732136872</v>
       </c>
       <c r="F20">
-        <v>19.845072094868598</v>
+        <v>1.5876057675894861</v>
       </c>
       <c r="G20">
-        <v>17.7479498341899</v>
+        <v>1.4198359867351897</v>
       </c>
       <c r="H20">
-        <v>15.82622622441</v>
+        <v>1.2660980979527983</v>
       </c>
       <c r="I20">
-        <v>13.8425491603602</v>
+        <v>1.1074039328288132</v>
       </c>
       <c r="J20">
-        <v>11.933859886068401</v>
+        <v>0.9547087908854679</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
-        <v>44.1</v>
+        <f t="shared" si="12"/>
+        <v>3.5269999999999997</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
-        <v>36.300000000000004</v>
+        <f t="shared" si="11"/>
+        <v>2.9</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
-        <v>30.3</v>
+        <f t="shared" si="11"/>
+        <v>2.4209999999999998</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
-        <v>25.700000000000003</v>
+        <f t="shared" si="11"/>
+        <v>2.0509999999999997</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
-        <v>22.1</v>
+        <f t="shared" si="11"/>
+        <v>1.7679999999999998</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="2"/>
-        <v>19.900000000000002</v>
+        <f t="shared" si="11"/>
+        <v>1.5879999999999999</v>
       </c>
       <c r="R20">
-        <f t="shared" si="2"/>
-        <v>17.8</v>
+        <f t="shared" si="11"/>
+        <v>1.42</v>
       </c>
       <c r="S20">
-        <f t="shared" si="2"/>
-        <v>15.9</v>
+        <f t="shared" si="11"/>
+        <v>1.2669999999999999</v>
       </c>
       <c r="T20">
-        <f t="shared" si="2"/>
-        <v>13.9</v>
+        <f t="shared" si="11"/>
+        <v>1.1079999999999999</v>
       </c>
       <c r="U20">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>43.056623132762702</v>
+        <v>3.4445298506210196</v>
       </c>
       <c r="B21">
-        <v>37.025389580170398</v>
+        <v>2.962031166413635</v>
       </c>
       <c r="C21">
-        <v>31.335396881967199</v>
+        <v>2.5068317505573723</v>
       </c>
       <c r="D21">
-        <v>27.600510617842499</v>
+        <v>2.2080408494274</v>
       </c>
       <c r="E21">
-        <v>24.050762014611301</v>
+        <v>1.9240609611689024</v>
       </c>
       <c r="F21">
-        <v>21.876816626133799</v>
+        <v>1.7501453300907064</v>
       </c>
       <c r="G21">
-        <v>19.574314395447299</v>
+        <v>1.5659451516357823</v>
       </c>
       <c r="H21">
-        <v>17.7999640859435</v>
+        <v>1.4239971268754807</v>
       </c>
       <c r="I21">
-        <v>15.5491510786707</v>
+        <v>1.2439320862936536</v>
       </c>
       <c r="J21">
-        <v>13.5137136813014</v>
+        <v>1.0810970945041145</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
-        <v>43.1</v>
+        <f t="shared" si="12"/>
+        <v>3.4449999999999998</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
-        <v>37.1</v>
+        <f t="shared" si="11"/>
+        <v>2.9630000000000001</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
-        <v>31.400000000000002</v>
+        <f t="shared" si="11"/>
+        <v>2.5069999999999997</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
-        <v>27.700000000000003</v>
+        <f t="shared" si="11"/>
+        <v>2.2090000000000001</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
-        <v>24.1</v>
+        <f t="shared" si="11"/>
+        <v>1.9249999999999998</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
-        <v>21.900000000000002</v>
+        <f t="shared" si="11"/>
+        <v>1.7509999999999999</v>
       </c>
       <c r="R21">
-        <f t="shared" si="2"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1.5659999999999998</v>
       </c>
       <c r="S21">
-        <f t="shared" si="2"/>
-        <v>17.8</v>
+        <f t="shared" si="11"/>
+        <v>1.4239999999999999</v>
       </c>
       <c r="T21">
-        <f t="shared" si="2"/>
-        <v>15.6</v>
+        <f t="shared" si="11"/>
+        <v>1.244</v>
       </c>
       <c r="U21">
-        <f t="shared" si="2"/>
-        <v>13.6</v>
+        <f t="shared" si="11"/>
+        <v>1.0819999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>38.393888642780702</v>
+        <v>3.0715110914224528</v>
       </c>
       <c r="B22">
-        <v>34.319250189319298</v>
+        <v>2.7455400151455458</v>
       </c>
       <c r="C22">
-        <v>30.061372407334499</v>
+        <v>2.4049097925867589</v>
       </c>
       <c r="D22">
-        <v>27.419621147495999</v>
+        <v>2.1935696917996772</v>
       </c>
       <c r="E22">
-        <v>25.278497638732802</v>
+        <v>2.0222798110986213</v>
       </c>
       <c r="F22">
-        <v>23.389505201735801</v>
+        <v>1.8711604161388677</v>
       </c>
       <c r="G22">
-        <v>21.568424424857302</v>
+        <v>1.7254739539885813</v>
       </c>
       <c r="H22">
-        <v>19.7142219291527</v>
+        <v>1.5771377543322145</v>
       </c>
       <c r="I22">
-        <v>17.782179971615701</v>
+        <v>1.4225743977292529</v>
       </c>
       <c r="J22">
-        <v>15.759734751996</v>
+        <v>1.2607787801596779</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
-        <v>38.4</v>
+        <f t="shared" si="12"/>
+        <v>3.0720000000000001</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
-        <v>34.4</v>
+        <f t="shared" si="11"/>
+        <v>2.746</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
-        <v>30.1</v>
+        <f t="shared" si="11"/>
+        <v>2.4049999999999998</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
+        <f t="shared" si="11"/>
+        <v>2.194</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
-        <v>25.3</v>
+        <f t="shared" si="11"/>
+        <v>2.0229999999999997</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
-        <v>23.400000000000002</v>
+        <f t="shared" si="11"/>
+        <v>1.8719999999999999</v>
       </c>
       <c r="R22">
-        <f t="shared" si="2"/>
-        <v>21.6</v>
+        <f t="shared" si="11"/>
+        <v>1.726</v>
       </c>
       <c r="S22">
-        <f t="shared" si="2"/>
-        <v>19.8</v>
+        <f t="shared" si="11"/>
+        <v>1.5779999999999998</v>
       </c>
       <c r="T22">
-        <f t="shared" si="2"/>
-        <v>17.8</v>
+        <f t="shared" si="11"/>
+        <v>1.4229999999999998</v>
       </c>
       <c r="U22">
-        <f t="shared" si="2"/>
-        <v>15.799999999999999</v>
+        <f t="shared" si="11"/>
+        <v>1.2609999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>32.924154955349202</v>
+        <v>2.633932396427936</v>
       </c>
       <c r="B23">
-        <v>31.615228531821</v>
+        <v>2.5292182825456782</v>
       </c>
       <c r="C23">
-        <v>29.487707095289199</v>
+        <v>2.3590165676231329</v>
       </c>
       <c r="D23">
-        <v>27.519097950544101</v>
+        <v>2.2015278360435295</v>
       </c>
       <c r="E23">
-        <v>26.4530365880087</v>
+        <v>2.1162429270406986</v>
       </c>
       <c r="F23">
-        <v>24.582402056394201</v>
+        <v>1.9665921645115325</v>
       </c>
       <c r="G23">
-        <v>23.438853182631998</v>
+        <v>1.8751082546105624</v>
       </c>
       <c r="H23">
-        <v>21.569500882638799</v>
+        <v>1.7255600706111052</v>
       </c>
       <c r="I23">
-        <v>20.298990664708601</v>
+        <v>1.6239192531766857</v>
       </c>
       <c r="J23">
-        <v>18.406806705610599</v>
+        <v>1.4725445364488505</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="12"/>
+        <v>2.6339999999999999</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
-        <v>31.700000000000003</v>
+        <f t="shared" si="11"/>
+        <v>2.5299999999999998</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
-        <v>29.5</v>
+        <f t="shared" si="11"/>
+        <v>2.36</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
-        <v>27.6</v>
+        <f t="shared" si="11"/>
+        <v>2.202</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
-        <v>26.5</v>
+        <f t="shared" si="11"/>
+        <v>2.117</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>24.6</v>
+        <f t="shared" si="11"/>
+        <v>1.9669999999999999</v>
       </c>
       <c r="R23">
-        <f t="shared" si="2"/>
-        <v>23.5</v>
+        <f t="shared" si="11"/>
+        <v>1.8759999999999999</v>
       </c>
       <c r="S23">
-        <f t="shared" si="2"/>
-        <v>21.6</v>
+        <f t="shared" si="11"/>
+        <v>1.726</v>
       </c>
       <c r="T23">
-        <f t="shared" si="2"/>
-        <v>20.3</v>
+        <f t="shared" si="11"/>
+        <v>1.6239999999999999</v>
       </c>
       <c r="U23">
-        <f t="shared" si="2"/>
-        <v>18.5</v>
+        <f t="shared" si="11"/>
+        <v>1.4729999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>29.038414381694899</v>
+        <v>2.3230731505355893</v>
       </c>
       <c r="B24">
-        <v>28.1980697056865</v>
+        <v>2.255845576454917</v>
       </c>
       <c r="C24">
-        <v>27.3612785853398</v>
+        <v>2.1889022868271799</v>
       </c>
       <c r="D24">
-        <v>26.527598970483101</v>
+        <v>2.1222079176386464</v>
       </c>
       <c r="E24">
-        <v>25.696719961345899</v>
+        <v>2.0557375969076706</v>
       </c>
       <c r="F24">
-        <v>24.8684372894175</v>
+        <v>1.9894749831534027</v>
       </c>
       <c r="G24">
-        <v>24.042634497130901</v>
+        <v>1.9234107597704713</v>
       </c>
       <c r="H24">
-        <v>23.996998928853898</v>
+        <v>1.9197599143083102</v>
       </c>
       <c r="I24">
-        <v>23.148604504057499</v>
+        <v>1.851888360324597</v>
       </c>
       <c r="J24">
-        <v>22.302857475170299</v>
+        <v>1.7842285980136272</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
-        <v>29.1</v>
+        <f t="shared" si="12"/>
+        <v>2.3239999999999998</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
-        <v>28.200000000000003</v>
+        <f t="shared" si="11"/>
+        <v>2.2559999999999998</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
-        <v>27.400000000000002</v>
+        <f t="shared" si="11"/>
+        <v>2.1890000000000001</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
-        <v>26.6</v>
+        <f t="shared" si="11"/>
+        <v>2.1229999999999998</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
-        <v>25.700000000000003</v>
+        <f t="shared" si="11"/>
+        <v>2.056</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>24.900000000000002</v>
+        <f t="shared" si="11"/>
+        <v>1.99</v>
       </c>
       <c r="R24">
-        <f t="shared" si="2"/>
-        <v>24.1</v>
+        <f t="shared" si="11"/>
+        <v>1.9239999999999999</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="11"/>
+        <v>1.92</v>
       </c>
       <c r="T24">
-        <f t="shared" si="2"/>
-        <v>23.200000000000003</v>
+        <f t="shared" si="11"/>
+        <v>1.8519999999999999</v>
       </c>
       <c r="U24">
-        <f t="shared" si="2"/>
-        <v>22.400000000000002</v>
+        <f t="shared" si="11"/>
+        <v>1.7849999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -9261,35 +11149,35 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29:T37" si="4">ROUNDUP(B29,3)</f>
+        <f t="shared" ref="M29:T37" si="13">ROUNDUP(B29,3)</f>
         <v>0.36</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.44</v>
       </c>
       <c r="O29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.52</v>
       </c>
       <c r="P29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.68</v>
       </c>
       <c r="R29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.76</v>
       </c>
       <c r="S29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.84</v>
       </c>
       <c r="T29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.92</v>
       </c>
       <c r="U29">
@@ -9328,39 +11216,39 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:L37" si="5">ROUNDUP(A30,3)</f>
+        <f t="shared" ref="L30:L37" si="14">ROUNDUP(A30,3)</f>
         <v>0.316</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.39200000000000002</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.46800000000000003</v>
       </c>
       <c r="O30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.54400000000000004</v>
       </c>
       <c r="P30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.62</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.69599999999999995</v>
       </c>
       <c r="R30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.77200000000000002</v>
       </c>
       <c r="S30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.84799999999999998</v>
       </c>
       <c r="T30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.92400000000000004</v>
       </c>
       <c r="U30">
@@ -9399,39 +11287,39 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.35799999999999998</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.43</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.501</v>
       </c>
       <c r="O31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.57199999999999995</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.64400000000000002</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.71499999999999997</v>
       </c>
       <c r="R31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.78600000000000003</v>
       </c>
       <c r="S31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.85799999999999998</v>
       </c>
       <c r="T31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.92900000000000005</v>
       </c>
       <c r="U31">
@@ -9470,39 +11358,39 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.40699999999999997</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.47299999999999998</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.53900000000000003</v>
       </c>
       <c r="O32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.60499999999999998</v>
       </c>
       <c r="P32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.67100000000000004</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.73699999999999999</v>
       </c>
       <c r="R32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.80300000000000005</v>
       </c>
       <c r="S32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.86899999999999999</v>
       </c>
       <c r="T32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.93500000000000005</v>
       </c>
       <c r="U32">
@@ -9541,39 +11429,39 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.47099999999999997</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.53</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.58899999999999997</v>
       </c>
       <c r="O33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.64800000000000002</v>
       </c>
       <c r="P33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.70699999999999996</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.76500000000000001</v>
       </c>
       <c r="R33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.82399999999999995</v>
       </c>
       <c r="S33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.88300000000000001</v>
       </c>
       <c r="T33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.94199999999999995</v>
       </c>
       <c r="U33">
@@ -9612,39 +11500,39 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.52700000000000002</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.63200000000000001</v>
       </c>
       <c r="O34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.68500000000000005</v>
       </c>
       <c r="P34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.73699999999999999</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.79</v>
       </c>
       <c r="R34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.84299999999999997</v>
       </c>
       <c r="S34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="T34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.94799999999999995</v>
       </c>
       <c r="U34">
@@ -9683,39 +11571,39 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.63</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.67200000000000004</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.71299999999999997</v>
       </c>
       <c r="O35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.754</v>
       </c>
       <c r="P35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.79500000000000004</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.83599999999999997</v>
       </c>
       <c r="R35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.877</v>
       </c>
       <c r="S35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.91800000000000004</v>
       </c>
       <c r="T35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.95899999999999996</v>
       </c>
       <c r="U35">
@@ -9754,39 +11642,39 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.75700000000000001</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.78400000000000003</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.81100000000000005</v>
       </c>
       <c r="O36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.83799999999999997</v>
       </c>
       <c r="P36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.89200000000000002</v>
       </c>
       <c r="R36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.91900000000000004</v>
       </c>
       <c r="S36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.94599999999999995</v>
       </c>
       <c r="T36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.97299999999999998</v>
       </c>
       <c r="U36">
@@ -9825,39 +11713,39 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.91</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.92</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.93</v>
       </c>
       <c r="O37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.94</v>
       </c>
       <c r="P37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.95</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.96</v>
       </c>
       <c r="R37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.97</v>
       </c>
       <c r="S37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.98</v>
       </c>
       <c r="T37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.99</v>
       </c>
       <c r="U37">
@@ -9908,39 +11796,39 @@
         <v>5560.8</v>
       </c>
       <c r="M40">
-        <f t="shared" ref="M40:U48" si="6">ROUNDUP(B40,1)</f>
+        <f t="shared" ref="M40:U48" si="15">ROUNDUP(B40,1)</f>
         <v>9192.3000000000011</v>
       </c>
       <c r="N40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>13731.6</v>
       </c>
       <c r="O40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>19178.8</v>
       </c>
       <c r="P40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>25533.9</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>32796.9</v>
       </c>
       <c r="R40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>40967.799999999996</v>
       </c>
       <c r="S40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>50046.5</v>
       </c>
       <c r="T40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>60033.1</v>
       </c>
       <c r="U40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>70927.5</v>
       </c>
     </row>
@@ -9976,43 +11864,43 @@
         <v>55650.98</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L41:L48" si="7">ROUNDUP(A41,1)</f>
+        <f t="shared" ref="L41:L48" si="16">ROUNDUP(A41,1)</f>
         <v>5533.7000000000007</v>
       </c>
       <c r="M41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>8525.8000000000011</v>
       </c>
       <c r="N41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>12162</v>
       </c>
       <c r="O41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>16442.3</v>
       </c>
       <c r="P41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>21366.699999999997</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>26935.3</v>
       </c>
       <c r="R41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>33148.1</v>
       </c>
       <c r="S41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>40004.9</v>
       </c>
       <c r="T41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>47505.9</v>
       </c>
       <c r="U41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>55651</v>
       </c>
     </row>
@@ -10048,43 +11936,43 @@
         <v>43162.28</v>
       </c>
       <c r="L42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5521.6</v>
       </c>
       <c r="M42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7945.1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>10808.2</v>
       </c>
       <c r="O42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>14111.1</v>
       </c>
       <c r="P42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>17853.699999999997</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>22036</v>
       </c>
       <c r="R42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>26658</v>
       </c>
       <c r="S42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>31719.699999999997</v>
       </c>
       <c r="T42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>37221.199999999997</v>
       </c>
       <c r="U42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>43162.299999999996</v>
       </c>
     </row>
@@ -10120,43 +12008,43 @@
         <v>33052.32</v>
       </c>
       <c r="L43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5475.1</v>
       </c>
       <c r="M43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7391.3</v>
       </c>
       <c r="N43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>9594.5</v>
       </c>
       <c r="O43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>12084.7</v>
       </c>
       <c r="P43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>14861.9</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>17926</v>
       </c>
       <c r="R43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>21277.1</v>
       </c>
       <c r="S43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>24915.199999999997</v>
       </c>
       <c r="T43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>28840.3</v>
       </c>
       <c r="U43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>33052.400000000001</v>
       </c>
     </row>
@@ -10192,43 +12080,43 @@
         <v>24956.12</v>
       </c>
       <c r="L44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5536.3</v>
       </c>
       <c r="M44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7004.3</v>
       </c>
       <c r="N44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>8644.8000000000011</v>
       </c>
       <c r="O44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>10457.700000000001</v>
       </c>
       <c r="P44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>12443</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>14600.800000000001</v>
       </c>
       <c r="R44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>16931</v>
       </c>
       <c r="S44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>19433.599999999999</v>
       </c>
       <c r="T44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>22108.699999999997</v>
       </c>
       <c r="U44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>24956.199999999997</v>
       </c>
     </row>
@@ -10264,43 +12152,43 @@
         <v>18549.93</v>
       </c>
       <c r="L45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5142.1000000000004</v>
       </c>
       <c r="M45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6221.1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7402.8</v>
       </c>
       <c r="O45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>8687.2000000000007</v>
       </c>
       <c r="P45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>10074.300000000001</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>11564</v>
       </c>
       <c r="R45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>13156.5</v>
       </c>
       <c r="S45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>14851.6</v>
       </c>
       <c r="T45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>16649.5</v>
       </c>
       <c r="U45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>18550</v>
       </c>
     </row>
@@ -10336,43 +12224,43 @@
         <v>13579.58</v>
       </c>
       <c r="L46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5389.8</v>
       </c>
       <c r="M46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6116.2000000000007</v>
       </c>
       <c r="N46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6888.4000000000005</v>
       </c>
       <c r="O46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7706.6</v>
       </c>
       <c r="P46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>8570.7000000000007</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>9480.7000000000007</v>
       </c>
       <c r="R46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>10436.6</v>
       </c>
       <c r="S46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>11438.300000000001</v>
       </c>
       <c r="T46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>12486</v>
       </c>
       <c r="U46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>13579.6</v>
       </c>
     </row>
@@ -10408,43 +12296,43 @@
         <v>9919.2099999999991</v>
       </c>
       <c r="L47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5679.2000000000007</v>
       </c>
       <c r="M47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6092.3</v>
       </c>
       <c r="N47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6520</v>
       </c>
       <c r="O47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6962.1</v>
       </c>
       <c r="P47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7418.7000000000007</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7889.8</v>
       </c>
       <c r="R47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>8375.4</v>
       </c>
       <c r="S47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>8875.5</v>
       </c>
       <c r="T47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>9390.1</v>
       </c>
       <c r="U47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>9919.3000000000011</v>
       </c>
     </row>
@@ -10480,43 +12368,43 @@
         <v>7246.96</v>
       </c>
       <c r="L48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>6001.3</v>
       </c>
       <c r="M48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6133.9000000000005</v>
       </c>
       <c r="N48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6267.9000000000005</v>
       </c>
       <c r="O48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6403.5</v>
       </c>
       <c r="P48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6540.4000000000005</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6678.8</v>
       </c>
       <c r="R48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6818.7000000000007</v>
       </c>
       <c r="S48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6960</v>
       </c>
       <c r="T48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7102.8</v>
       </c>
       <c r="U48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7247</v>
       </c>
     </row>
@@ -10530,650 +12418,3167 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2.24635035275E-3</v>
+        <v>2.2463503527499996E-3</v>
       </c>
       <c r="B53">
-        <v>2.2278575097448099E-3</v>
+        <v>2.2278575097448117E-3</v>
       </c>
       <c r="C53">
-        <v>2.21129177974847E-3</v>
+        <v>2.2112917797484735E-3</v>
       </c>
       <c r="D53">
-        <v>2.2024321113482399E-3</v>
+        <v>2.202432111348243E-3</v>
       </c>
       <c r="E53">
-        <v>2.2033814317985998E-3</v>
+        <v>2.2033814317985994E-3</v>
       </c>
       <c r="F53">
-        <v>2.2091032880796301E-3</v>
+        <v>2.2091032880796257E-3</v>
       </c>
       <c r="G53">
-        <v>2.2137454652692802E-3</v>
+        <v>2.2137454652692758E-3</v>
       </c>
       <c r="H53">
-        <v>2.2147235560923198E-3</v>
+        <v>2.2147235560923207E-3</v>
       </c>
       <c r="I53">
-        <v>2.2184813170205301E-3</v>
+        <v>2.218481317020527E-3</v>
       </c>
       <c r="J53">
-        <v>2.2330085155916699E-3</v>
+        <v>2.233008515591666E-3</v>
       </c>
       <c r="L53">
         <f>ROUNDUP(A53,6)</f>
         <v>2.2470000000000003E-3</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:U61" si="8">ROUNDUP(B53,6)</f>
+        <f t="shared" ref="M53:U61" si="17">ROUNDUP(B53,6)</f>
         <v>2.2279999999999999E-3</v>
       </c>
       <c r="N53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.212E-3</v>
       </c>
       <c r="O53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.2030000000000001E-3</v>
       </c>
       <c r="P53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.2040000000000002E-3</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.2100000000000002E-3</v>
       </c>
       <c r="R53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.2140000000000003E-3</v>
       </c>
       <c r="S53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.215E-3</v>
       </c>
       <c r="T53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.2190000000000001E-3</v>
       </c>
       <c r="U53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2.2340000000000003E-3</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1.83845619066668E-3</v>
+        <v>1.8384561906666778E-3</v>
       </c>
       <c r="B54">
-        <v>1.8240705311671399E-3</v>
+        <v>1.8240705311671369E-3</v>
       </c>
       <c r="C54">
-        <v>1.8128100976216399E-3</v>
+        <v>1.8128100976216386E-3</v>
       </c>
       <c r="D54">
-        <v>1.80852012392172E-3</v>
+        <v>1.8085201239217241E-3</v>
       </c>
       <c r="E54">
-        <v>1.8107366490823301E-3</v>
+        <v>1.8107366490823259E-3</v>
       </c>
       <c r="F54">
-        <v>1.81543049387574E-3</v>
+        <v>1.8154304938757418E-3</v>
       </c>
       <c r="G54">
-        <v>1.8185034594598499E-3</v>
+        <v>1.818503459459854E-3</v>
       </c>
       <c r="H54">
-        <v>1.81917302104793E-3</v>
+        <v>1.8191730210479345E-3</v>
       </c>
       <c r="I54">
-        <v>1.8224895255742599E-3</v>
+        <v>1.8224895255742612E-3</v>
       </c>
       <c r="J54">
-        <v>1.83409591876504E-3</v>
+        <v>1.8340959187650404E-3</v>
       </c>
       <c r="L54">
-        <f t="shared" ref="L54:L61" si="9">ROUNDUP(A54,6)</f>
+        <f t="shared" ref="L54:L61" si="18">ROUNDUP(A54,6)</f>
         <v>1.8389999999999999E-3</v>
       </c>
       <c r="M54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.825E-3</v>
       </c>
       <c r="N54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.8129999999999999E-3</v>
       </c>
       <c r="O54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.8089999999999998E-3</v>
       </c>
       <c r="P54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.8109999999999999E-3</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.8159999999999999E-3</v>
       </c>
       <c r="R54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.8189999999999999E-3</v>
       </c>
       <c r="S54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.82E-3</v>
       </c>
       <c r="T54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.823E-3</v>
       </c>
       <c r="U54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.8349999999999998E-3</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1.4903798664759201E-3</v>
+        <v>1.4903798664759212E-3</v>
       </c>
       <c r="B55">
-        <v>1.48023854864086E-3</v>
+        <v>1.4802385486408641E-3</v>
       </c>
       <c r="C55">
-        <v>1.47379160982871E-3</v>
+        <v>1.4737916098287057E-3</v>
       </c>
       <c r="D55">
-        <v>1.4728585709668401E-3</v>
+        <v>1.4728585709668383E-3</v>
       </c>
       <c r="E55">
-        <v>1.47556578049118E-3</v>
+        <v>1.4755657804911835E-3</v>
       </c>
       <c r="F55">
-        <v>1.4791319708479501E-3</v>
+        <v>1.4791319708479475E-3</v>
       </c>
       <c r="G55">
-        <v>1.480915223134E-3</v>
+        <v>1.4809152231339954E-3</v>
       </c>
       <c r="H55">
-        <v>1.4814360882458399E-3</v>
+        <v>1.481436088245841E-3</v>
       </c>
       <c r="I55">
-        <v>1.48435412752891E-3</v>
+        <v>1.4843541275289108E-3</v>
       </c>
       <c r="J55">
-        <v>1.4934635590276E-3</v>
+        <v>1.4934635590275985E-3</v>
       </c>
       <c r="L55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.4909999999999999E-3</v>
       </c>
       <c r="M55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.4809999999999999E-3</v>
       </c>
       <c r="N55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.4739999999999998E-3</v>
       </c>
       <c r="O55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.4729999999999999E-3</v>
       </c>
       <c r="P55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.4759999999999999E-3</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.48E-3</v>
       </c>
       <c r="R55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.4809999999999999E-3</v>
       </c>
       <c r="S55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.4819999999999998E-3</v>
       </c>
       <c r="T55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.485E-3</v>
       </c>
       <c r="U55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.4939999999999999E-3</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1.1945709645271199E-3</v>
+        <v>1.1945709645271249E-3</v>
       </c>
       <c r="B56">
-        <v>1.1885782625129101E-3</v>
+        <v>1.1885782625129103E-3</v>
       </c>
       <c r="C56">
-        <v>1.1861660200133701E-3</v>
+        <v>1.1861660200133703E-3</v>
       </c>
       <c r="D56">
-        <v>1.18709478589791E-3</v>
+        <v>1.1870947858979096E-3</v>
       </c>
       <c r="E56">
-        <v>1.1896426765013099E-3</v>
+        <v>1.1896426765013091E-3</v>
       </c>
       <c r="F56">
-        <v>1.1920470429942901E-3</v>
+        <v>1.1920470429942849E-3</v>
       </c>
       <c r="G56">
-        <v>1.1928932517768899E-3</v>
+        <v>1.1928932517768893E-3</v>
       </c>
       <c r="H56">
-        <v>1.1933866035970899E-3</v>
+        <v>1.1933866035970906E-3</v>
       </c>
       <c r="I56">
-        <v>1.1959256640849199E-3</v>
+        <v>1.1959256640849179E-3</v>
       </c>
       <c r="J56">
-        <v>1.2029150469154901E-3</v>
+        <v>1.2029150469154855E-3</v>
       </c>
       <c r="L56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.1949999999999999E-3</v>
       </c>
       <c r="M56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.189E-3</v>
       </c>
       <c r="N56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.1869999999999999E-3</v>
       </c>
       <c r="O56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.1879999999999998E-3</v>
       </c>
       <c r="P56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.1899999999999999E-3</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.1929999999999998E-3</v>
       </c>
       <c r="R56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.1929999999999998E-3</v>
       </c>
       <c r="S56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.194E-3</v>
       </c>
       <c r="T56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.196E-3</v>
       </c>
       <c r="U56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2029999999999999E-3</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>9.4712314726967401E-4</v>
+        <v>9.4712314726967358E-4</v>
       </c>
       <c r="B57">
-        <v>9.4517536488841704E-4</v>
+        <v>9.4517536488841671E-4</v>
       </c>
       <c r="C57">
-        <v>9.45484754290911E-4</v>
+        <v>9.4548475429091067E-4</v>
       </c>
       <c r="D57">
-        <v>9.4709405671448402E-4</v>
+        <v>9.4709405671448391E-4</v>
       </c>
       <c r="E57">
-        <v>9.49006260122079E-4</v>
+        <v>9.4900626012207922E-4</v>
       </c>
       <c r="F57">
-        <v>9.50230737780833E-4</v>
+        <v>9.5023073778083267E-4</v>
       </c>
       <c r="G57">
-        <v>9.50524728177315E-4</v>
+        <v>9.5052472817731468E-4</v>
       </c>
       <c r="H57">
-        <v>9.5108480674968403E-4</v>
+        <v>9.5108480674968381E-4</v>
       </c>
       <c r="I57">
-        <v>9.5327110192439102E-4</v>
+        <v>9.5327110192439124E-4</v>
       </c>
       <c r="J57">
-        <v>9.5844374212788997E-4</v>
+        <v>9.5844374212788975E-4</v>
       </c>
       <c r="L57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>9.4800000000000006E-4</v>
       </c>
       <c r="M57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.4600000000000001E-4</v>
       </c>
       <c r="N57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.4600000000000001E-4</v>
       </c>
       <c r="O57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.4800000000000006E-4</v>
       </c>
       <c r="P57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.5E-4</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.5100000000000002E-4</v>
       </c>
       <c r="R57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.5100000000000002E-4</v>
       </c>
       <c r="S57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.5200000000000005E-4</v>
       </c>
       <c r="T57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.5399999999999999E-4</v>
       </c>
       <c r="U57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.59E-4</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>7.4349516776469596E-4</v>
+        <v>7.4349516776469639E-4</v>
       </c>
       <c r="B58">
-        <v>7.4357766972725004E-4</v>
+        <v>7.4357766972725037E-4</v>
       </c>
       <c r="C58">
         <v>7.4458032900397804E-4</v>
       </c>
       <c r="D58">
-        <v>7.4594075221978804E-4</v>
+        <v>7.4594075221978771E-4</v>
       </c>
       <c r="E58">
-        <v>7.4709654599958901E-4</v>
+        <v>7.4709654599958869E-4</v>
       </c>
       <c r="F58">
-        <v>7.4757949813175303E-4</v>
+        <v>7.475794981317526E-4</v>
       </c>
       <c r="G58">
-        <v>7.4773608720275395E-4</v>
+        <v>7.4773608720275363E-4</v>
       </c>
       <c r="H58">
-        <v>7.4833014653539402E-4</v>
+        <v>7.4833014653539413E-4</v>
       </c>
       <c r="I58">
-        <v>7.5012889576983805E-4</v>
+        <v>7.5012889576983816E-4</v>
       </c>
       <c r="J58">
-        <v>7.5389955454624805E-4</v>
+        <v>7.5389955454624837E-4</v>
       </c>
       <c r="L58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>7.4399999999999998E-4</v>
       </c>
       <c r="M58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.4399999999999998E-4</v>
       </c>
       <c r="N58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.45E-4</v>
       </c>
       <c r="O58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.4600000000000003E-4</v>
       </c>
       <c r="P58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.4800000000000008E-4</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.4800000000000008E-4</v>
       </c>
       <c r="R58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.4800000000000008E-4</v>
       </c>
       <c r="S58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.4899999999999999E-4</v>
       </c>
       <c r="T58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.5100000000000004E-4</v>
       </c>
       <c r="U58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.54E-4</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5.6141278262881696E-4</v>
+        <v>5.6141278262881718E-4</v>
       </c>
       <c r="B59">
-        <v>5.6220999643564497E-4</v>
+        <v>5.6220999643564508E-4</v>
       </c>
       <c r="C59">
-        <v>5.6297807054622403E-4</v>
+        <v>5.629780705462236E-4</v>
       </c>
       <c r="D59">
-        <v>5.6351470808922895E-4</v>
+        <v>5.6351470808922862E-4</v>
       </c>
       <c r="E59">
-        <v>5.6371817919794603E-4</v>
+        <v>5.637181791979456E-4</v>
       </c>
       <c r="F59">
-        <v>5.6380265106617002E-4</v>
+        <v>5.6380265106616969E-4</v>
       </c>
       <c r="G59">
-        <v>5.6404415599677397E-4</v>
+        <v>5.6404415599677429E-4</v>
       </c>
       <c r="H59">
-        <v>5.6471872629263202E-4</v>
+        <v>5.6471872629263147E-4</v>
       </c>
       <c r="I59">
-        <v>5.6610239425661495E-4</v>
+        <v>5.6610239425661463E-4</v>
       </c>
       <c r="J59">
-        <v>5.6847119219159703E-4</v>
+        <v>5.684711921915967E-4</v>
       </c>
       <c r="L59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.62E-4</v>
       </c>
       <c r="M59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.6300000000000002E-4</v>
       </c>
       <c r="N59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.6300000000000002E-4</v>
       </c>
       <c r="O59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.6400000000000005E-4</v>
       </c>
       <c r="P59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.6400000000000005E-4</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.6400000000000005E-4</v>
       </c>
       <c r="R59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.6500000000000007E-4</v>
       </c>
       <c r="S59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.6500000000000007E-4</v>
       </c>
       <c r="T59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.6700000000000001E-4</v>
       </c>
       <c r="U59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.6900000000000006E-4</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4.1163965220752003E-4</v>
+        <v>4.1163965220751992E-4</v>
       </c>
       <c r="B60">
-        <v>4.1174592276936302E-4</v>
+        <v>4.1174592276936269E-4</v>
       </c>
       <c r="C60">
-        <v>4.1179181417003798E-4</v>
+        <v>4.1179181417003803E-4</v>
       </c>
       <c r="D60">
-        <v>4.1183467863829099E-4</v>
+        <v>4.1183467863829132E-4</v>
       </c>
       <c r="E60">
-        <v>4.1193186840286799E-4</v>
+        <v>4.1193186840286767E-4</v>
       </c>
       <c r="F60">
-        <v>4.1214073569251198E-4</v>
+        <v>4.1214073569251219E-4</v>
       </c>
       <c r="G60">
-        <v>4.1251863273597002E-4</v>
+        <v>4.1251863273596948E-4</v>
       </c>
       <c r="H60">
-        <v>4.1312291176198501E-4</v>
+        <v>4.1312291176198479E-4</v>
       </c>
       <c r="I60">
-        <v>4.1401092499930299E-4</v>
+        <v>4.1401092499930304E-4</v>
       </c>
       <c r="J60">
-        <v>4.1524002467666998E-4</v>
+        <v>4.1524002467666955E-4</v>
       </c>
       <c r="L60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4.1200000000000004E-4</v>
       </c>
       <c r="M60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.1200000000000004E-4</v>
       </c>
       <c r="N60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.1200000000000004E-4</v>
       </c>
       <c r="O60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.1200000000000004E-4</v>
       </c>
       <c r="P60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.1200000000000004E-4</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.1300000000000001E-4</v>
       </c>
       <c r="R60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.1300000000000001E-4</v>
       </c>
       <c r="S60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.1400000000000003E-4</v>
       </c>
       <c r="T60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.15E-4</v>
       </c>
       <c r="U60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.1600000000000003E-4</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3.0127852509667999E-4</v>
+        <v>3.0127852509668004E-4</v>
       </c>
       <c r="B61">
-        <v>3.0140009436870898E-4</v>
+        <v>3.0140009436870947E-4</v>
       </c>
       <c r="C61">
-        <v>3.0154452492692099E-4</v>
+        <v>3.0154452492692132E-4</v>
       </c>
       <c r="D61">
         <v>3.0171393684907998E-4</v>
       </c>
       <c r="E61">
-        <v>3.0191045021294902E-4</v>
+        <v>3.0191045021294908E-4</v>
       </c>
       <c r="F61">
-        <v>3.02136185096293E-4</v>
+        <v>3.0213618509629267E-4</v>
       </c>
       <c r="G61">
-        <v>3.0239326157687499E-4</v>
+        <v>3.0239326157687461E-4</v>
       </c>
       <c r="H61">
-        <v>3.0268379973245901E-4</v>
+        <v>3.026837997324589E-4</v>
       </c>
       <c r="I61">
-        <v>3.0300991964080901E-4</v>
+        <v>3.0300991964080944E-4</v>
       </c>
       <c r="J61">
-        <v>3.0337374137969002E-4</v>
+        <v>3.0337374137969018E-4</v>
       </c>
       <c r="L61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.0200000000000002E-4</v>
       </c>
       <c r="M61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0200000000000002E-4</v>
       </c>
       <c r="N61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0200000000000002E-4</v>
       </c>
       <c r="O61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0200000000000002E-4</v>
       </c>
       <c r="P61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0200000000000002E-4</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0300000000000005E-4</v>
       </c>
       <c r="R61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0300000000000005E-4</v>
       </c>
       <c r="S61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0300000000000005E-4</v>
       </c>
       <c r="T61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="U61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0400000000000002E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>A40/1000</f>
+        <v>5.5607160000000002</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64:J64" si="19">B40/1000</f>
+        <v>9.1922040000000003</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="19"/>
+        <v>13.731564000000001</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="19"/>
+        <v>19.178795999999998</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="19"/>
+        <v>25.533900000000003</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="19"/>
+        <v>32.796875999999997</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="19"/>
+        <v>40.967724000000004</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="19"/>
+        <v>50.046444000000001</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="19"/>
+        <v>60.033036000000003</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="19"/>
+        <v>70.927499999999995</v>
+      </c>
+      <c r="L64">
+        <f>ROUNDUP(A64,2)</f>
+        <v>5.5699999999999994</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ref="M64:U72" si="20">ROUNDUP(B64,2)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="20"/>
+        <v>13.74</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="20"/>
+        <v>19.180000000000003</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="20"/>
+        <v>25.540000000000003</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="20"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="20"/>
+        <v>40.97</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="20"/>
+        <v>50.05</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="20"/>
+        <v>60.04</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="20"/>
+        <v>70.930000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" ref="A65:J77" si="21">A41/1000</f>
+        <v>5.5336613797422194</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="21"/>
+        <v>8.5257167003724614</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="21"/>
+        <v>12.161905930296699</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="21"/>
+        <v>16.442229069515097</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="21"/>
+        <v>21.366686118027399</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="21"/>
+        <v>26.935277075833898</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="21"/>
+        <v>33.1480019429343</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="21"/>
+        <v>40.004860719328796</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="21"/>
+        <v>47.505853405017398</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="21"/>
+        <v>55.650980000000004</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ref="L65:L72" si="22">ROUNDUP(A65,2)</f>
+        <v>5.54</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="20"/>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="20"/>
+        <v>12.17</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="20"/>
+        <v>16.450000000000003</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="20"/>
+        <v>21.37</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="20"/>
+        <v>26.94</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="20"/>
+        <v>33.15</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="20"/>
+        <v>40.01</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="20"/>
+        <v>47.51</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="20"/>
+        <v>55.66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="21"/>
+        <v>5.5215538522355603</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="21"/>
+        <v>7.9450008340297398</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="21"/>
+        <v>10.808161796702199</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="21"/>
+        <v>14.111036740252802</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="21"/>
+        <v>17.8536256646818</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="21"/>
+        <v>22.035928569988901</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="21"/>
+        <v>26.6579454561743</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="21"/>
+        <v>31.719676323238001</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="21"/>
+        <v>37.221121171179895</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="21"/>
+        <v>43.162279999999996</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="22"/>
+        <v>5.5299999999999994</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="20"/>
+        <v>7.95</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="20"/>
+        <v>10.81</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="20"/>
+        <v>14.12</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="20"/>
+        <v>17.860000000000003</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="20"/>
+        <v>22.040000000000003</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="20"/>
+        <v>26.66</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="20"/>
+        <v>31.720000000000002</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="20"/>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="20"/>
+        <v>43.169999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="21"/>
+        <v>5.4750837556800001</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="21"/>
+        <v>7.3912887432533294</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="21"/>
+        <v>9.5944768240533307</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="21"/>
+        <v>12.084647998079999</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="21"/>
+        <v>14.861802265333299</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="21"/>
+        <v>17.925939625813299</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="21"/>
+        <v>21.277060079520002</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="21"/>
+        <v>24.9151636264533</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="21"/>
+        <v>28.8402502666133</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="21"/>
+        <v>33.052320000000002</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="22"/>
+        <v>5.4799999999999995</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="20"/>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="20"/>
+        <v>9.6</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="20"/>
+        <v>12.09</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="20"/>
+        <v>14.87</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="20"/>
+        <v>17.930000000000003</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="20"/>
+        <v>21.28</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="20"/>
+        <v>24.92</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="20"/>
+        <v>28.85</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="20"/>
+        <v>33.059999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="21"/>
+        <v>5.5362906169199997</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="21"/>
+        <v>7.0042967876898805</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="21"/>
+        <v>8.6447411208528386</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="21"/>
+        <v>10.457623616408901</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="21"/>
+        <v>12.442944274358</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="21"/>
+        <v>14.600703094700201</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="21"/>
+        <v>16.930900077435599</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="21"/>
+        <v>19.433535222564</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="21"/>
+        <v>22.108608530085398</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="21"/>
+        <v>24.956119999999999</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="22"/>
+        <v>5.54</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="20"/>
+        <v>7.01</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="20"/>
+        <v>8.65</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="20"/>
+        <v>10.459999999999999</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="20"/>
+        <v>12.45</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="20"/>
+        <v>14.61</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="20"/>
+        <v>16.940000000000001</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="20"/>
+        <v>19.440000000000001</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="20"/>
+        <v>22.110000000000003</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="20"/>
+        <v>24.96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="21"/>
+        <v>5.1420823333424996</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="21"/>
+        <v>6.2210840698014795</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="21"/>
+        <v>7.4027755851084303</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="21"/>
+        <v>8.6871568792633305</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="21"/>
+        <v>10.074227952266199</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="21"/>
+        <v>11.563988804116999</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="21"/>
+        <v>13.1564394348158</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="21"/>
+        <v>14.8515798443626</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="21"/>
+        <v>16.649410032757299</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="21"/>
+        <v>18.54993</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="22"/>
+        <v>5.1499999999999995</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="20"/>
+        <v>6.2299999999999995</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="20"/>
+        <v>7.41</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="20"/>
+        <v>8.69</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="20"/>
+        <v>10.08</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="20"/>
+        <v>11.57</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="20"/>
+        <v>13.16</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="20"/>
+        <v>14.86</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="20"/>
+        <v>16.650000000000002</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="20"/>
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="21"/>
+        <v>5.3897353020000001</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="21"/>
+        <v>6.1161087126913598</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="21"/>
+        <v>6.8883844567654293</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="21"/>
+        <v>7.7065625342222202</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="21"/>
+        <v>8.5706429450617314</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="21"/>
+        <v>9.4806256892839507</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="21"/>
+        <v>10.436510766888899</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="21"/>
+        <v>11.438298177876501</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="21"/>
+        <v>12.485987922246901</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="21"/>
+        <v>13.57958</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="22"/>
+        <v>5.39</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="20"/>
+        <v>6.12</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="20"/>
+        <v>6.89</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="20"/>
+        <v>7.71</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="20"/>
+        <v>8.58</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="20"/>
+        <v>9.49</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="20"/>
+        <v>10.44</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="20"/>
+        <v>11.44</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="20"/>
+        <v>12.49</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="20"/>
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="21"/>
+        <v>5.6791885787777803</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="21"/>
+        <v>6.0922944210919106</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="21"/>
+        <v>6.5199021756392304</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="21"/>
+        <v>6.9620118424197495</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="21"/>
+        <v>7.4186234214334696</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="21"/>
+        <v>7.8897369126803794</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="21"/>
+        <v>8.3753523161604893</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="21"/>
+        <v>8.8754696318738002</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="21"/>
+        <v>9.3900888598203007</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="21"/>
+        <v>9.9192099999999996</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="22"/>
+        <v>5.68</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="20"/>
+        <v>6.1</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="20"/>
+        <v>6.52</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="20"/>
+        <v>6.97</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="20"/>
+        <v>7.42</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="20"/>
+        <v>7.89</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="20"/>
+        <v>8.379999999999999</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="20"/>
+        <v>8.879999999999999</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="20"/>
+        <v>9.4</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="20"/>
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="21"/>
+        <v>6.0012075759999997</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="21"/>
+        <v>6.1338269439999999</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="21"/>
+        <v>6.2678957039999998</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="21"/>
+        <v>6.4034138560000002</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="21"/>
+        <v>6.5403814000000002</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="21"/>
+        <v>6.6787983359999998</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="21"/>
+        <v>6.8186646639999999</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="21"/>
+        <v>6.9599803840000005</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="21"/>
+        <v>7.1027454959999998</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="21"/>
+        <v>7.2469599999999996</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="22"/>
+        <v>6.01</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="20"/>
+        <v>6.14</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="20"/>
+        <v>6.27</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="20"/>
+        <v>6.41</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="20"/>
+        <v>6.55</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="20"/>
+        <v>6.68</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="20"/>
+        <v>6.8199999999999994</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="20"/>
+        <v>6.96</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="20"/>
+        <v>7.1099999999999994</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="20"/>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>A53*1000</f>
+        <v>2.2463503527499995</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74:J74" si="23">B53*1000</f>
+        <v>2.2278575097448114</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="23"/>
+        <v>2.2112917797484735</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="23"/>
+        <v>2.202432111348243</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="23"/>
+        <v>2.2033814317985994</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="23"/>
+        <v>2.2091032880796257</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="23"/>
+        <v>2.2137454652692758</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="23"/>
+        <v>2.2147235560923209</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="23"/>
+        <v>2.2184813170205269</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="23"/>
+        <v>2.2330085155916661</v>
+      </c>
+      <c r="L74">
+        <f>ROUNDUP(A74,2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ref="M74:U82" si="24">ROUNDUP(B74,2)</f>
+        <v>2.23</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="24"/>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="24"/>
+        <v>2.21</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="24"/>
+        <v>2.21</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="24"/>
+        <v>2.21</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="24"/>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="24"/>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="24"/>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="24"/>
+        <v>2.2399999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" ref="A75:J84" si="25">A54*1000</f>
+        <v>1.8384561906666779</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="25"/>
+        <v>1.8240705311671368</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="25"/>
+        <v>1.8128100976216386</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="25"/>
+        <v>1.8085201239217241</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="25"/>
+        <v>1.810736649082326</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="25"/>
+        <v>1.8154304938757417</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="25"/>
+        <v>1.8185034594598539</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="25"/>
+        <v>1.8191730210479347</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="25"/>
+        <v>1.8224895255742612</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="25"/>
+        <v>1.8340959187650403</v>
+      </c>
+      <c r="L75">
+        <f t="shared" ref="L75:L82" si="26">ROUNDUP(A75,2)</f>
+        <v>1.84</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="24"/>
+        <v>1.83</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="24"/>
+        <v>1.82</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="24"/>
+        <v>1.81</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="24"/>
+        <v>1.82</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="24"/>
+        <v>1.82</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="24"/>
+        <v>1.82</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="24"/>
+        <v>1.82</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="24"/>
+        <v>1.83</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="24"/>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="25"/>
+        <v>1.4903798664759211</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="25"/>
+        <v>1.480238548640864</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="25"/>
+        <v>1.4737916098287056</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="25"/>
+        <v>1.4728585709668383</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="25"/>
+        <v>1.4755657804911835</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="25"/>
+        <v>1.4791319708479476</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="25"/>
+        <v>1.4809152231339955</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="25"/>
+        <v>1.4814360882458411</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="25"/>
+        <v>1.4843541275289109</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="25"/>
+        <v>1.4934635590275984</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="24"/>
+        <v>1.49</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="24"/>
+        <v>1.48</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="24"/>
+        <v>1.48</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="24"/>
+        <v>1.48</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="24"/>
+        <v>1.48</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="24"/>
+        <v>1.49</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="24"/>
+        <v>1.49</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="24"/>
+        <v>1.49</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="24"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="25"/>
+        <v>1.194570964527125</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="25"/>
+        <v>1.1885782625129102</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="25"/>
+        <v>1.1861660200133703</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="25"/>
+        <v>1.1870947858979095</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="25"/>
+        <v>1.1896426765013091</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="25"/>
+        <v>1.1920470429942849</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="25"/>
+        <v>1.1928932517768893</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="25"/>
+        <v>1.1933866035970906</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="25"/>
+        <v>1.1959256640849178</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="25"/>
+        <v>1.2029150469154855</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="26"/>
+        <v>1.2</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="24"/>
+        <v>1.19</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="24"/>
+        <v>1.19</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="24"/>
+        <v>1.19</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="24"/>
+        <v>1.19</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="24"/>
+        <v>1.2</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="24"/>
+        <v>1.2</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="24"/>
+        <v>1.2</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="24"/>
+        <v>1.2</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="24"/>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="25"/>
+        <v>0.94712314726967362</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="25"/>
+        <v>0.94517536488841669</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="25"/>
+        <v>0.94548475429091072</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="25"/>
+        <v>0.94709405671448388</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="25"/>
+        <v>0.94900626012207923</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="25"/>
+        <v>0.95023073778083267</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="25"/>
+        <v>0.9505247281773147</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="25"/>
+        <v>0.95108480674968376</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="25"/>
+        <v>0.95327110192439124</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="25"/>
+        <v>0.95844374212788974</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="26"/>
+        <v>0.95</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="24"/>
+        <v>0.95</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="24"/>
+        <v>0.95</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="24"/>
+        <v>0.95</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="24"/>
+        <v>0.95</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="24"/>
+        <v>0.96</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="24"/>
+        <v>0.96</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="24"/>
+        <v>0.96</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="24"/>
+        <v>0.96</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="24"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="25"/>
+        <v>0.74349516776469637</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="25"/>
+        <v>0.74357766972725037</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="25"/>
+        <v>0.74458032900397808</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="25"/>
+        <v>0.74594075221978773</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="25"/>
+        <v>0.74709654599958863</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="25"/>
+        <v>0.74757949813175262</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="25"/>
+        <v>0.74773608720275364</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="25"/>
+        <v>0.74833014653539409</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="25"/>
+        <v>0.75012889576983821</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="25"/>
+        <v>0.75389955454624835</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="26"/>
+        <v>0.75</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="24"/>
+        <v>0.76</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="24"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="25"/>
+        <v>0.56141278262881722</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="25"/>
+        <v>0.56220999643564507</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="25"/>
+        <v>0.56297807054622362</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="25"/>
+        <v>0.56351470808922866</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="25"/>
+        <v>0.56371817919794565</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="25"/>
+        <v>0.56380265106616967</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="25"/>
+        <v>0.56404415599677427</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="25"/>
+        <v>0.56471872629263142</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="25"/>
+        <v>0.56610239425661468</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="25"/>
+        <v>0.5684711921915967</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="26"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="24"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="24"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="24"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="24"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="24"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="24"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="24"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="24"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="24"/>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="25"/>
+        <v>0.41163965220751991</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="25"/>
+        <v>0.41174592276936267</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="25"/>
+        <v>0.41179181417003802</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="25"/>
+        <v>0.41183467863829132</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="25"/>
+        <v>0.41193186840286766</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="25"/>
+        <v>0.41214073569251219</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="25"/>
+        <v>0.4125186327359695</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="25"/>
+        <v>0.41312291176198479</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="25"/>
+        <v>0.41401092499930303</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="25"/>
+        <v>0.41524002467666954</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="26"/>
+        <v>0.42</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="25"/>
+        <v>0.30127852509668002</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="25"/>
+        <v>0.30140009436870946</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="25"/>
+        <v>0.3015445249269213</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="25"/>
+        <v>0.30171393684907999</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="25"/>
+        <v>0.3019104502129491</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="25"/>
+        <v>0.3021361850962927</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="25"/>
+        <v>0.30239326157687463</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="25"/>
+        <v>0.3026837997324589</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="25"/>
+        <v>0.30300991964080942</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="25"/>
+        <v>0.3033737413796902</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="26"/>
+        <v>0.31</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="24"/>
+        <v>0.31</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="24"/>
+        <v>0.31</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="24"/>
+        <v>0.31</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="24"/>
+        <v>0.31</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="24"/>
+        <v>0.31</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="24"/>
+        <v>0.31</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="24"/>
+        <v>0.31</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="24"/>
+        <v>0.31</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="24"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4.8095292124458202E-4</v>
+      </c>
+      <c r="B86">
+        <v>6.0822865011616201E-4</v>
+      </c>
+      <c r="C86">
+        <v>7.3237638253839503E-4</v>
+      </c>
+      <c r="D86">
+        <v>8.5861398095996499E-4</v>
+      </c>
+      <c r="E86">
+        <v>9.915626792711069E-4</v>
+      </c>
+      <c r="F86">
+        <v>1.1296151497636299E-3</v>
+      </c>
+      <c r="G86">
+        <v>1.2678226690955099E-3</v>
+      </c>
+      <c r="H86">
+        <v>1.40251620292681E-3</v>
+      </c>
+      <c r="I86">
+        <v>1.54130621656381E-3</v>
+      </c>
+      <c r="J86">
+        <v>1.6973457212519499E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3.5459226130984701E-4</v>
+      </c>
+      <c r="B87">
+        <v>4.3327646123099401E-4</v>
+      </c>
+      <c r="C87">
+        <v>5.1111877678882995E-4</v>
+      </c>
+      <c r="D87">
+        <v>5.9148458548119096E-4</v>
+      </c>
+      <c r="E87">
+        <v>6.7592041097408299E-4</v>
+      </c>
+      <c r="F87">
+        <v>7.6284511297607604E-4</v>
+      </c>
+      <c r="G87">
+        <v>8.4912833547554903E-4</v>
+      </c>
+      <c r="H87">
+        <v>9.3351389633003501E-4</v>
+      </c>
+      <c r="I87">
+        <v>1.0209865869646E-3</v>
+      </c>
+      <c r="J87">
+        <v>1.11917213811201E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2.5796138854143098E-4</v>
+      </c>
+      <c r="B88">
+        <v>3.0523933119851101E-4</v>
+      </c>
+      <c r="C88">
+        <v>3.52921550074297E-4</v>
+      </c>
+      <c r="D88">
+        <v>4.0274638765416202E-4</v>
+      </c>
+      <c r="E88">
+        <v>4.5468482734391301E-4</v>
+      </c>
+      <c r="F88">
+        <v>5.0758598968784596E-4</v>
+      </c>
+      <c r="G88">
+        <v>5.5963366562668195E-4</v>
+      </c>
+      <c r="H88">
+        <v>6.1088619826746499E-4</v>
+      </c>
+      <c r="I88">
+        <v>6.6435448928844204E-4</v>
+      </c>
+      <c r="J88">
+        <v>7.24221725675956E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1.83877770248873E-4</v>
+      </c>
+      <c r="B89">
+        <v>2.11507409949185E-4</v>
+      </c>
+      <c r="C89">
+        <v>2.40000166258921E-4</v>
+      </c>
+      <c r="D89">
+        <v>2.6977253528014599E-4</v>
+      </c>
+      <c r="E89">
+        <v>3.0045452308364201E-4</v>
+      </c>
+      <c r="F89">
+        <v>3.3131239989535902E-4</v>
+      </c>
+      <c r="G89">
+        <v>3.6146721220099302E-4</v>
+      </c>
+      <c r="H89">
+        <v>3.9147508282831399E-4</v>
+      </c>
+      <c r="I89">
+        <v>4.2297803962022498E-4</v>
+      </c>
+      <c r="J89">
+        <v>4.5812165955629399E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1.3021662738757001E-4</v>
+      </c>
+      <c r="B90">
+        <v>1.45865021020605E-4</v>
+      </c>
+      <c r="C90">
+        <v>1.6215455718334999E-4</v>
+      </c>
+      <c r="D90">
+        <v>1.7895623237215301E-4</v>
+      </c>
+      <c r="E90">
+        <v>1.9599447743766699E-4</v>
+      </c>
+      <c r="F90">
+        <v>2.12857587730497E-4</v>
+      </c>
+      <c r="G90">
+        <v>2.29356453388E-4</v>
+      </c>
+      <c r="H90">
+        <v>2.4601324851132302E-4</v>
+      </c>
+      <c r="I90">
+        <v>2.6360743916938002E-4</v>
+      </c>
+      <c r="J90">
+        <v>2.8311696018319199E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>8.7195984401527803E-5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>9.5930428583858003E-5</v>
+      </c>
+      <c r="C91">
+        <v>1.0492792398291499E-4</v>
+      </c>
+      <c r="D91">
+        <v>1.14082274692002E-4</v>
+      </c>
+      <c r="E91">
+        <v>1.2323384963517899E-4</v>
+      </c>
+      <c r="F91">
+        <v>1.3220237826964699E-4</v>
+      </c>
+      <c r="G91">
+        <v>1.4107060828359301E-4</v>
+      </c>
+      <c r="H91">
+        <v>1.5012170249548699E-4</v>
+      </c>
+      <c r="I91">
+        <v>1.59713595436138E-4</v>
+      </c>
+      <c r="J91">
+        <v>1.7028201568817199E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>5.8616717701319899E-5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>6.2619256827219598E-5</v>
+      </c>
+      <c r="C92" s="1">
+        <v>6.6636906850712406E-5</v>
+      </c>
+      <c r="D92" s="1">
+        <v>7.0617778172974699E-5</v>
+      </c>
+      <c r="E92" s="1">
+        <v>7.4525340077120106E-5</v>
+      </c>
+      <c r="F92" s="1">
+        <v>7.8405388589566401E-5</v>
+      </c>
+      <c r="G92" s="1">
+        <v>8.2333590439293201E-5</v>
+      </c>
+      <c r="H92" s="1">
+        <v>8.6400900671462595E-5</v>
+      </c>
+      <c r="I92" s="1">
+        <v>9.0714063784539403E-5</v>
+      </c>
+      <c r="J92" s="1">
+        <v>9.5396683323032306E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>3.7849082899907902E-5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>3.9221740959456202E-5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4.0583899046714701E-5</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4.19460448590779E-5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>4.33201804793325E-5</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4.4719831198673797E-5</v>
+      </c>
+      <c r="G93" s="1">
+        <v>4.6160073593352602E-5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>4.7657586530346299E-5</v>
+      </c>
+      <c r="I93" s="1">
+        <v>4.9230728777452199E-5</v>
+      </c>
+      <c r="J93" s="1">
+        <v>5.0899646893195601E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>2.4383390765228E-5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2.4671238313822701E-5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2.4963311538547501E-5</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2.52600932880931E-5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2.5562083550157E-5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2.5869799859048199E-5</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2.6183777748589201E-5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2.6504571252174201E-5</v>
+      </c>
+      <c r="I94" s="1">
+        <v>2.68327534518405E-5</v>
+      </c>
+      <c r="J94" s="1">
+        <v>2.7168917078211499E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f>A86*10000</f>
+        <v>4.8095292124458204</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ref="B98:J98" si="27">B86*10000</f>
+        <v>6.0822865011616205</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="27"/>
+        <v>7.3237638253839501</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="27"/>
+        <v>8.5861398095996506</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="27"/>
+        <v>9.9156267927110697</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="27"/>
+        <v>11.296151497636298</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="27"/>
+        <v>12.6782266909551</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="27"/>
+        <v>14.025162029268101</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="27"/>
+        <v>15.413062165638099</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="27"/>
+        <v>16.973457212519499</v>
+      </c>
+      <c r="L98">
+        <f>ROUNDUP(A98,2)</f>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="M98">
+        <f t="shared" ref="M98:U106" si="28">ROUNDUP(B98,2)</f>
+        <v>6.09</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="28"/>
+        <v>7.33</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="28"/>
+        <v>8.59</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="28"/>
+        <v>9.92</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="28"/>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="28"/>
+        <v>12.68</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="28"/>
+        <v>14.03</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="28"/>
+        <v>15.42</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="28"/>
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" ref="A99:J107" si="29">A87*10000</f>
+        <v>3.5459226130984702</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="29"/>
+        <v>4.3327646123099397</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="29"/>
+        <v>5.1111877678882998</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="29"/>
+        <v>5.9148458548119098</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="29"/>
+        <v>6.7592041097408302</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="29"/>
+        <v>7.6284511297607605</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="29"/>
+        <v>8.49128335475549</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="29"/>
+        <v>9.3351389633003503</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="29"/>
+        <v>10.209865869646</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="29"/>
+        <v>11.1917213811201</v>
+      </c>
+      <c r="L99">
+        <f t="shared" ref="L99:L106" si="30">ROUNDUP(A99,2)</f>
+        <v>3.55</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="28"/>
+        <v>4.34</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="28"/>
+        <v>5.12</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="28"/>
+        <v>5.92</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="28"/>
+        <v>6.76</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="28"/>
+        <v>7.63</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="28"/>
+        <v>8.5</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="28"/>
+        <v>9.34</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="28"/>
+        <v>10.209999999999999</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="28"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="29"/>
+        <v>2.57961388541431</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="29"/>
+        <v>3.0523933119851101</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="29"/>
+        <v>3.52921550074297</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="29"/>
+        <v>4.0274638765416206</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="29"/>
+        <v>4.5468482734391298</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="29"/>
+        <v>5.0758598968784598</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="29"/>
+        <v>5.5963366562668195</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="29"/>
+        <v>6.1088619826746502</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="29"/>
+        <v>6.6435448928844201</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="29"/>
+        <v>7.2422172567595604</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="30"/>
+        <v>2.5799999999999996</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="28"/>
+        <v>3.0599999999999996</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="28"/>
+        <v>3.53</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="28"/>
+        <v>4.0299999999999994</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="28"/>
+        <v>4.55</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="28"/>
+        <v>5.08</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="28"/>
+        <v>5.6</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="28"/>
+        <v>6.1099999999999994</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="28"/>
+        <v>6.6499999999999995</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="28"/>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="29"/>
+        <v>1.83877770248873</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="29"/>
+        <v>2.1150740994918498</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="29"/>
+        <v>2.4000016625892098</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="29"/>
+        <v>2.6977253528014598</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="29"/>
+        <v>3.00454523083642</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="29"/>
+        <v>3.3131239989535901</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="29"/>
+        <v>3.6146721220099303</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="29"/>
+        <v>3.91475082828314</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="29"/>
+        <v>4.2297803962022495</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="29"/>
+        <v>4.5812165955629398</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="30"/>
+        <v>1.84</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="28"/>
+        <v>2.1199999999999997</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="28"/>
+        <v>2.4099999999999997</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="28"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="28"/>
+        <v>3.01</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="28"/>
+        <v>3.32</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="28"/>
+        <v>3.6199999999999997</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="28"/>
+        <v>3.92</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="28"/>
+        <v>4.2299999999999995</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="28"/>
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="29"/>
+        <v>1.3021662738757001</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="29"/>
+        <v>1.4586502102060501</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="29"/>
+        <v>1.6215455718334999</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="29"/>
+        <v>1.7895623237215301</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="29"/>
+        <v>1.9599447743766698</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="29"/>
+        <v>2.1285758773049701</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="29"/>
+        <v>2.2935645338800001</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="29"/>
+        <v>2.4601324851132302</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="29"/>
+        <v>2.6360743916938003</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="29"/>
+        <v>2.8311696018319199</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="30"/>
+        <v>1.31</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="28"/>
+        <v>1.46</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="28"/>
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="28"/>
+        <v>1.79</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="28"/>
+        <v>1.96</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="28"/>
+        <v>2.13</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="28"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="28"/>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="28"/>
+        <v>2.6399999999999997</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="28"/>
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="29"/>
+        <v>0.87195984401527804</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="29"/>
+        <v>0.95930428583858007</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="29"/>
+        <v>1.0492792398291499</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="29"/>
+        <v>1.1408227469200201</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="29"/>
+        <v>1.2323384963517898</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="29"/>
+        <v>1.3220237826964698</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="29"/>
+        <v>1.4107060828359301</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="29"/>
+        <v>1.50121702495487</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="29"/>
+        <v>1.5971359543613799</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="29"/>
+        <v>1.7028201568817198</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="30"/>
+        <v>0.88</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="28"/>
+        <v>0.96</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="28"/>
+        <v>1.05</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="28"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="28"/>
+        <v>1.24</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="28"/>
+        <v>1.33</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="28"/>
+        <v>1.42</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="28"/>
+        <v>1.51</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="28"/>
+        <v>1.6</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="28"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="29"/>
+        <v>0.58616717701319898</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="29"/>
+        <v>0.62619256827219594</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="29"/>
+        <v>0.66636906850712407</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="29"/>
+        <v>0.70617778172974699</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="29"/>
+        <v>0.74525340077120106</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="29"/>
+        <v>0.78405388589566405</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="29"/>
+        <v>0.82333590439293203</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="29"/>
+        <v>0.86400900671462599</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="29"/>
+        <v>0.907140637845394</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="29"/>
+        <v>0.95396683323032305</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="30"/>
+        <v>0.59</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="28"/>
+        <v>0.63</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="28"/>
+        <v>0.67</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="28"/>
+        <v>0.71</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="28"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="28"/>
+        <v>0.79</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="28"/>
+        <v>0.83</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="28"/>
+        <v>0.87</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="28"/>
+        <v>0.91</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="28"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="29"/>
+        <v>0.37849082899907904</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="29"/>
+        <v>0.39221740959456203</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="29"/>
+        <v>0.405838990467147</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="29"/>
+        <v>0.41946044859077902</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="29"/>
+        <v>0.43320180479332498</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="29"/>
+        <v>0.44719831198673798</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="29"/>
+        <v>0.46160073593352602</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="29"/>
+        <v>0.47657586530346302</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="29"/>
+        <v>0.49230728777452198</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="29"/>
+        <v>0.50899646893195605</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="30"/>
+        <v>0.38</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="28"/>
+        <v>0.4</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="28"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="28"/>
+        <v>0.42</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="28"/>
+        <v>0.44</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="28"/>
+        <v>0.45</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="28"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="28"/>
+        <v>0.48</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="28"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="29"/>
+        <v>0.24383390765228</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="29"/>
+        <v>0.24671238313822702</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="29"/>
+        <v>0.249633115385475</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="29"/>
+        <v>0.252600932880931</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="29"/>
+        <v>0.25562083550157</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="29"/>
+        <v>0.25869799859048198</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="29"/>
+        <v>0.26183777748589199</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="29"/>
+        <v>0.26504571252174203</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="29"/>
+        <v>0.26832753451840502</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="29"/>
+        <v>0.27168917078211496</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="30"/>
+        <v>0.25</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="28"/>
+        <v>0.25</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="28"/>
+        <v>0.25</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="28"/>
+        <v>0.26</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="28"/>
+        <v>0.26</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="28"/>
+        <v>0.26</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="28"/>
+        <v>0.27</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="28"/>
+        <v>0.27</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="28"/>
+        <v>0.27</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="28"/>
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Данные/Kur_UD/all.xlsx
+++ b/Данные/Kur_UD/all.xlsx
@@ -226,34 +226,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.504999999999999</c:v>
+                  <c:v>4.7530000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7890000000000006</c:v>
+                  <c:v>2.895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8719999999999999</c:v>
+                  <c:v>1.9359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7330000000000001</c:v>
+                  <c:v>1.367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9969999999999999</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5079999999999998</c:v>
+                  <c:v>0.754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1829999999999998</c:v>
+                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96199999999999997</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77300000000000002</c:v>
+                  <c:v>0.38700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59099999999999997</c:v>
+                  <c:v>0.29599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,34 +342,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.5849999999999991</c:v>
+                  <c:v>4.7930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2470000000000008</c:v>
+                  <c:v>3.1240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3580000000000005</c:v>
+                  <c:v>2.1789999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1659999999999999</c:v>
+                  <c:v>1.583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3679999999999999</c:v>
+                  <c:v>1.1839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8259999999999998</c:v>
+                  <c:v>0.91300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4609999999999999</c:v>
+                  <c:v>0.73099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2009999999999998</c:v>
+                  <c:v>0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97299999999999998</c:v>
+                  <c:v>0.48699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.754</c:v>
+                  <c:v>0.377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -458,34 +458,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.6359999999999992</c:v>
+                  <c:v>4.8180000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6970000000000001</c:v>
+                  <c:v>3.3489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8740000000000006</c:v>
+                  <c:v>2.4369999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6519999999999997</c:v>
+                  <c:v>1.8259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8079999999999998</c:v>
+                  <c:v>1.4039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2199999999999998</c:v>
+                  <c:v>1.1099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8149999999999999</c:v>
+                  <c:v>0.90800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5109999999999999</c:v>
+                  <c:v>0.75600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2369999999999999</c:v>
+                  <c:v>0.61899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97099999999999997</c:v>
+                  <c:v>0.48599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,34 +572,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.7270000000000003</c:v>
+                  <c:v>4.8640000000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.165</c:v>
+                  <c:v>3.5829999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4330000000000007</c:v>
+                  <c:v>2.7170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2120000000000006</c:v>
+                  <c:v>2.1059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.339</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.714</c:v>
+                  <c:v>1.357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2709999999999999</c:v>
+                  <c:v>1.1359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9159999999999999</c:v>
+                  <c:v>0.95799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5879999999999999</c:v>
+                  <c:v>0.79400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2679999999999998</c:v>
+                  <c:v>0.63400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,34 +686,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.5689999999999991</c:v>
+                  <c:v>4.7850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4630000000000001</c:v>
+                  <c:v>3.7319999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9240000000000004</c:v>
+                  <c:v>2.9619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7860000000000005</c:v>
+                  <c:v>2.3929999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.94</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3180000000000001</c:v>
+                  <c:v>1.6589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8479999999999999</c:v>
+                  <c:v>1.4239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4419999999999997</c:v>
+                  <c:v>1.2209999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0569999999999999</c:v>
+                  <c:v>1.0289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.68</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,34 +802,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.174999999999999</c:v>
+                  <c:v>5.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2619999999999987</c:v>
+                  <c:v>4.1310000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8020000000000005</c:v>
+                  <c:v>3.4009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6830000000000007</c:v>
+                  <c:v>2.8420000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>2.4139999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1820000000000004</c:v>
+                  <c:v>2.0909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6549999999999998</c:v>
+                  <c:v>1.8279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1749999999999998</c:v>
+                  <c:v>1.5879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7130000000000001</c:v>
+                  <c:v>1.357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2599999999999998</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,34 +920,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.3490000000000002</c:v>
+                  <c:v>4.6750000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.11</c:v>
+                  <c:v>4.0550000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1040000000000001</c:v>
+                  <c:v>3.552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2940000000000005</c:v>
+                  <c:v>3.1469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.641</c:v>
+                  <c:v>2.8209999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0780000000000003</c:v>
+                  <c:v>2.5389999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5590000000000002</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0600000000000005</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.57</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0859999999999999</c:v>
+                  <c:v>1.5429999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,34 +1042,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.536999999999999</c:v>
+                  <c:v>4.2690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.94</c:v>
+                  <c:v>3.9699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4060000000000006</c:v>
+                  <c:v>3.7029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9119999999999999</c:v>
+                  <c:v>3.456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4420000000000002</c:v>
+                  <c:v>3.2210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9860000000000007</c:v>
+                  <c:v>2.9929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5390000000000006</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0970000000000004</c:v>
+                  <c:v>2.5489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.66</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2250000000000005</c:v>
+                  <c:v>2.113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,34 +1164,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.782</c:v>
+                  <c:v>3.891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.556</c:v>
+                  <c:v>3.778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3320000000000007</c:v>
+                  <c:v>3.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.109</c:v>
+                  <c:v>3.5549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8860000000000001</c:v>
+                  <c:v>3.4430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6640000000000006</c:v>
+                  <c:v>3.3319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4430000000000005</c:v>
+                  <c:v>3.222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2220000000000004</c:v>
+                  <c:v>3.1109999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0020000000000007</c:v>
+                  <c:v>3.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7830000000000004</c:v>
+                  <c:v>2.8919999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,34 +1512,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.359</c:v>
+                  <c:v>2.1799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1179999999999999</c:v>
+                  <c:v>1.5589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3569999999999998</c:v>
+                  <c:v>1.1789999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.855</c:v>
+                  <c:v>0.92800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5149999999999999</c:v>
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2649999999999999</c:v>
+                  <c:v>0.63300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.075</c:v>
+                  <c:v>0.53800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95099999999999996</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81799999999999995</c:v>
+                  <c:v>0.40899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67900000000000005</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,34 +1628,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.2040000000000006</c:v>
+                  <c:v>2.1019999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.052</c:v>
+                  <c:v>1.5259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.391</c:v>
+                  <c:v>1.196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9269999999999998</c:v>
+                  <c:v>0.96399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5599999999999998</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3119999999999998</c:v>
+                  <c:v>0.65600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1379999999999999</c:v>
+                  <c:v>0.56899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0069999999999999</c:v>
+                  <c:v>0.504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.874</c:v>
+                  <c:v>0.437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72199999999999998</c:v>
+                  <c:v>0.36099999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,34 +1744,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.9369999999999998</c:v>
+                  <c:v>1.9689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.004</c:v>
+                  <c:v>1.5019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4299999999999997</c:v>
+                  <c:v>1.2149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9669999999999999</c:v>
+                  <c:v>0.98399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.625</c:v>
+                  <c:v>0.81300000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3949999999999998</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2129999999999999</c:v>
+                  <c:v>0.60699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0699999999999998</c:v>
+                  <c:v>0.53500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93800000000000006</c:v>
+                  <c:v>0.46900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77600000000000002</c:v>
+                  <c:v>0.38800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,34 +1858,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.78</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9990000000000001</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4369999999999998</c:v>
+                  <c:v>1.2189999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.016</c:v>
+                  <c:v>1.0079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.698</c:v>
+                  <c:v>0.84899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.462</c:v>
+                  <c:v>0.73099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3139999999999998</c:v>
+                  <c:v>0.65700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1659999999999999</c:v>
+                  <c:v>0.58299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0139999999999998</c:v>
+                  <c:v>0.50700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84799999999999998</c:v>
+                  <c:v>0.42399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,34 +1972,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.5269999999999997</c:v>
+                  <c:v>1.7639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4209999999999998</c:v>
+                  <c:v>1.2109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0509999999999997</c:v>
+                  <c:v>1.0259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7679999999999998</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5879999999999999</c:v>
+                  <c:v>0.79400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.42</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2669999999999999</c:v>
+                  <c:v>0.63400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1079999999999999</c:v>
+                  <c:v>0.55400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95499999999999996</c:v>
+                  <c:v>0.47799999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,34 +2088,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.4449999999999998</c:v>
+                  <c:v>1.7229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9630000000000001</c:v>
+                  <c:v>1.482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5069999999999997</c:v>
+                  <c:v>1.2539999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2090000000000001</c:v>
+                  <c:v>1.105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9249999999999998</c:v>
+                  <c:v>0.96299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7509999999999999</c:v>
+                  <c:v>0.876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5659999999999998</c:v>
+                  <c:v>0.78300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4239999999999999</c:v>
+                  <c:v>0.71199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.244</c:v>
+                  <c:v>0.622</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0819999999999999</c:v>
+                  <c:v>0.54100000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,34 +2206,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0720000000000001</c:v>
+                  <c:v>1.5359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.746</c:v>
+                  <c:v>1.373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4049999999999998</c:v>
+                  <c:v>1.2029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.194</c:v>
+                  <c:v>1.097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0229999999999997</c:v>
+                  <c:v>1.0119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8719999999999999</c:v>
+                  <c:v>0.93600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.726</c:v>
+                  <c:v>0.86299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5779999999999998</c:v>
+                  <c:v>0.78900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4229999999999998</c:v>
+                  <c:v>0.71199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2609999999999999</c:v>
+                  <c:v>0.63100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2328,34 +2328,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6339999999999999</c:v>
+                  <c:v>1.3169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1.2649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.36</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.202</c:v>
+                  <c:v>1.101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.117</c:v>
+                  <c:v>1.0589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9669999999999999</c:v>
+                  <c:v>0.98399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8759999999999999</c:v>
+                  <c:v>0.93800000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.726</c:v>
+                  <c:v>0.86299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6239999999999999</c:v>
+                  <c:v>0.81200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4729999999999999</c:v>
+                  <c:v>0.73699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2450,34 +2450,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3239999999999998</c:v>
+                  <c:v>1.1619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2559999999999998</c:v>
+                  <c:v>1.1279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1890000000000001</c:v>
+                  <c:v>1.095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1229999999999998</c:v>
+                  <c:v>1.0619999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.056</c:v>
+                  <c:v>1.0279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.99</c:v>
+                  <c:v>0.995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9239999999999999</c:v>
+                  <c:v>0.96199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.92</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8519999999999999</c:v>
+                  <c:v>0.92600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>0.89300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2798,34 +2798,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.359</c:v>
+                  <c:v>2.1799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1179999999999999</c:v>
+                  <c:v>1.5589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3569999999999998</c:v>
+                  <c:v>1.1789999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.855</c:v>
+                  <c:v>0.92800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5149999999999999</c:v>
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2649999999999999</c:v>
+                  <c:v>0.63300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.075</c:v>
+                  <c:v>0.53800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95099999999999996</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81799999999999995</c:v>
+                  <c:v>0.40899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67900000000000005</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,34 +2914,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.2040000000000006</c:v>
+                  <c:v>2.1019999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.052</c:v>
+                  <c:v>1.5259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.391</c:v>
+                  <c:v>1.196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9269999999999998</c:v>
+                  <c:v>0.96399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5599999999999998</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3119999999999998</c:v>
+                  <c:v>0.65600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1379999999999999</c:v>
+                  <c:v>0.56899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0069999999999999</c:v>
+                  <c:v>0.504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.874</c:v>
+                  <c:v>0.437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72199999999999998</c:v>
+                  <c:v>0.36099999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3030,34 +3030,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.9369999999999998</c:v>
+                  <c:v>1.9689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.004</c:v>
+                  <c:v>1.5019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4299999999999997</c:v>
+                  <c:v>1.2149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9669999999999999</c:v>
+                  <c:v>0.98399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.625</c:v>
+                  <c:v>0.81300000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3949999999999998</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2129999999999999</c:v>
+                  <c:v>0.60699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0699999999999998</c:v>
+                  <c:v>0.53500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93800000000000006</c:v>
+                  <c:v>0.46900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77600000000000002</c:v>
+                  <c:v>0.38800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,34 +3144,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.78</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9990000000000001</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4369999999999998</c:v>
+                  <c:v>1.2189999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.016</c:v>
+                  <c:v>1.0079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.698</c:v>
+                  <c:v>0.84899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.462</c:v>
+                  <c:v>0.73099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3139999999999998</c:v>
+                  <c:v>0.65700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1659999999999999</c:v>
+                  <c:v>0.58299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0139999999999998</c:v>
+                  <c:v>0.50700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84799999999999998</c:v>
+                  <c:v>0.42399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3258,34 +3258,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.5269999999999997</c:v>
+                  <c:v>1.7639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4209999999999998</c:v>
+                  <c:v>1.2109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0509999999999997</c:v>
+                  <c:v>1.0259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7679999999999998</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5879999999999999</c:v>
+                  <c:v>0.79400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.42</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2669999999999999</c:v>
+                  <c:v>0.63400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1079999999999999</c:v>
+                  <c:v>0.55400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95499999999999996</c:v>
+                  <c:v>0.47799999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,34 +3374,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.4449999999999998</c:v>
+                  <c:v>1.7229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9630000000000001</c:v>
+                  <c:v>1.482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5069999999999997</c:v>
+                  <c:v>1.2539999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2090000000000001</c:v>
+                  <c:v>1.105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9249999999999998</c:v>
+                  <c:v>0.96299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7509999999999999</c:v>
+                  <c:v>0.876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5659999999999998</c:v>
+                  <c:v>0.78300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4239999999999999</c:v>
+                  <c:v>0.71199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.244</c:v>
+                  <c:v>0.622</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0819999999999999</c:v>
+                  <c:v>0.54100000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3492,34 +3492,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0720000000000001</c:v>
+                  <c:v>1.5359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.746</c:v>
+                  <c:v>1.373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4049999999999998</c:v>
+                  <c:v>1.2029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.194</c:v>
+                  <c:v>1.097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0229999999999997</c:v>
+                  <c:v>1.0119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8719999999999999</c:v>
+                  <c:v>0.93600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.726</c:v>
+                  <c:v>0.86299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5779999999999998</c:v>
+                  <c:v>0.78900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4229999999999998</c:v>
+                  <c:v>0.71199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2609999999999999</c:v>
+                  <c:v>0.63100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,34 +3614,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6339999999999999</c:v>
+                  <c:v>1.3169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1.2649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.36</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.202</c:v>
+                  <c:v>1.101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.117</c:v>
+                  <c:v>1.0589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9669999999999999</c:v>
+                  <c:v>0.98399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8759999999999999</c:v>
+                  <c:v>0.93800000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.726</c:v>
+                  <c:v>0.86299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6239999999999999</c:v>
+                  <c:v>0.81200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4729999999999999</c:v>
+                  <c:v>0.73699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3736,34 +3736,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3239999999999998</c:v>
+                  <c:v>1.1619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2559999999999998</c:v>
+                  <c:v>1.1279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1890000000000001</c:v>
+                  <c:v>1.095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1229999999999998</c:v>
+                  <c:v>1.0619999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.056</c:v>
+                  <c:v>1.0279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.99</c:v>
+                  <c:v>0.995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9239999999999999</c:v>
+                  <c:v>0.96199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.92</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8519999999999999</c:v>
+                  <c:v>0.92600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>0.89300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4084,34 +4084,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.2470000000000003E-3</c:v>
+                  <c:v>3.7836000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2279999999999999E-3</c:v>
+                  <c:v>3.0482000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.212E-3</c:v>
+                  <c:v>2.5818000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2030000000000001E-3</c:v>
+                  <c:v>2.2597000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2040000000000002E-3</c:v>
+                  <c:v>2.0243000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2100000000000002E-3</c:v>
+                  <c:v>1.8467000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2140000000000003E-3</c:v>
+                  <c:v>1.7098000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.215E-3</c:v>
+                  <c:v>1.5998999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2190000000000001E-3</c:v>
+                  <c:v>1.5068999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2340000000000003E-3</c:v>
+                  <c:v>1.4192E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4200,34 +4200,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8389999999999999E-3</c:v>
+                  <c:v>3.3923000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.825E-3</c:v>
+                  <c:v>2.811E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8129999999999999E-3</c:v>
+                  <c:v>2.4175000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8089999999999998E-3</c:v>
+                  <c:v>2.1351999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8109999999999999E-3</c:v>
+                  <c:v>1.925E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8159999999999999E-3</c:v>
+                  <c:v>1.7617000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8189999999999999E-3</c:v>
+                  <c:v>1.6326E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.82E-3</c:v>
+                  <c:v>1.5276E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.823E-3</c:v>
+                  <c:v>1.4372999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8349999999999998E-3</c:v>
+                  <c:v>1.354E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4316,34 +4316,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4909999999999999E-3</c:v>
+                  <c:v>3.0293E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4809999999999999E-3</c:v>
+                  <c:v>2.5794000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4739999999999998E-3</c:v>
+                  <c:v>2.2567E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4729999999999999E-3</c:v>
+                  <c:v>2.0171000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4759999999999999E-3</c:v>
+                  <c:v>1.8319000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.48E-3</c:v>
+                  <c:v>1.6841999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4809999999999999E-3</c:v>
+                  <c:v>1.5657000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4819999999999998E-3</c:v>
+                  <c:v>1.4671999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.485E-3</c:v>
+                  <c:v>1.3809999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4939999999999999E-3</c:v>
+                  <c:v>1.3023999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4430,34 +4430,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1949999999999999E-3</c:v>
+                  <c:v>2.6977000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.189E-3</c:v>
+                  <c:v>2.3584000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1869999999999999E-3</c:v>
+                  <c:v>2.1027000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1879999999999998E-3</c:v>
+                  <c:v>1.9036000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1899999999999999E-3</c:v>
+                  <c:v>1.7446E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1929999999999998E-3</c:v>
+                  <c:v>1.6151000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1929999999999998E-3</c:v>
+                  <c:v>1.5068999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.194E-3</c:v>
+                  <c:v>1.4159E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.196E-3</c:v>
+                  <c:v>1.3358999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2029999999999999E-3</c:v>
+                  <c:v>1.2624999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4544,34 +4544,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.4800000000000006E-4</c:v>
+                  <c:v>2.3705E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4600000000000001E-4</c:v>
+                  <c:v>2.1313000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4600000000000001E-4</c:v>
+                  <c:v>1.9404000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4800000000000006E-4</c:v>
+                  <c:v>1.7847999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5E-4</c:v>
+                  <c:v>1.6558E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5100000000000002E-4</c:v>
+                  <c:v>1.5462E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5100000000000002E-4</c:v>
+                  <c:v>1.4537E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5200000000000005E-4</c:v>
+                  <c:v>1.3731999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5399999999999999E-4</c:v>
+                  <c:v>1.3011999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.59E-4</c:v>
+                  <c:v>1.2341999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4660,34 +4660,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.4399999999999998E-4</c:v>
+                  <c:v>2.1546000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4399999999999998E-4</c:v>
+                  <c:v>1.9735000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.45E-4</c:v>
+                  <c:v>1.8245000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4600000000000003E-4</c:v>
+                  <c:v>1.6974E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4800000000000008E-4</c:v>
+                  <c:v>1.5901999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4800000000000008E-4</c:v>
+                  <c:v>1.4965999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4800000000000008E-4</c:v>
+                  <c:v>1.4157999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4899999999999999E-4</c:v>
+                  <c:v>1.3430999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5100000000000004E-4</c:v>
+                  <c:v>1.2782999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.54E-4</c:v>
+                  <c:v>1.2175999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4778,34 +4778,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.62E-4</c:v>
+                  <c:v>1.8119E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6300000000000002E-4</c:v>
+                  <c:v>1.7090000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6300000000000002E-4</c:v>
+                  <c:v>1.6196000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6400000000000005E-4</c:v>
+                  <c:v>1.5389E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6400000000000005E-4</c:v>
+                  <c:v>1.4666999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6400000000000005E-4</c:v>
+                  <c:v>1.4017E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6500000000000007E-4</c:v>
+                  <c:v>1.3424999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6500000000000007E-4</c:v>
+                  <c:v>1.2882999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6700000000000001E-4</c:v>
+                  <c:v>1.2379999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6900000000000006E-4</c:v>
+                  <c:v>1.1908999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4900,34 +4900,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.1200000000000004E-4</c:v>
+                  <c:v>1.4979999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1200000000000004E-4</c:v>
+                  <c:v>1.4492999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1200000000000004E-4</c:v>
+                  <c:v>1.405E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1200000000000004E-4</c:v>
+                  <c:v>1.3635999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1200000000000004E-4</c:v>
+                  <c:v>1.3236E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1300000000000001E-4</c:v>
+                  <c:v>1.2869999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1300000000000001E-4</c:v>
+                  <c:v>1.2513999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1400000000000003E-4</c:v>
+                  <c:v>1.2185999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.15E-4</c:v>
+                  <c:v>1.1862999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1600000000000003E-4</c:v>
+                  <c:v>1.1564E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5022,34 +5022,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0200000000000002E-4</c:v>
+                  <c:v>1.2371E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0200000000000002E-4</c:v>
+                  <c:v>1.2244999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0200000000000002E-4</c:v>
+                  <c:v>1.2121E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0200000000000002E-4</c:v>
+                  <c:v>1.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0200000000000002E-4</c:v>
+                  <c:v>1.1881999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0300000000000005E-4</c:v>
+                  <c:v>1.1764999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0300000000000005E-4</c:v>
+                  <c:v>1.1651E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0300000000000005E-4</c:v>
+                  <c:v>1.1528E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0400000000000002E-4</c:v>
+                  <c:v>1.1417999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0400000000000002E-4</c:v>
+                  <c:v>1.1309E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5289,7 +5289,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2714510350194309E-2"/>
+          <c:y val="0.10680789538484335"/>
+          <c:w val="0.88522715386593964"/>
+          <c:h val="0.80256308005430366"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -9423,16 +9433,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>39461</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>61873</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>276227</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>117022</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>298639</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>94610</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9487,16 +9497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>393648</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>152561</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>180736</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>186178</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9785,8 +9795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z90" sqref="Z90"/>
+    <sheetView tabSelected="1" topLeftCell="K33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ54" sqref="AJ54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9801,650 +9811,650 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9.5044544233461163</v>
+        <v>4.7522272116730599</v>
       </c>
       <c r="B3">
-        <v>5.7883243726461204</v>
+        <v>2.8941621863230602</v>
       </c>
       <c r="C3">
-        <v>3.8717312020030437</v>
+        <v>1.9358656010015201</v>
       </c>
       <c r="D3">
-        <v>2.7329380804201895</v>
+        <v>1.3664690402100901</v>
       </c>
       <c r="E3">
-        <v>1.996726819647513</v>
+        <v>0.99836340982375704</v>
       </c>
       <c r="F3">
-        <v>1.5075076347117191</v>
+        <v>0.75375381735586</v>
       </c>
       <c r="G3">
-        <v>1.1829231167297329</v>
+        <v>0.59146155836486702</v>
       </c>
       <c r="H3">
-        <v>0.96100174778975178</v>
+        <v>0.480500873894876</v>
       </c>
       <c r="I3">
-        <v>0.77202282997485561</v>
+        <v>0.38601141498742803</v>
       </c>
       <c r="J3">
-        <v>0.5908304997102567</v>
+        <v>0.29541524985512801</v>
       </c>
       <c r="L3">
         <f>ROUNDUP(A3,3)</f>
-        <v>9.504999999999999</v>
+        <v>4.7530000000000001</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:U3" si="0">ROUNDUP(B3,3)</f>
-        <v>5.7890000000000006</v>
+        <v>2.895</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>3.8719999999999999</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>2.7330000000000001</v>
+        <v>1.367</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>1.9969999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>1.5079999999999998</v>
+        <v>0.754</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>1.1829999999999998</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>0.96199999999999997</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0.77300000000000002</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>0.59099999999999997</v>
+        <v>0.29599999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9.5844161665660614</v>
+        <v>4.7922080832830298</v>
       </c>
       <c r="B4">
-        <v>6.2465471092741982</v>
+        <v>3.1232735546371</v>
       </c>
       <c r="C4">
-        <v>4.3579337985014392</v>
+        <v>2.1789668992507201</v>
       </c>
       <c r="D4">
-        <v>3.1650743212887931</v>
+        <v>1.5825371606444001</v>
       </c>
       <c r="E4">
-        <v>2.367846423090203</v>
+        <v>1.1839232115450999</v>
       </c>
       <c r="F4">
-        <v>1.8258237574940739</v>
+        <v>0.91291187874703705</v>
       </c>
       <c r="G4">
-        <v>1.4604242304940531</v>
+        <v>0.730212115247027</v>
       </c>
       <c r="H4">
-        <v>1.2002165065020454</v>
+        <v>0.60010825325102302</v>
       </c>
       <c r="I4">
-        <v>0.972470445750788</v>
+        <v>0.486235222875394</v>
       </c>
       <c r="J4">
-        <v>0.75301693282309201</v>
+        <v>0.37650846641154601</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L11" si="1">ROUNDUP(A4,3)</f>
-        <v>9.5849999999999991</v>
+        <v>4.7930000000000001</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M11" si="2">ROUNDUP(B4,3)</f>
-        <v>6.2470000000000008</v>
+        <v>3.1240000000000001</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N11" si="3">ROUNDUP(C4,3)</f>
-        <v>4.3580000000000005</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O11" si="4">ROUNDUP(D4,3)</f>
-        <v>3.1659999999999999</v>
+        <v>1.583</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P11" si="5">ROUNDUP(E4,3)</f>
-        <v>2.3679999999999999</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q11" si="6">ROUNDUP(F4,3)</f>
-        <v>1.8259999999999998</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R11" si="7">ROUNDUP(G4,3)</f>
-        <v>1.4609999999999999</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S11" si="8">ROUNDUP(H4,3)</f>
-        <v>1.2009999999999998</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T11" si="9">ROUNDUP(I4,3)</f>
-        <v>0.97299999999999998</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U11" si="10">ROUNDUP(J4,3)</f>
-        <v>0.754</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9.6351738799806466</v>
+        <v>4.8175869399903197</v>
       </c>
       <c r="B5">
-        <v>6.6968126480028252</v>
+        <v>3.3484063240014099</v>
       </c>
       <c r="C5">
-        <v>4.8738236715015244</v>
+        <v>2.43691183575076</v>
       </c>
       <c r="D5">
-        <v>3.6519370213630555</v>
+        <v>1.82596851068153</v>
       </c>
       <c r="E5">
-        <v>2.8077027231539522</v>
+        <v>1.4038513615769801</v>
       </c>
       <c r="F5">
-        <v>2.2191075256620563</v>
+        <v>1.1095537628310299</v>
       </c>
       <c r="G5">
-        <v>1.8142690798448708</v>
+        <v>0.90713453992243498</v>
       </c>
       <c r="H5">
-        <v>1.5100113649521432</v>
+        <v>0.75500568247607203</v>
       </c>
       <c r="I5">
-        <v>1.2361486927252969</v>
+        <v>0.61807434636264902</v>
       </c>
       <c r="J5">
-        <v>0.97089704872400717</v>
+        <v>0.48544852436200397</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>9.6359999999999992</v>
+        <v>4.8180000000000005</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>6.6970000000000001</v>
+        <v>3.3489999999999998</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>4.8740000000000006</v>
+        <v>2.4369999999999998</v>
       </c>
       <c r="O5">
         <f t="shared" si="4"/>
-        <v>3.6519999999999997</v>
+        <v>1.8259999999999998</v>
       </c>
       <c r="P5">
         <f t="shared" si="5"/>
-        <v>2.8079999999999998</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="Q5">
         <f t="shared" si="6"/>
-        <v>2.2199999999999998</v>
+        <v>1.1099999999999999</v>
       </c>
       <c r="R5">
         <f t="shared" si="7"/>
-        <v>1.8149999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="S5">
         <f t="shared" si="8"/>
-        <v>1.5109999999999999</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="T5">
         <f t="shared" si="9"/>
-        <v>1.2369999999999999</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="U5">
         <f t="shared" si="10"/>
-        <v>0.97099999999999997</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9.7261665200864957</v>
+        <v>4.8630832600432496</v>
       </c>
       <c r="B6">
-        <v>7.1648592146749053</v>
+        <v>3.58242960733745</v>
       </c>
       <c r="C6">
-        <v>5.4323963844954823</v>
+        <v>2.7161981922477398</v>
       </c>
       <c r="D6">
-        <v>4.2112529417216908</v>
+        <v>2.1056264708608499</v>
       </c>
       <c r="E6">
-        <v>3.3380575953323426</v>
+        <v>1.66902879766617</v>
       </c>
       <c r="F6">
-        <v>2.7133616605233515</v>
+        <v>1.35668083026168</v>
       </c>
       <c r="G6">
-        <v>2.2707248664399118</v>
+        <v>1.1353624332199601</v>
       </c>
       <c r="H6">
-        <v>1.9156003948255742</v>
+        <v>0.95780019741278699</v>
       </c>
       <c r="I6">
-        <v>1.5873755118332966</v>
+        <v>0.79368775591664797</v>
       </c>
       <c r="J6">
-        <v>1.2678725810532887</v>
+        <v>0.63393629052664402</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>9.7270000000000003</v>
+        <v>4.8640000000000008</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>7.165</v>
+        <v>3.5829999999999997</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>5.4330000000000007</v>
+        <v>2.7170000000000001</v>
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
-        <v>4.2120000000000006</v>
+        <v>2.1059999999999999</v>
       </c>
       <c r="P6">
         <f t="shared" si="5"/>
-        <v>3.339</v>
+        <v>1.67</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>2.714</v>
+        <v>1.357</v>
       </c>
       <c r="R6">
         <f t="shared" si="7"/>
-        <v>2.2709999999999999</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="S6">
         <f t="shared" si="8"/>
-        <v>1.9159999999999999</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="T6">
         <f t="shared" si="9"/>
-        <v>1.5879999999999999</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="U6">
         <f t="shared" si="10"/>
-        <v>1.2679999999999998</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9.5683333068281868</v>
+        <v>4.7841666534140899</v>
       </c>
       <c r="B7">
-        <v>7.4620172170457995</v>
+        <v>3.7310086085229002</v>
       </c>
       <c r="C7">
-        <v>5.9238028693725937</v>
+        <v>2.9619014346863</v>
       </c>
       <c r="D7">
-        <v>4.7856298485249829</v>
+        <v>2.3928149242624901</v>
       </c>
       <c r="E7">
-        <v>3.9395264173059434</v>
+        <v>1.9697632086529699</v>
       </c>
       <c r="F7">
-        <v>3.3175177211363609</v>
+        <v>1.65875886056818</v>
       </c>
       <c r="G7">
-        <v>2.8479177799290736</v>
+        <v>1.4239588899645399</v>
       </c>
       <c r="H7">
-        <v>2.4416015019369701</v>
+        <v>1.2208007509684899</v>
       </c>
       <c r="I7">
-        <v>2.0562606697404218</v>
+        <v>1.02813033487021</v>
       </c>
       <c r="J7">
-        <v>1.67919252945567</v>
+        <v>0.839596264727835</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>9.5689999999999991</v>
+        <v>4.7850000000000001</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>7.4630000000000001</v>
+        <v>3.7319999999999998</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>5.9240000000000004</v>
+        <v>2.9619999999999997</v>
       </c>
       <c r="O7">
         <f t="shared" si="4"/>
-        <v>4.7860000000000005</v>
+        <v>2.3929999999999998</v>
       </c>
       <c r="P7">
         <f t="shared" si="5"/>
-        <v>3.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>3.3180000000000001</v>
+        <v>1.6589999999999998</v>
       </c>
       <c r="R7">
         <f t="shared" si="7"/>
-        <v>2.8479999999999999</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="S7">
         <f t="shared" si="8"/>
-        <v>2.4419999999999997</v>
+        <v>1.2209999999999999</v>
       </c>
       <c r="T7">
         <f t="shared" si="9"/>
-        <v>2.0569999999999999</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="U7">
         <f t="shared" si="10"/>
-        <v>1.68</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10.174291395880392</v>
+        <v>5.0871456979402003</v>
       </c>
       <c r="B8">
-        <v>8.2610851669487158</v>
+        <v>4.1305425834743597</v>
       </c>
       <c r="C8">
-        <v>6.8018343265208809</v>
+        <v>3.40091716326044</v>
       </c>
       <c r="D8">
-        <v>5.6827376774550835</v>
+        <v>2.84136883872754</v>
       </c>
       <c r="E8">
-        <v>4.8276246676348666</v>
+        <v>2.4138123338174302</v>
       </c>
       <c r="F8">
-        <v>4.1814255708260912</v>
+        <v>2.0907127854130501</v>
       </c>
       <c r="G8">
-        <v>3.6540350303946987</v>
+        <v>1.82701751519735</v>
       </c>
       <c r="H8">
-        <v>3.1746511976376217</v>
+        <v>1.58732559881881</v>
       </c>
       <c r="I8">
-        <v>2.7127375879496363</v>
+        <v>1.3563687939748199</v>
       </c>
       <c r="J8">
-        <v>2.2590991053981999</v>
+        <v>1.1295495526991</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>10.174999999999999</v>
+        <v>5.0880000000000001</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>8.2619999999999987</v>
+        <v>4.1310000000000002</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>6.8020000000000005</v>
+        <v>3.4009999999999998</v>
       </c>
       <c r="O8">
         <f t="shared" si="4"/>
-        <v>5.6830000000000007</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="P8">
         <f t="shared" si="5"/>
-        <v>4.8280000000000003</v>
+        <v>2.4139999999999997</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>4.1820000000000004</v>
+        <v>2.0909999999999997</v>
       </c>
       <c r="R8">
         <f t="shared" si="7"/>
-        <v>3.6549999999999998</v>
+        <v>1.8279999999999998</v>
       </c>
       <c r="S8">
         <f t="shared" si="8"/>
-        <v>3.1749999999999998</v>
+        <v>1.5879999999999999</v>
       </c>
       <c r="T8">
         <f t="shared" si="9"/>
-        <v>2.7130000000000001</v>
+        <v>1.357</v>
       </c>
       <c r="U8">
         <f t="shared" si="10"/>
-        <v>2.2599999999999998</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9.348621213954587</v>
+        <v>4.67431060697729</v>
       </c>
       <c r="B9">
-        <v>8.1096478661970082</v>
+        <v>4.0548239330984996</v>
       </c>
       <c r="C9">
-        <v>7.1035102239490078</v>
+        <v>3.5517551119744999</v>
       </c>
       <c r="D9">
-        <v>6.293372992752797</v>
+        <v>3.1466864963763999</v>
       </c>
       <c r="E9">
-        <v>5.6401249049361688</v>
+        <v>2.82006245246808</v>
       </c>
       <c r="F9">
-        <v>5.0770551897193092</v>
+        <v>2.5385275948596502</v>
       </c>
       <c r="G9">
-        <v>4.558085924269708</v>
+        <v>2.27904296213485</v>
       </c>
       <c r="H9">
-        <v>4.0590101136058072</v>
+        <v>2.0295050568029001</v>
       </c>
       <c r="I9">
-        <v>3.5693542941858394</v>
+        <v>1.7846771470929199</v>
       </c>
       <c r="J9">
-        <v>3.0859665960360507</v>
+        <v>1.54298329801803</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>9.3490000000000002</v>
+        <v>4.6750000000000007</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>8.11</v>
+        <v>4.0550000000000006</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>7.1040000000000001</v>
+        <v>3.552</v>
       </c>
       <c r="O9">
         <f t="shared" si="4"/>
-        <v>6.2940000000000005</v>
+        <v>3.1469999999999998</v>
       </c>
       <c r="P9">
         <f t="shared" si="5"/>
-        <v>5.641</v>
+        <v>2.8209999999999997</v>
       </c>
       <c r="Q9">
         <f t="shared" si="6"/>
-        <v>5.0780000000000003</v>
+        <v>2.5389999999999997</v>
       </c>
       <c r="R9">
         <f t="shared" si="7"/>
-        <v>4.5590000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="S9">
         <f t="shared" si="8"/>
-        <v>4.0600000000000005</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="T9">
         <f t="shared" si="9"/>
-        <v>3.57</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="U9">
         <f t="shared" si="10"/>
-        <v>3.0859999999999999</v>
+        <v>1.5429999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8.536420938934377</v>
+        <v>4.2682104694671903</v>
       </c>
       <c r="B10">
-        <v>7.9397267146478088</v>
+        <v>3.9698633573238999</v>
       </c>
       <c r="C10">
-        <v>7.40542917608611</v>
+        <v>3.7027145880430599</v>
       </c>
       <c r="D10">
-        <v>6.9110402583688062</v>
+        <v>3.4555201291844</v>
       </c>
       <c r="E10">
-        <v>6.4411141398326652</v>
+        <v>3.22055706991633</v>
       </c>
       <c r="F10">
-        <v>5.9856287934923609</v>
+        <v>2.99281439674618</v>
       </c>
       <c r="G10">
-        <v>5.5386071854737917</v>
+        <v>2.7693035927368999</v>
       </c>
       <c r="H10">
-        <v>5.0968787442292216</v>
+        <v>2.5484393721146099</v>
       </c>
       <c r="I10">
-        <v>4.6590402887854809</v>
+        <v>2.32952014439274</v>
       </c>
       <c r="J10">
-        <v>4.2247447395709168</v>
+        <v>2.1123723697854602</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>8.536999999999999</v>
+        <v>4.2690000000000001</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>7.94</v>
+        <v>3.9699999999999998</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>7.4060000000000006</v>
+        <v>3.7029999999999998</v>
       </c>
       <c r="O10">
         <f t="shared" si="4"/>
-        <v>6.9119999999999999</v>
+        <v>3.456</v>
       </c>
       <c r="P10">
         <f t="shared" si="5"/>
-        <v>6.4420000000000002</v>
+        <v>3.2210000000000001</v>
       </c>
       <c r="Q10">
         <f t="shared" si="6"/>
-        <v>5.9860000000000007</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="R10">
         <f t="shared" si="7"/>
-        <v>5.5390000000000006</v>
+        <v>2.77</v>
       </c>
       <c r="S10">
         <f t="shared" si="8"/>
-        <v>5.0970000000000004</v>
+        <v>2.5489999999999999</v>
       </c>
       <c r="T10">
         <f t="shared" si="9"/>
-        <v>4.66</v>
+        <v>2.33</v>
       </c>
       <c r="U10">
         <f t="shared" si="10"/>
-        <v>4.2250000000000005</v>
+        <v>2.113</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7.7811260400104665</v>
+        <v>3.8905630200052301</v>
       </c>
       <c r="B11">
-        <v>7.5559474970251772</v>
+        <v>3.7779737485125899</v>
       </c>
       <c r="C11">
-        <v>7.331721163899914</v>
+        <v>3.6658605819499601</v>
       </c>
       <c r="D11">
-        <v>7.1083285889845156</v>
+        <v>3.55416429449226</v>
       </c>
       <c r="E11">
-        <v>6.8856864636565218</v>
+        <v>3.44284323182826</v>
       </c>
       <c r="F11">
-        <v>6.6637400521784249</v>
+        <v>3.3318700260892098</v>
       </c>
       <c r="G11">
-        <v>6.4424581486105241</v>
+        <v>3.2212290743052598</v>
       </c>
       <c r="H11">
-        <v>6.2218296689972368</v>
+        <v>3.1109148344986202</v>
       </c>
       <c r="I11">
-        <v>6.0018619297453402</v>
+        <v>3.0009309648726701</v>
       </c>
       <c r="J11">
-        <v>5.782580594925216</v>
+        <v>2.8912902974626098</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>7.782</v>
+        <v>3.891</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>7.556</v>
+        <v>3.778</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>7.3320000000000007</v>
+        <v>3.6659999999999999</v>
       </c>
       <c r="O11">
         <f t="shared" si="4"/>
-        <v>7.109</v>
+        <v>3.5549999999999997</v>
       </c>
       <c r="P11">
         <f t="shared" si="5"/>
-        <v>6.8860000000000001</v>
+        <v>3.4430000000000001</v>
       </c>
       <c r="Q11">
         <f t="shared" si="6"/>
-        <v>6.6640000000000006</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="R11">
         <f t="shared" si="7"/>
-        <v>6.4430000000000005</v>
+        <v>3.222</v>
       </c>
       <c r="S11">
         <f t="shared" si="8"/>
-        <v>6.2220000000000004</v>
+        <v>3.1109999999999998</v>
       </c>
       <c r="T11">
         <f t="shared" si="9"/>
-        <v>6.0020000000000007</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="U11">
         <f t="shared" si="10"/>
-        <v>5.7830000000000004</v>
+        <v>2.8919999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -10457,650 +10467,650 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4.3582895273154518</v>
+        <v>2.1791447636577299</v>
       </c>
       <c r="B16">
-        <v>3.1173154596038515</v>
+        <v>1.55865772980193</v>
       </c>
       <c r="C16">
-        <v>2.3561509651302144</v>
+        <v>1.1780754825651101</v>
       </c>
       <c r="D16">
-        <v>1.8544414464635299</v>
+        <v>0.92722072323176496</v>
       </c>
       <c r="E16">
-        <v>1.5146217406843367</v>
+        <v>0.75731087034216804</v>
       </c>
       <c r="F16">
-        <v>1.2641240088274874</v>
+        <v>0.63206200441374405</v>
       </c>
       <c r="G16">
-        <v>1.0747475297842979</v>
+        <v>0.53737376489214905</v>
       </c>
       <c r="H16">
-        <v>0.95000049730741409</v>
+        <v>0.47500024865370699</v>
       </c>
       <c r="I16">
-        <v>0.8172265497339869</v>
+        <v>0.408613274866993</v>
       </c>
       <c r="J16">
-        <v>0.67859973502447168</v>
+        <v>0.33929986751223601</v>
       </c>
       <c r="L16">
         <f>ROUNDUP(A16,3)</f>
-        <v>4.359</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="M16">
         <f t="shared" ref="M16:U24" si="11">ROUNDUP(B16,3)</f>
-        <v>3.1179999999999999</v>
+        <v>1.5589999999999999</v>
       </c>
       <c r="N16">
         <f t="shared" si="11"/>
-        <v>2.3569999999999998</v>
+        <v>1.1789999999999998</v>
       </c>
       <c r="O16">
         <f t="shared" si="11"/>
-        <v>1.855</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="P16">
         <f t="shared" si="11"/>
-        <v>1.5149999999999999</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="Q16">
         <f t="shared" si="11"/>
-        <v>1.2649999999999999</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="R16">
         <f t="shared" si="11"/>
-        <v>1.075</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="S16">
         <f t="shared" si="11"/>
-        <v>0.95099999999999996</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="T16">
         <f t="shared" si="11"/>
-        <v>0.81799999999999995</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="U16">
         <f t="shared" si="11"/>
-        <v>0.67900000000000005</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4.2032678460172965</v>
+        <v>2.10163392300865</v>
       </c>
       <c r="B17">
-        <v>3.0517650172625288</v>
+        <v>1.52588250863126</v>
       </c>
       <c r="C17">
-        <v>2.3905546502528536</v>
+        <v>1.1952773251264299</v>
       </c>
       <c r="D17">
-        <v>1.9261132882766652</v>
+        <v>0.96305664413833303</v>
       </c>
       <c r="E17">
-        <v>1.559350730704689</v>
+        <v>0.77967536535234505</v>
       </c>
       <c r="F17">
-        <v>1.3119498778703313</v>
+        <v>0.65597493893516601</v>
       </c>
       <c r="G17">
-        <v>1.1370166576472791</v>
+        <v>0.56850832882364</v>
       </c>
       <c r="H17">
-        <v>1.0064443235476059</v>
+        <v>0.50322216177380297</v>
       </c>
       <c r="I17">
-        <v>0.87381556504733282</v>
+        <v>0.43690778252366602</v>
       </c>
       <c r="J17">
-        <v>0.72180612012565393</v>
+        <v>0.36090306006282702</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17:L24" si="12">ROUNDUP(A17,3)</f>
-        <v>4.2040000000000006</v>
+        <v>2.1019999999999999</v>
       </c>
       <c r="M17">
         <f t="shared" si="11"/>
-        <v>3.052</v>
+        <v>1.5259999999999998</v>
       </c>
       <c r="N17">
         <f t="shared" si="11"/>
-        <v>2.391</v>
+        <v>1.196</v>
       </c>
       <c r="O17">
         <f t="shared" si="11"/>
-        <v>1.9269999999999998</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="P17">
         <f t="shared" si="11"/>
-        <v>1.5599999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="Q17">
         <f t="shared" si="11"/>
-        <v>1.3119999999999998</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="R17">
         <f t="shared" si="11"/>
-        <v>1.1379999999999999</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="S17">
         <f t="shared" si="11"/>
-        <v>1.0069999999999999</v>
+        <v>0.504</v>
       </c>
       <c r="T17">
         <f t="shared" si="11"/>
-        <v>0.874</v>
+        <v>0.437</v>
       </c>
       <c r="U17">
         <f t="shared" si="11"/>
-        <v>0.72199999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3.9364725420658697</v>
+        <v>1.96823627103293</v>
       </c>
       <c r="B18">
-        <v>3.0038707802216766</v>
+        <v>1.5019353901108401</v>
       </c>
       <c r="C18">
-        <v>2.4298560480113416</v>
+        <v>1.2149280240056699</v>
       </c>
       <c r="D18">
-        <v>1.9667591173696459</v>
+        <v>0.98337955868482296</v>
       </c>
       <c r="E18">
-        <v>1.624402895151565</v>
+        <v>0.81220144757578305</v>
       </c>
       <c r="F18">
-        <v>1.3948251605061299</v>
+        <v>0.69741258025306496</v>
       </c>
       <c r="G18">
-        <v>1.2129337835665668</v>
+        <v>0.60646689178328295</v>
       </c>
       <c r="H18">
-        <v>1.069922040159432</v>
+        <v>0.53496102007971602</v>
       </c>
       <c r="I18">
-        <v>0.93768344587607522</v>
+        <v>0.468841722938038</v>
       </c>
       <c r="J18">
-        <v>0.77531208064260004</v>
+        <v>0.38765604032130002</v>
       </c>
       <c r="L18">
         <f t="shared" si="12"/>
-        <v>3.9369999999999998</v>
+        <v>1.9689999999999999</v>
       </c>
       <c r="M18">
         <f t="shared" si="11"/>
-        <v>3.004</v>
+        <v>1.5019999999999998</v>
       </c>
       <c r="N18">
         <f t="shared" si="11"/>
-        <v>2.4299999999999997</v>
+        <v>1.2149999999999999</v>
       </c>
       <c r="O18">
         <f t="shared" si="11"/>
-        <v>1.9669999999999999</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="P18">
         <f t="shared" si="11"/>
-        <v>1.625</v>
+        <v>0.81300000000000006</v>
       </c>
       <c r="Q18">
         <f t="shared" si="11"/>
-        <v>1.3949999999999998</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="R18">
         <f t="shared" si="11"/>
-        <v>1.2129999999999999</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="S18">
         <f t="shared" si="11"/>
-        <v>1.0699999999999998</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="T18">
         <f t="shared" si="11"/>
-        <v>0.93800000000000006</v>
+        <v>0.46900000000000003</v>
       </c>
       <c r="U18">
         <f t="shared" si="11"/>
-        <v>0.77600000000000002</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3.7791244649360065</v>
+        <v>1.8895622324679999</v>
       </c>
       <c r="B19">
-        <v>2.9988683722626472</v>
+        <v>1.4994341861313201</v>
       </c>
       <c r="C19">
-        <v>2.4367139449293695</v>
+        <v>1.2183569724646801</v>
       </c>
       <c r="D19">
-        <v>2.015304821571664</v>
+        <v>1.00765241078583</v>
       </c>
       <c r="E19">
-        <v>1.6975768996848417</v>
+        <v>0.84878844984242097</v>
       </c>
       <c r="F19">
-        <v>1.4612871890555572</v>
+        <v>0.73064359452777905</v>
       </c>
       <c r="G19">
-        <v>1.3137331159454773</v>
+        <v>0.65686655797273896</v>
       </c>
       <c r="H19">
-        <v>1.1657430445422095</v>
+        <v>0.58287152227110495</v>
       </c>
       <c r="I19">
-        <v>1.0136222992839936</v>
+        <v>0.50681114964199703</v>
       </c>
       <c r="J19">
-        <v>0.8476391423419769</v>
+        <v>0.42381957117098801</v>
       </c>
       <c r="L19">
         <f t="shared" si="12"/>
-        <v>3.78</v>
+        <v>1.89</v>
       </c>
       <c r="M19">
         <f t="shared" si="11"/>
-        <v>2.9990000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
         <f t="shared" si="11"/>
-        <v>2.4369999999999998</v>
+        <v>1.2189999999999999</v>
       </c>
       <c r="O19">
         <f t="shared" si="11"/>
-        <v>2.016</v>
+        <v>1.0079999999999998</v>
       </c>
       <c r="P19">
         <f t="shared" si="11"/>
-        <v>1.698</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="Q19">
         <f t="shared" si="11"/>
-        <v>1.462</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="R19">
         <f t="shared" si="11"/>
-        <v>1.3139999999999998</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="S19">
         <f t="shared" si="11"/>
-        <v>1.1659999999999999</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="T19">
         <f t="shared" si="11"/>
-        <v>1.0139999999999998</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="U19">
         <f t="shared" si="11"/>
-        <v>0.84799999999999998</v>
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3.5264313392563014</v>
+        <v>1.76321566962815</v>
       </c>
       <c r="B20">
-        <v>2.8993840239598008</v>
+        <v>1.4496920119798999</v>
       </c>
       <c r="C20">
-        <v>2.4201833438986227</v>
+        <v>1.21009167194931</v>
       </c>
       <c r="D20">
-        <v>2.0508927244771642</v>
+        <v>1.0254463622385801</v>
       </c>
       <c r="E20">
-        <v>1.7670836732136872</v>
+        <v>0.88354183660684404</v>
       </c>
       <c r="F20">
-        <v>1.5876057675894861</v>
+        <v>0.79380288379474295</v>
       </c>
       <c r="G20">
-        <v>1.4198359867351897</v>
+        <v>0.70991799336759498</v>
       </c>
       <c r="H20">
-        <v>1.2660980979527983</v>
+        <v>0.63304904897639902</v>
       </c>
       <c r="I20">
-        <v>1.1074039328288132</v>
+        <v>0.55370196641440705</v>
       </c>
       <c r="J20">
-        <v>0.9547087908854679</v>
+        <v>0.477354395442734</v>
       </c>
       <c r="L20">
         <f t="shared" si="12"/>
-        <v>3.5269999999999997</v>
+        <v>1.7639999999999998</v>
       </c>
       <c r="M20">
         <f t="shared" si="11"/>
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="N20">
         <f t="shared" si="11"/>
-        <v>2.4209999999999998</v>
+        <v>1.2109999999999999</v>
       </c>
       <c r="O20">
         <f t="shared" si="11"/>
-        <v>2.0509999999999997</v>
+        <v>1.0259999999999998</v>
       </c>
       <c r="P20">
         <f t="shared" si="11"/>
-        <v>1.7679999999999998</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="Q20">
         <f t="shared" si="11"/>
-        <v>1.5879999999999999</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="R20">
         <f t="shared" si="11"/>
-        <v>1.42</v>
+        <v>0.71</v>
       </c>
       <c r="S20">
         <f t="shared" si="11"/>
-        <v>1.2669999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="T20">
         <f t="shared" si="11"/>
-        <v>1.1079999999999999</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="U20">
         <f t="shared" si="11"/>
-        <v>0.95499999999999996</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3.4445298506210196</v>
+        <v>1.72226492531051</v>
       </c>
       <c r="B21">
-        <v>2.962031166413635</v>
+        <v>1.4810155832068199</v>
       </c>
       <c r="C21">
-        <v>2.5068317505573723</v>
+        <v>1.2534158752786899</v>
       </c>
       <c r="D21">
-        <v>2.2080408494274</v>
+        <v>1.1040204247137</v>
       </c>
       <c r="E21">
-        <v>1.9240609611689024</v>
+        <v>0.96203048058445095</v>
       </c>
       <c r="F21">
-        <v>1.7501453300907064</v>
+        <v>0.87507266504535297</v>
       </c>
       <c r="G21">
-        <v>1.5659451516357823</v>
+        <v>0.78297257581789104</v>
       </c>
       <c r="H21">
-        <v>1.4239971268754807</v>
+        <v>0.71199856343774004</v>
       </c>
       <c r="I21">
-        <v>1.2439320862936536</v>
+        <v>0.62196604314682702</v>
       </c>
       <c r="J21">
-        <v>1.0810970945041145</v>
+        <v>0.54054854725205703</v>
       </c>
       <c r="L21">
         <f t="shared" si="12"/>
-        <v>3.4449999999999998</v>
+        <v>1.7229999999999999</v>
       </c>
       <c r="M21">
         <f t="shared" si="11"/>
-        <v>2.9630000000000001</v>
+        <v>1.482</v>
       </c>
       <c r="N21">
         <f t="shared" si="11"/>
-        <v>2.5069999999999997</v>
+        <v>1.2539999999999998</v>
       </c>
       <c r="O21">
         <f t="shared" si="11"/>
-        <v>2.2090000000000001</v>
+        <v>1.105</v>
       </c>
       <c r="P21">
         <f t="shared" si="11"/>
-        <v>1.9249999999999998</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="Q21">
         <f t="shared" si="11"/>
-        <v>1.7509999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="R21">
         <f t="shared" si="11"/>
-        <v>1.5659999999999998</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="S21">
         <f t="shared" si="11"/>
-        <v>1.4239999999999999</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="T21">
         <f t="shared" si="11"/>
-        <v>1.244</v>
+        <v>0.622</v>
       </c>
       <c r="U21">
         <f t="shared" si="11"/>
-        <v>1.0819999999999999</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3.0715110914224528</v>
+        <v>1.53575554571123</v>
       </c>
       <c r="B22">
-        <v>2.7455400151455458</v>
+        <v>1.37277000757277</v>
       </c>
       <c r="C22">
-        <v>2.4049097925867589</v>
+        <v>1.2024548962933801</v>
       </c>
       <c r="D22">
-        <v>2.1935696917996772</v>
+        <v>1.0967848458998399</v>
       </c>
       <c r="E22">
-        <v>2.0222798110986213</v>
+        <v>1.01113990554931</v>
       </c>
       <c r="F22">
-        <v>1.8711604161388677</v>
+        <v>0.93558020806943398</v>
       </c>
       <c r="G22">
-        <v>1.7254739539885813</v>
+        <v>0.86273697699429097</v>
       </c>
       <c r="H22">
-        <v>1.5771377543322145</v>
+        <v>0.78856887716610702</v>
       </c>
       <c r="I22">
-        <v>1.4225743977292529</v>
+        <v>0.71128719886462599</v>
       </c>
       <c r="J22">
-        <v>1.2607787801596779</v>
+        <v>0.63038939007983896</v>
       </c>
       <c r="L22">
         <f t="shared" si="12"/>
-        <v>3.0720000000000001</v>
+        <v>1.5359999999999998</v>
       </c>
       <c r="M22">
         <f t="shared" si="11"/>
-        <v>2.746</v>
+        <v>1.373</v>
       </c>
       <c r="N22">
         <f t="shared" si="11"/>
-        <v>2.4049999999999998</v>
+        <v>1.2029999999999998</v>
       </c>
       <c r="O22">
         <f t="shared" si="11"/>
-        <v>2.194</v>
+        <v>1.097</v>
       </c>
       <c r="P22">
         <f t="shared" si="11"/>
-        <v>2.0229999999999997</v>
+        <v>1.0119999999999998</v>
       </c>
       <c r="Q22">
         <f t="shared" si="11"/>
-        <v>1.8719999999999999</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="R22">
         <f t="shared" si="11"/>
-        <v>1.726</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="S22">
         <f t="shared" si="11"/>
-        <v>1.5779999999999998</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="T22">
         <f t="shared" si="11"/>
-        <v>1.4229999999999998</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="U22">
         <f t="shared" si="11"/>
-        <v>1.2609999999999999</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2.633932396427936</v>
+        <v>1.31696619821397</v>
       </c>
       <c r="B23">
-        <v>2.5292182825456782</v>
+        <v>1.26460914127284</v>
       </c>
       <c r="C23">
-        <v>2.3590165676231329</v>
+        <v>1.17950828381157</v>
       </c>
       <c r="D23">
-        <v>2.2015278360435295</v>
+        <v>1.1007639180217601</v>
       </c>
       <c r="E23">
-        <v>2.1162429270406986</v>
+        <v>1.05812146352035</v>
       </c>
       <c r="F23">
-        <v>1.9665921645115325</v>
+        <v>0.98329608225576604</v>
       </c>
       <c r="G23">
-        <v>1.8751082546105624</v>
+        <v>0.93755412730528098</v>
       </c>
       <c r="H23">
-        <v>1.7255600706111052</v>
+        <v>0.86278003530555303</v>
       </c>
       <c r="I23">
-        <v>1.6239192531766857</v>
+        <v>0.81195962658834298</v>
       </c>
       <c r="J23">
-        <v>1.4725445364488505</v>
+        <v>0.73627226822442504</v>
       </c>
       <c r="L23">
         <f t="shared" si="12"/>
-        <v>2.6339999999999999</v>
+        <v>1.3169999999999999</v>
       </c>
       <c r="M23">
         <f t="shared" si="11"/>
-        <v>2.5299999999999998</v>
+        <v>1.2649999999999999</v>
       </c>
       <c r="N23">
         <f t="shared" si="11"/>
-        <v>2.36</v>
+        <v>1.18</v>
       </c>
       <c r="O23">
         <f t="shared" si="11"/>
-        <v>2.202</v>
+        <v>1.101</v>
       </c>
       <c r="P23">
         <f t="shared" si="11"/>
-        <v>2.117</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="Q23">
         <f t="shared" si="11"/>
-        <v>1.9669999999999999</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="R23">
         <f t="shared" si="11"/>
-        <v>1.8759999999999999</v>
+        <v>0.93800000000000006</v>
       </c>
       <c r="S23">
         <f t="shared" si="11"/>
-        <v>1.726</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="T23">
         <f t="shared" si="11"/>
-        <v>1.6239999999999999</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="U23">
         <f t="shared" si="11"/>
-        <v>1.4729999999999999</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2.3230731505355893</v>
+        <v>1.16153657526779</v>
       </c>
       <c r="B24">
-        <v>2.255845576454917</v>
+        <v>1.1279227882274601</v>
       </c>
       <c r="C24">
-        <v>2.1889022868271799</v>
+        <v>1.09445114341359</v>
       </c>
       <c r="D24">
-        <v>2.1222079176386464</v>
+        <v>1.0611039588193201</v>
       </c>
       <c r="E24">
-        <v>2.0557375969076706</v>
+        <v>1.0278687984538399</v>
       </c>
       <c r="F24">
-        <v>1.9894749831534027</v>
+        <v>0.99473749157670099</v>
       </c>
       <c r="G24">
-        <v>1.9234107597704713</v>
+        <v>0.96170537988523597</v>
       </c>
       <c r="H24">
-        <v>1.9197599143083102</v>
+        <v>0.95987995715415497</v>
       </c>
       <c r="I24">
-        <v>1.851888360324597</v>
+        <v>0.92594418016229896</v>
       </c>
       <c r="J24">
-        <v>1.7842285980136272</v>
+        <v>0.89211429900681405</v>
       </c>
       <c r="L24">
         <f t="shared" si="12"/>
-        <v>2.3239999999999998</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="M24">
         <f t="shared" si="11"/>
-        <v>2.2559999999999998</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="N24">
         <f t="shared" si="11"/>
-        <v>2.1890000000000001</v>
+        <v>1.095</v>
       </c>
       <c r="O24">
         <f t="shared" si="11"/>
-        <v>2.1229999999999998</v>
+        <v>1.0619999999999998</v>
       </c>
       <c r="P24">
         <f t="shared" si="11"/>
-        <v>2.056</v>
+        <v>1.0279999999999998</v>
       </c>
       <c r="Q24">
         <f t="shared" si="11"/>
-        <v>1.99</v>
+        <v>0.995</v>
       </c>
       <c r="R24">
         <f t="shared" si="11"/>
-        <v>1.9239999999999999</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="S24">
         <f t="shared" si="11"/>
-        <v>1.92</v>
+        <v>0.96</v>
       </c>
       <c r="T24">
         <f t="shared" si="11"/>
-        <v>1.8519999999999999</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="U24">
         <f t="shared" si="11"/>
-        <v>1.7849999999999999</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -12418,650 +12428,650 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2.2463503527499996E-3</v>
+        <v>3.7835373375550797E-2</v>
       </c>
       <c r="B53">
-        <v>2.2278575097448117E-3</v>
+        <v>3.04819277034616E-2</v>
       </c>
       <c r="C53">
-        <v>2.2112917797484735E-3</v>
+        <v>2.5817261817935699E-2</v>
       </c>
       <c r="D53">
-        <v>2.202432111348243E-3</v>
+        <v>2.2596785361310798E-2</v>
       </c>
       <c r="E53">
-        <v>2.2033814317985994E-3</v>
+        <v>2.0242556671170499E-2</v>
       </c>
       <c r="F53">
-        <v>2.2091032880796257E-3</v>
+        <v>1.8466024770846499E-2</v>
       </c>
       <c r="G53">
-        <v>2.2137454652692758E-3</v>
+        <v>1.7097543541279799E-2</v>
       </c>
       <c r="H53">
-        <v>2.2147235560923207E-3</v>
+        <v>1.59981219963534E-2</v>
       </c>
       <c r="I53">
-        <v>2.218481317020527E-3</v>
+        <v>1.5068379530166501E-2</v>
       </c>
       <c r="J53">
-        <v>2.233008515591666E-3</v>
+        <v>1.4191265513024499E-2</v>
       </c>
       <c r="L53">
         <f>ROUNDUP(A53,6)</f>
-        <v>2.2470000000000003E-3</v>
+        <v>3.7836000000000002E-2</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53:U61" si="17">ROUNDUP(B53,6)</f>
-        <v>2.2279999999999999E-3</v>
+        <v>3.0482000000000002E-2</v>
       </c>
       <c r="N53">
         <f t="shared" si="17"/>
-        <v>2.212E-3</v>
+        <v>2.5818000000000001E-2</v>
       </c>
       <c r="O53">
         <f t="shared" si="17"/>
-        <v>2.2030000000000001E-3</v>
+        <v>2.2597000000000003E-2</v>
       </c>
       <c r="P53">
         <f t="shared" si="17"/>
-        <v>2.2040000000000002E-3</v>
+        <v>2.0243000000000001E-2</v>
       </c>
       <c r="Q53">
         <f t="shared" si="17"/>
-        <v>2.2100000000000002E-3</v>
+        <v>1.8467000000000001E-2</v>
       </c>
       <c r="R53">
         <f t="shared" si="17"/>
-        <v>2.2140000000000003E-3</v>
+        <v>1.7098000000000002E-2</v>
       </c>
       <c r="S53">
         <f t="shared" si="17"/>
-        <v>2.215E-3</v>
+        <v>1.5998999999999999E-2</v>
       </c>
       <c r="T53">
         <f t="shared" si="17"/>
-        <v>2.2190000000000001E-3</v>
+        <v>1.5068999999999999E-2</v>
       </c>
       <c r="U53">
         <f t="shared" si="17"/>
-        <v>2.2340000000000003E-3</v>
+        <v>1.4192E-2</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1.8384561906666778E-3</v>
+        <v>3.3922627027312899E-2</v>
       </c>
       <c r="B54">
-        <v>1.8240705311671369E-3</v>
+        <v>2.8109605525882399E-2</v>
       </c>
       <c r="C54">
-        <v>1.8128100976216386E-3</v>
+        <v>2.4174175551141101E-2</v>
       </c>
       <c r="D54">
-        <v>1.8085201239217241E-3</v>
+        <v>2.1351324414149699E-2</v>
       </c>
       <c r="E54">
-        <v>1.8107366490823259E-3</v>
+        <v>1.9249656428712399E-2</v>
       </c>
       <c r="F54">
-        <v>1.8154304938757418E-3</v>
+        <v>1.7616216807724801E-2</v>
       </c>
       <c r="G54">
-        <v>1.818503459459854E-3</v>
+        <v>1.6325196782404901E-2</v>
       </c>
       <c r="H54">
-        <v>1.8191730210479345E-3</v>
+        <v>1.52751039103706E-2</v>
       </c>
       <c r="I54">
-        <v>1.8224895255742612E-3</v>
+        <v>1.43728402772474E-2</v>
       </c>
       <c r="J54">
-        <v>1.8340959187650404E-3</v>
+        <v>1.3539763553577E-2</v>
       </c>
       <c r="L54">
         <f t="shared" ref="L54:L61" si="18">ROUNDUP(A54,6)</f>
-        <v>1.8389999999999999E-3</v>
+        <v>3.3923000000000002E-2</v>
       </c>
       <c r="M54">
         <f t="shared" si="17"/>
-        <v>1.825E-3</v>
+        <v>2.811E-2</v>
       </c>
       <c r="N54">
         <f t="shared" si="17"/>
-        <v>1.8129999999999999E-3</v>
+        <v>2.4175000000000002E-2</v>
       </c>
       <c r="O54">
         <f t="shared" si="17"/>
-        <v>1.8089999999999998E-3</v>
+        <v>2.1351999999999999E-2</v>
       </c>
       <c r="P54">
         <f t="shared" si="17"/>
-        <v>1.8109999999999999E-3</v>
+        <v>1.925E-2</v>
       </c>
       <c r="Q54">
         <f t="shared" si="17"/>
-        <v>1.8159999999999999E-3</v>
+        <v>1.7617000000000001E-2</v>
       </c>
       <c r="R54">
         <f t="shared" si="17"/>
-        <v>1.8189999999999999E-3</v>
+        <v>1.6326E-2</v>
       </c>
       <c r="S54">
         <f t="shared" si="17"/>
-        <v>1.82E-3</v>
+        <v>1.5276E-2</v>
       </c>
       <c r="T54">
         <f t="shared" si="17"/>
-        <v>1.823E-3</v>
+        <v>1.4372999999999999E-2</v>
       </c>
       <c r="U54">
         <f t="shared" si="17"/>
-        <v>1.8349999999999998E-3</v>
+        <v>1.354E-2</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1.4903798664759212E-3</v>
+        <v>3.0292402803303298E-2</v>
       </c>
       <c r="B55">
-        <v>1.4802385486408641E-3</v>
+        <v>2.5793406339776601E-2</v>
       </c>
       <c r="C55">
-        <v>1.4737916098287057E-3</v>
+        <v>2.2566871932519501E-2</v>
       </c>
       <c r="D55">
-        <v>1.4728585709668383E-3</v>
+        <v>2.0170333008047301E-2</v>
       </c>
       <c r="E55">
-        <v>1.4755657804911835E-3</v>
+        <v>1.8318705127943299E-2</v>
       </c>
       <c r="F55">
-        <v>1.4791319708479475E-3</v>
+        <v>1.6841088139829E-2</v>
       </c>
       <c r="G55">
-        <v>1.4809152231339954E-3</v>
+        <v>1.5656312393299902E-2</v>
       </c>
       <c r="H55">
-        <v>1.481436088245841E-3</v>
+        <v>1.4671997673783599E-2</v>
       </c>
       <c r="I55">
-        <v>1.4843541275289108E-3</v>
+        <v>1.38093097069049E-2</v>
       </c>
       <c r="J55">
-        <v>1.4934635590275985E-3</v>
+        <v>1.30239888509791E-2</v>
       </c>
       <c r="L55">
         <f t="shared" si="18"/>
-        <v>1.4909999999999999E-3</v>
+        <v>3.0293E-2</v>
       </c>
       <c r="M55">
         <f t="shared" si="17"/>
-        <v>1.4809999999999999E-3</v>
+        <v>2.5794000000000001E-2</v>
       </c>
       <c r="N55">
         <f t="shared" si="17"/>
-        <v>1.4739999999999998E-3</v>
+        <v>2.2567E-2</v>
       </c>
       <c r="O55">
         <f t="shared" si="17"/>
-        <v>1.4729999999999999E-3</v>
+        <v>2.0171000000000001E-2</v>
       </c>
       <c r="P55">
         <f t="shared" si="17"/>
-        <v>1.4759999999999999E-3</v>
+        <v>1.8319000000000002E-2</v>
       </c>
       <c r="Q55">
         <f t="shared" si="17"/>
-        <v>1.48E-3</v>
+        <v>1.6841999999999999E-2</v>
       </c>
       <c r="R55">
         <f t="shared" si="17"/>
-        <v>1.4809999999999999E-3</v>
+        <v>1.5657000000000001E-2</v>
       </c>
       <c r="S55">
         <f t="shared" si="17"/>
-        <v>1.4819999999999998E-3</v>
+        <v>1.4671999999999999E-2</v>
       </c>
       <c r="T55">
         <f t="shared" si="17"/>
-        <v>1.485E-3</v>
+        <v>1.3809999999999999E-2</v>
       </c>
       <c r="U55">
         <f t="shared" si="17"/>
-        <v>1.4939999999999999E-3</v>
+        <v>1.3023999999999999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1.1945709645271249E-3</v>
+        <v>2.6976133183515501E-2</v>
       </c>
       <c r="B56">
-        <v>1.1885782625129103E-3</v>
+        <v>2.3583139431994301E-2</v>
       </c>
       <c r="C56">
-        <v>1.1861660200133703E-3</v>
+        <v>2.10262023975137E-2</v>
       </c>
       <c r="D56">
-        <v>1.1870947858979096E-3</v>
+        <v>1.9035165906542199E-2</v>
       </c>
       <c r="E56">
-        <v>1.1896426765013091E-3</v>
+        <v>1.7445298692900599E-2</v>
       </c>
       <c r="F56">
-        <v>1.1920470429942849E-3</v>
+        <v>1.61505482481051E-2</v>
       </c>
       <c r="G56">
-        <v>1.1928932517768893E-3</v>
+        <v>1.50684624518303E-2</v>
       </c>
       <c r="H56">
-        <v>1.1933866035970906E-3</v>
+        <v>1.41585667926664E-2</v>
       </c>
       <c r="I56">
-        <v>1.1959256640849179E-3</v>
+        <v>1.3358362898814201E-2</v>
       </c>
       <c r="J56">
-        <v>1.2029150469154855E-3</v>
+        <v>1.2624458550175299E-2</v>
       </c>
       <c r="L56">
         <f t="shared" si="18"/>
-        <v>1.1949999999999999E-3</v>
+        <v>2.6977000000000001E-2</v>
       </c>
       <c r="M56">
         <f t="shared" si="17"/>
-        <v>1.189E-3</v>
+        <v>2.3584000000000001E-2</v>
       </c>
       <c r="N56">
         <f t="shared" si="17"/>
-        <v>1.1869999999999999E-3</v>
+        <v>2.1027000000000001E-2</v>
       </c>
       <c r="O56">
         <f t="shared" si="17"/>
-        <v>1.1879999999999998E-3</v>
+        <v>1.9036000000000001E-2</v>
       </c>
       <c r="P56">
         <f t="shared" si="17"/>
-        <v>1.1899999999999999E-3</v>
+        <v>1.7446E-2</v>
       </c>
       <c r="Q56">
         <f t="shared" si="17"/>
-        <v>1.1929999999999998E-3</v>
+        <v>1.6151000000000002E-2</v>
       </c>
       <c r="R56">
         <f t="shared" si="17"/>
-        <v>1.1929999999999998E-3</v>
+        <v>1.5068999999999999E-2</v>
       </c>
       <c r="S56">
         <f t="shared" si="17"/>
-        <v>1.194E-3</v>
+        <v>1.4159E-2</v>
       </c>
       <c r="T56">
         <f t="shared" si="17"/>
-        <v>1.196E-3</v>
+        <v>1.3358999999999999E-2</v>
       </c>
       <c r="U56">
         <f t="shared" si="17"/>
-        <v>1.2029999999999999E-3</v>
+        <v>1.2624999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>9.4712314726967358E-4</v>
+        <v>2.37048077651958E-2</v>
       </c>
       <c r="B57">
-        <v>9.4517536488841671E-4</v>
+        <v>2.13125538175046E-2</v>
       </c>
       <c r="C57">
-        <v>9.4548475429091067E-4</v>
+        <v>1.94036258954195E-2</v>
       </c>
       <c r="D57">
-        <v>9.4709405671448391E-4</v>
+        <v>1.7847646235528099E-2</v>
       </c>
       <c r="E57">
-        <v>9.4900626012207922E-4</v>
+        <v>1.6557500796109799E-2</v>
       </c>
       <c r="F57">
-        <v>9.5023073778083267E-4</v>
+        <v>1.54616309203347E-2</v>
       </c>
       <c r="G57">
-        <v>9.5052472817731468E-4</v>
+        <v>1.45369722365457E-2</v>
       </c>
       <c r="H57">
-        <v>9.5108480674968381E-4</v>
+        <v>1.37313313075378E-2</v>
       </c>
       <c r="I57">
-        <v>9.5327110192439124E-4</v>
+        <v>1.30115313247168E-2</v>
       </c>
       <c r="J57">
-        <v>9.5844374212788975E-4</v>
+        <v>1.23412176389479E-2</v>
       </c>
       <c r="L57">
         <f t="shared" si="18"/>
-        <v>9.4800000000000006E-4</v>
+        <v>2.3705E-2</v>
       </c>
       <c r="M57">
         <f t="shared" si="17"/>
-        <v>9.4600000000000001E-4</v>
+        <v>2.1313000000000002E-2</v>
       </c>
       <c r="N57">
         <f t="shared" si="17"/>
-        <v>9.4600000000000001E-4</v>
+        <v>1.9404000000000001E-2</v>
       </c>
       <c r="O57">
         <f t="shared" si="17"/>
-        <v>9.4800000000000006E-4</v>
+        <v>1.7847999999999999E-2</v>
       </c>
       <c r="P57">
         <f t="shared" si="17"/>
-        <v>9.5E-4</v>
+        <v>1.6558E-2</v>
       </c>
       <c r="Q57">
         <f t="shared" si="17"/>
-        <v>9.5100000000000002E-4</v>
+        <v>1.5462E-2</v>
       </c>
       <c r="R57">
         <f t="shared" si="17"/>
-        <v>9.5100000000000002E-4</v>
+        <v>1.4537E-2</v>
       </c>
       <c r="S57">
         <f t="shared" si="17"/>
-        <v>9.5200000000000005E-4</v>
+        <v>1.3731999999999999E-2</v>
       </c>
       <c r="T57">
         <f t="shared" si="17"/>
-        <v>9.5399999999999999E-4</v>
+        <v>1.3011999999999999E-2</v>
       </c>
       <c r="U57">
         <f t="shared" si="17"/>
-        <v>9.59E-4</v>
+        <v>1.2341999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>7.4349516776469639E-4</v>
+        <v>2.1545089698077498E-2</v>
       </c>
       <c r="B58">
-        <v>7.4357766972725037E-4</v>
+        <v>1.9734480511428801E-2</v>
       </c>
       <c r="C58">
-        <v>7.4458032900397804E-4</v>
+        <v>1.82441951441733E-2</v>
       </c>
       <c r="D58">
-        <v>7.4594075221978771E-4</v>
+        <v>1.6973929855466099E-2</v>
       </c>
       <c r="E58">
-        <v>7.4709654599958869E-4</v>
+        <v>1.59019814720203E-2</v>
       </c>
       <c r="F58">
-        <v>7.475794981317526E-4</v>
+        <v>1.4965708173159301E-2</v>
       </c>
       <c r="G58">
-        <v>7.4773608720275363E-4</v>
+        <v>1.41579835232077E-2</v>
       </c>
       <c r="H58">
-        <v>7.4833014653539413E-4</v>
+        <v>1.3430654405587E-2</v>
       </c>
       <c r="I58">
-        <v>7.5012889576983816E-4</v>
+        <v>1.27824363201057E-2</v>
       </c>
       <c r="J58">
-        <v>7.5389955454624837E-4</v>
+        <v>1.21754298180021E-2</v>
       </c>
       <c r="L58">
         <f t="shared" si="18"/>
-        <v>7.4399999999999998E-4</v>
+        <v>2.1546000000000003E-2</v>
       </c>
       <c r="M58">
         <f t="shared" si="17"/>
-        <v>7.4399999999999998E-4</v>
+        <v>1.9735000000000003E-2</v>
       </c>
       <c r="N58">
         <f t="shared" si="17"/>
-        <v>7.45E-4</v>
+        <v>1.8245000000000001E-2</v>
       </c>
       <c r="O58">
         <f t="shared" si="17"/>
-        <v>7.4600000000000003E-4</v>
+        <v>1.6974E-2</v>
       </c>
       <c r="P58">
         <f t="shared" si="17"/>
-        <v>7.4800000000000008E-4</v>
+        <v>1.5901999999999999E-2</v>
       </c>
       <c r="Q58">
         <f t="shared" si="17"/>
-        <v>7.4800000000000008E-4</v>
+        <v>1.4965999999999998E-2</v>
       </c>
       <c r="R58">
         <f t="shared" si="17"/>
-        <v>7.4800000000000008E-4</v>
+        <v>1.4157999999999999E-2</v>
       </c>
       <c r="S58">
         <f t="shared" si="17"/>
-        <v>7.4899999999999999E-4</v>
+        <v>1.3430999999999998E-2</v>
       </c>
       <c r="T58">
         <f t="shared" si="17"/>
-        <v>7.5100000000000004E-4</v>
+        <v>1.2782999999999999E-2</v>
       </c>
       <c r="U58">
         <f t="shared" si="17"/>
-        <v>7.54E-4</v>
+        <v>1.2175999999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5.6141278262881718E-4</v>
+        <v>1.8118300480783701E-2</v>
       </c>
       <c r="B59">
-        <v>5.6220999643564508E-4</v>
+        <v>1.7089805942107201E-2</v>
       </c>
       <c r="C59">
-        <v>5.629780705462236E-4</v>
+        <v>1.6195518116529101E-2</v>
       </c>
       <c r="D59">
-        <v>5.6351470808922862E-4</v>
+        <v>1.5388350321351E-2</v>
       </c>
       <c r="E59">
-        <v>5.637181791979456E-4</v>
+        <v>1.46665495556064E-2</v>
       </c>
       <c r="F59">
-        <v>5.6380265106616969E-4</v>
+        <v>1.4016006374901699E-2</v>
       </c>
       <c r="G59">
-        <v>5.6404415599677429E-4</v>
+        <v>1.3424660862301201E-2</v>
       </c>
       <c r="H59">
-        <v>5.6471872629263147E-4</v>
+        <v>1.2882194442743E-2</v>
       </c>
       <c r="I59">
-        <v>5.6610239425661463E-4</v>
+        <v>1.23796224025864E-2</v>
       </c>
       <c r="J59">
-        <v>5.684711921915967E-4</v>
+        <v>1.1908969648673899E-2</v>
       </c>
       <c r="L59">
         <f t="shared" si="18"/>
-        <v>5.62E-4</v>
+        <v>1.8119E-2</v>
       </c>
       <c r="M59">
         <f t="shared" si="17"/>
-        <v>5.6300000000000002E-4</v>
+        <v>1.7090000000000001E-2</v>
       </c>
       <c r="N59">
         <f t="shared" si="17"/>
-        <v>5.6300000000000002E-4</v>
+        <v>1.6196000000000002E-2</v>
       </c>
       <c r="O59">
         <f t="shared" si="17"/>
-        <v>5.6400000000000005E-4</v>
+        <v>1.5389E-2</v>
       </c>
       <c r="P59">
         <f t="shared" si="17"/>
-        <v>5.6400000000000005E-4</v>
+        <v>1.4666999999999999E-2</v>
       </c>
       <c r="Q59">
         <f t="shared" si="17"/>
-        <v>5.6400000000000005E-4</v>
+        <v>1.4017E-2</v>
       </c>
       <c r="R59">
         <f t="shared" si="17"/>
-        <v>5.6500000000000007E-4</v>
+        <v>1.3424999999999999E-2</v>
       </c>
       <c r="S59">
         <f t="shared" si="17"/>
-        <v>5.6500000000000007E-4</v>
+        <v>1.2882999999999999E-2</v>
       </c>
       <c r="T59">
         <f t="shared" si="17"/>
-        <v>5.6700000000000001E-4</v>
+        <v>1.2379999999999999E-2</v>
       </c>
       <c r="U59">
         <f t="shared" si="17"/>
-        <v>5.6900000000000006E-4</v>
+        <v>1.1908999999999999E-2</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4.1163965220751992E-4</v>
+        <v>1.49790277604474E-2</v>
       </c>
       <c r="B60">
-        <v>4.1174592276936269E-4</v>
+        <v>1.44920858664364E-2</v>
       </c>
       <c r="C60">
-        <v>4.1179181417003803E-4</v>
+        <v>1.40497511967293E-2</v>
       </c>
       <c r="D60">
-        <v>4.1183467863829132E-4</v>
+        <v>1.36357511803335E-2</v>
       </c>
       <c r="E60">
-        <v>4.1193186840286767E-4</v>
+        <v>1.3235910148693301E-2</v>
       </c>
       <c r="F60">
-        <v>4.1214073569251219E-4</v>
+        <v>1.2869930519959299E-2</v>
       </c>
       <c r="G60">
-        <v>4.1251863273596948E-4</v>
+        <v>1.2513458245296099E-2</v>
       </c>
       <c r="H60">
-        <v>4.1312291176198479E-4</v>
+        <v>1.2185265064684999E-2</v>
       </c>
       <c r="I60">
-        <v>4.1401092499930304E-4</v>
+        <v>1.1862754574479099E-2</v>
       </c>
       <c r="J60">
-        <v>4.1524002467666955E-4</v>
+        <v>1.1563803987372501E-2</v>
       </c>
       <c r="L60">
         <f t="shared" si="18"/>
-        <v>4.1200000000000004E-4</v>
+        <v>1.4979999999999999E-2</v>
       </c>
       <c r="M60">
         <f t="shared" si="17"/>
-        <v>4.1200000000000004E-4</v>
+        <v>1.4492999999999999E-2</v>
       </c>
       <c r="N60">
         <f t="shared" si="17"/>
-        <v>4.1200000000000004E-4</v>
+        <v>1.405E-2</v>
       </c>
       <c r="O60">
         <f t="shared" si="17"/>
-        <v>4.1200000000000004E-4</v>
+        <v>1.3635999999999999E-2</v>
       </c>
       <c r="P60">
         <f t="shared" si="17"/>
-        <v>4.1200000000000004E-4</v>
+        <v>1.3236E-2</v>
       </c>
       <c r="Q60">
         <f t="shared" si="17"/>
-        <v>4.1300000000000001E-4</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="R60">
         <f t="shared" si="17"/>
-        <v>4.1300000000000001E-4</v>
+        <v>1.2513999999999999E-2</v>
       </c>
       <c r="S60">
         <f t="shared" si="17"/>
-        <v>4.1400000000000003E-4</v>
+        <v>1.2185999999999999E-2</v>
       </c>
       <c r="T60">
         <f t="shared" si="17"/>
-        <v>4.15E-4</v>
+        <v>1.1862999999999999E-2</v>
       </c>
       <c r="U60">
         <f t="shared" si="17"/>
-        <v>4.1600000000000003E-4</v>
+        <v>1.1564E-2</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3.0127852509668004E-4</v>
+        <v>1.23700835324476E-2</v>
       </c>
       <c r="B61">
-        <v>3.0140009436870947E-4</v>
+        <v>1.22442273444261E-2</v>
       </c>
       <c r="C61">
-        <v>3.0154452492692132E-4</v>
+        <v>1.2120848784790601E-2</v>
       </c>
       <c r="D61">
-        <v>3.0171393684907998E-4</v>
+        <v>1.19998446218578E-2</v>
       </c>
       <c r="E61">
-        <v>3.0191045021294908E-4</v>
+        <v>1.18811150122058E-2</v>
       </c>
       <c r="F61">
-        <v>3.0213618509629267E-4</v>
+        <v>1.17645632942967E-2</v>
       </c>
       <c r="G61">
-        <v>3.0239326157687461E-4</v>
+        <v>1.16500957921496E-2</v>
       </c>
       <c r="H61">
-        <v>3.026837997324589E-4</v>
+        <v>1.1527709044006899E-2</v>
       </c>
       <c r="I61">
-        <v>3.0300991964080944E-4</v>
+        <v>1.14172437944089E-2</v>
       </c>
       <c r="J61">
-        <v>3.0337374137969018E-4</v>
+        <v>1.1308595173445299E-2</v>
       </c>
       <c r="L61">
         <f t="shared" si="18"/>
-        <v>3.0200000000000002E-4</v>
+        <v>1.2371E-2</v>
       </c>
       <c r="M61">
         <f t="shared" si="17"/>
-        <v>3.0200000000000002E-4</v>
+        <v>1.2244999999999999E-2</v>
       </c>
       <c r="N61">
         <f t="shared" si="17"/>
-        <v>3.0200000000000002E-4</v>
+        <v>1.2121E-2</v>
       </c>
       <c r="O61">
         <f t="shared" si="17"/>
-        <v>3.0200000000000002E-4</v>
+        <v>1.1999999999999999E-2</v>
       </c>
       <c r="P61">
         <f t="shared" si="17"/>
-        <v>3.0200000000000002E-4</v>
+        <v>1.1881999999999998E-2</v>
       </c>
       <c r="Q61">
         <f t="shared" si="17"/>
-        <v>3.0300000000000005E-4</v>
+        <v>1.1764999999999999E-2</v>
       </c>
       <c r="R61">
         <f t="shared" si="17"/>
-        <v>3.0300000000000005E-4</v>
+        <v>1.1651E-2</v>
       </c>
       <c r="S61">
         <f t="shared" si="17"/>
-        <v>3.0300000000000005E-4</v>
+        <v>1.1528E-2</v>
       </c>
       <c r="T61">
         <f t="shared" si="17"/>
-        <v>3.0400000000000002E-4</v>
+        <v>1.1417999999999999E-2</v>
       </c>
       <c r="U61">
         <f t="shared" si="17"/>
-        <v>3.0400000000000002E-4</v>
+        <v>1.1309E-2</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -13153,7 +13163,7 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" ref="A65:J77" si="21">A41/1000</f>
+        <f t="shared" ref="A65:J72" si="21">A41/1000</f>
         <v>5.5336613797422194</v>
       </c>
       <c r="B65">
@@ -13815,739 +13825,739 @@
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>A53*1000</f>
-        <v>2.2463503527499995</v>
+        <v>37.835373375550795</v>
       </c>
       <c r="B74">
         <f t="shared" ref="B74:J74" si="23">B53*1000</f>
-        <v>2.2278575097448114</v>
+        <v>30.481927703461601</v>
       </c>
       <c r="C74">
         <f t="shared" si="23"/>
-        <v>2.2112917797484735</v>
+        <v>25.817261817935698</v>
       </c>
       <c r="D74">
         <f t="shared" si="23"/>
-        <v>2.202432111348243</v>
+        <v>22.596785361310797</v>
       </c>
       <c r="E74">
         <f t="shared" si="23"/>
-        <v>2.2033814317985994</v>
+        <v>20.242556671170501</v>
       </c>
       <c r="F74">
         <f t="shared" si="23"/>
-        <v>2.2091032880796257</v>
+        <v>18.466024770846499</v>
       </c>
       <c r="G74">
         <f t="shared" si="23"/>
-        <v>2.2137454652692758</v>
+        <v>17.097543541279798</v>
       </c>
       <c r="H74">
         <f t="shared" si="23"/>
-        <v>2.2147235560923209</v>
+        <v>15.998121996353399</v>
       </c>
       <c r="I74">
         <f t="shared" si="23"/>
-        <v>2.2184813170205269</v>
+        <v>15.068379530166501</v>
       </c>
       <c r="J74">
         <f t="shared" si="23"/>
-        <v>2.2330085155916661</v>
+        <v>14.191265513024499</v>
       </c>
       <c r="L74">
         <f>ROUNDUP(A74,2)</f>
-        <v>2.25</v>
+        <v>37.839999999999996</v>
       </c>
       <c r="M74">
         <f t="shared" ref="M74:U82" si="24">ROUNDUP(B74,2)</f>
-        <v>2.23</v>
+        <v>30.490000000000002</v>
       </c>
       <c r="N74">
         <f t="shared" si="24"/>
-        <v>2.2199999999999998</v>
+        <v>25.82</v>
       </c>
       <c r="O74">
         <f t="shared" si="24"/>
-        <v>2.21</v>
+        <v>22.6</v>
       </c>
       <c r="P74">
         <f t="shared" si="24"/>
-        <v>2.21</v>
+        <v>20.25</v>
       </c>
       <c r="Q74">
         <f t="shared" si="24"/>
-        <v>2.21</v>
+        <v>18.470000000000002</v>
       </c>
       <c r="R74">
         <f t="shared" si="24"/>
-        <v>2.2199999999999998</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="S74">
         <f t="shared" si="24"/>
-        <v>2.2199999999999998</v>
+        <v>16</v>
       </c>
       <c r="T74">
         <f t="shared" si="24"/>
-        <v>2.2199999999999998</v>
+        <v>15.07</v>
       </c>
       <c r="U74">
         <f t="shared" si="24"/>
-        <v>2.2399999999999998</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" ref="A75:J84" si="25">A54*1000</f>
-        <v>1.8384561906666779</v>
+        <f t="shared" ref="A75:J82" si="25">A54*1000</f>
+        <v>33.922627027312899</v>
       </c>
       <c r="B75">
         <f t="shared" si="25"/>
-        <v>1.8240705311671368</v>
+        <v>28.109605525882401</v>
       </c>
       <c r="C75">
         <f t="shared" si="25"/>
-        <v>1.8128100976216386</v>
+        <v>24.174175551141101</v>
       </c>
       <c r="D75">
         <f t="shared" si="25"/>
-        <v>1.8085201239217241</v>
+        <v>21.351324414149698</v>
       </c>
       <c r="E75">
         <f t="shared" si="25"/>
-        <v>1.810736649082326</v>
+        <v>19.249656428712399</v>
       </c>
       <c r="F75">
         <f t="shared" si="25"/>
-        <v>1.8154304938757417</v>
+        <v>17.6162168077248</v>
       </c>
       <c r="G75">
         <f t="shared" si="25"/>
-        <v>1.8185034594598539</v>
+        <v>16.325196782404902</v>
       </c>
       <c r="H75">
         <f t="shared" si="25"/>
-        <v>1.8191730210479347</v>
+        <v>15.2751039103706</v>
       </c>
       <c r="I75">
         <f t="shared" si="25"/>
-        <v>1.8224895255742612</v>
+        <v>14.3728402772474</v>
       </c>
       <c r="J75">
         <f t="shared" si="25"/>
-        <v>1.8340959187650403</v>
+        <v>13.539763553577</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75:L82" si="26">ROUNDUP(A75,2)</f>
-        <v>1.84</v>
+        <v>33.93</v>
       </c>
       <c r="M75">
         <f t="shared" si="24"/>
-        <v>1.83</v>
+        <v>28.110000000000003</v>
       </c>
       <c r="N75">
         <f t="shared" si="24"/>
-        <v>1.82</v>
+        <v>24.180000000000003</v>
       </c>
       <c r="O75">
         <f t="shared" si="24"/>
-        <v>1.81</v>
+        <v>21.360000000000003</v>
       </c>
       <c r="P75">
         <f t="shared" si="24"/>
-        <v>1.82</v>
+        <v>19.25</v>
       </c>
       <c r="Q75">
         <f t="shared" si="24"/>
-        <v>1.82</v>
+        <v>17.62</v>
       </c>
       <c r="R75">
         <f t="shared" si="24"/>
-        <v>1.82</v>
+        <v>16.330000000000002</v>
       </c>
       <c r="S75">
         <f t="shared" si="24"/>
-        <v>1.82</v>
+        <v>15.28</v>
       </c>
       <c r="T75">
         <f t="shared" si="24"/>
-        <v>1.83</v>
+        <v>14.379999999999999</v>
       </c>
       <c r="U75">
         <f t="shared" si="24"/>
-        <v>1.84</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="25"/>
-        <v>1.4903798664759211</v>
+        <v>30.292402803303297</v>
       </c>
       <c r="B76">
         <f t="shared" si="25"/>
-        <v>1.480238548640864</v>
+        <v>25.793406339776599</v>
       </c>
       <c r="C76">
         <f t="shared" si="25"/>
-        <v>1.4737916098287056</v>
+        <v>22.566871932519501</v>
       </c>
       <c r="D76">
         <f t="shared" si="25"/>
-        <v>1.4728585709668383</v>
+        <v>20.170333008047301</v>
       </c>
       <c r="E76">
         <f t="shared" si="25"/>
-        <v>1.4755657804911835</v>
+        <v>18.3187051279433</v>
       </c>
       <c r="F76">
         <f t="shared" si="25"/>
-        <v>1.4791319708479476</v>
+        <v>16.841088139829001</v>
       </c>
       <c r="G76">
         <f t="shared" si="25"/>
-        <v>1.4809152231339955</v>
+        <v>15.656312393299901</v>
       </c>
       <c r="H76">
         <f t="shared" si="25"/>
-        <v>1.4814360882458411</v>
+        <v>14.671997673783599</v>
       </c>
       <c r="I76">
         <f t="shared" si="25"/>
-        <v>1.4843541275289109</v>
+        <v>13.8093097069049</v>
       </c>
       <c r="J76">
         <f t="shared" si="25"/>
-        <v>1.4934635590275984</v>
+        <v>13.0239888509791</v>
       </c>
       <c r="L76">
         <f t="shared" si="26"/>
-        <v>1.5</v>
+        <v>30.3</v>
       </c>
       <c r="M76">
         <f t="shared" si="24"/>
-        <v>1.49</v>
+        <v>25.8</v>
       </c>
       <c r="N76">
         <f t="shared" si="24"/>
-        <v>1.48</v>
+        <v>22.57</v>
       </c>
       <c r="O76">
         <f t="shared" si="24"/>
-        <v>1.48</v>
+        <v>20.180000000000003</v>
       </c>
       <c r="P76">
         <f t="shared" si="24"/>
-        <v>1.48</v>
+        <v>18.32</v>
       </c>
       <c r="Q76">
         <f t="shared" si="24"/>
-        <v>1.48</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="R76">
         <f t="shared" si="24"/>
-        <v>1.49</v>
+        <v>15.66</v>
       </c>
       <c r="S76">
         <f t="shared" si="24"/>
-        <v>1.49</v>
+        <v>14.68</v>
       </c>
       <c r="T76">
         <f t="shared" si="24"/>
-        <v>1.49</v>
+        <v>13.81</v>
       </c>
       <c r="U76">
         <f t="shared" si="24"/>
-        <v>1.5</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="25"/>
-        <v>1.194570964527125</v>
+        <v>26.9761331835155</v>
       </c>
       <c r="B77">
         <f t="shared" si="25"/>
-        <v>1.1885782625129102</v>
+        <v>23.583139431994301</v>
       </c>
       <c r="C77">
         <f t="shared" si="25"/>
-        <v>1.1861660200133703</v>
+        <v>21.0262023975137</v>
       </c>
       <c r="D77">
         <f t="shared" si="25"/>
-        <v>1.1870947858979095</v>
+        <v>19.035165906542197</v>
       </c>
       <c r="E77">
         <f t="shared" si="25"/>
-        <v>1.1896426765013091</v>
+        <v>17.4452986929006</v>
       </c>
       <c r="F77">
         <f t="shared" si="25"/>
-        <v>1.1920470429942849</v>
+        <v>16.1505482481051</v>
       </c>
       <c r="G77">
         <f t="shared" si="25"/>
-        <v>1.1928932517768893</v>
+        <v>15.0684624518303</v>
       </c>
       <c r="H77">
         <f t="shared" si="25"/>
-        <v>1.1933866035970906</v>
+        <v>14.158566792666401</v>
       </c>
       <c r="I77">
         <f t="shared" si="25"/>
-        <v>1.1959256640849178</v>
+        <v>13.358362898814201</v>
       </c>
       <c r="J77">
         <f t="shared" si="25"/>
-        <v>1.2029150469154855</v>
+        <v>12.6244585501753</v>
       </c>
       <c r="L77">
         <f t="shared" si="26"/>
-        <v>1.2</v>
+        <v>26.98</v>
       </c>
       <c r="M77">
         <f t="shared" si="24"/>
-        <v>1.19</v>
+        <v>23.59</v>
       </c>
       <c r="N77">
         <f t="shared" si="24"/>
-        <v>1.19</v>
+        <v>21.03</v>
       </c>
       <c r="O77">
         <f t="shared" si="24"/>
-        <v>1.19</v>
+        <v>19.040000000000003</v>
       </c>
       <c r="P77">
         <f t="shared" si="24"/>
-        <v>1.19</v>
+        <v>17.450000000000003</v>
       </c>
       <c r="Q77">
         <f t="shared" si="24"/>
-        <v>1.2</v>
+        <v>16.16</v>
       </c>
       <c r="R77">
         <f t="shared" si="24"/>
-        <v>1.2</v>
+        <v>15.07</v>
       </c>
       <c r="S77">
         <f t="shared" si="24"/>
-        <v>1.2</v>
+        <v>14.16</v>
       </c>
       <c r="T77">
         <f t="shared" si="24"/>
-        <v>1.2</v>
+        <v>13.36</v>
       </c>
       <c r="U77">
         <f t="shared" si="24"/>
-        <v>1.21</v>
+        <v>12.629999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="25"/>
-        <v>0.94712314726967362</v>
+        <v>23.704807765195799</v>
       </c>
       <c r="B78">
         <f t="shared" si="25"/>
-        <v>0.94517536488841669</v>
+        <v>21.3125538175046</v>
       </c>
       <c r="C78">
         <f t="shared" si="25"/>
-        <v>0.94548475429091072</v>
+        <v>19.403625895419498</v>
       </c>
       <c r="D78">
         <f t="shared" si="25"/>
-        <v>0.94709405671448388</v>
+        <v>17.847646235528099</v>
       </c>
       <c r="E78">
         <f t="shared" si="25"/>
-        <v>0.94900626012207923</v>
+        <v>16.5575007961098</v>
       </c>
       <c r="F78">
         <f t="shared" si="25"/>
-        <v>0.95023073778083267</v>
+        <v>15.4616309203347</v>
       </c>
       <c r="G78">
         <f t="shared" si="25"/>
-        <v>0.9505247281773147</v>
+        <v>14.536972236545701</v>
       </c>
       <c r="H78">
         <f t="shared" si="25"/>
-        <v>0.95108480674968376</v>
+        <v>13.731331307537801</v>
       </c>
       <c r="I78">
         <f t="shared" si="25"/>
-        <v>0.95327110192439124</v>
+        <v>13.011531324716801</v>
       </c>
       <c r="J78">
         <f t="shared" si="25"/>
-        <v>0.95844374212788974</v>
+        <v>12.341217638947899</v>
       </c>
       <c r="L78">
         <f t="shared" si="26"/>
-        <v>0.95</v>
+        <v>23.71</v>
       </c>
       <c r="M78">
         <f t="shared" si="24"/>
-        <v>0.95</v>
+        <v>21.32</v>
       </c>
       <c r="N78">
         <f t="shared" si="24"/>
-        <v>0.95</v>
+        <v>19.41</v>
       </c>
       <c r="O78">
         <f t="shared" si="24"/>
-        <v>0.95</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="P78">
         <f t="shared" si="24"/>
-        <v>0.95</v>
+        <v>16.560000000000002</v>
       </c>
       <c r="Q78">
         <f t="shared" si="24"/>
-        <v>0.96</v>
+        <v>15.47</v>
       </c>
       <c r="R78">
         <f t="shared" si="24"/>
-        <v>0.96</v>
+        <v>14.54</v>
       </c>
       <c r="S78">
         <f t="shared" si="24"/>
-        <v>0.96</v>
+        <v>13.74</v>
       </c>
       <c r="T78">
         <f t="shared" si="24"/>
-        <v>0.96</v>
+        <v>13.02</v>
       </c>
       <c r="U78">
         <f t="shared" si="24"/>
-        <v>0.96</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="25"/>
-        <v>0.74349516776469637</v>
+        <v>21.545089698077497</v>
       </c>
       <c r="B79">
         <f t="shared" si="25"/>
-        <v>0.74357766972725037</v>
+        <v>19.734480511428799</v>
       </c>
       <c r="C79">
         <f t="shared" si="25"/>
-        <v>0.74458032900397808</v>
+        <v>18.2441951441733</v>
       </c>
       <c r="D79">
         <f t="shared" si="25"/>
-        <v>0.74594075221978773</v>
+        <v>16.9739298554661</v>
       </c>
       <c r="E79">
         <f t="shared" si="25"/>
-        <v>0.74709654599958863</v>
+        <v>15.901981472020301</v>
       </c>
       <c r="F79">
         <f t="shared" si="25"/>
-        <v>0.74757949813175262</v>
+        <v>14.965708173159301</v>
       </c>
       <c r="G79">
         <f t="shared" si="25"/>
-        <v>0.74773608720275364</v>
+        <v>14.157983523207701</v>
       </c>
       <c r="H79">
         <f t="shared" si="25"/>
-        <v>0.74833014653539409</v>
+        <v>13.430654405586999</v>
       </c>
       <c r="I79">
         <f t="shared" si="25"/>
-        <v>0.75012889576983821</v>
+        <v>12.782436320105701</v>
       </c>
       <c r="J79">
         <f t="shared" si="25"/>
-        <v>0.75389955454624835</v>
+        <v>12.175429818002099</v>
       </c>
       <c r="L79">
         <f t="shared" si="26"/>
-        <v>0.75</v>
+        <v>21.55</v>
       </c>
       <c r="M79">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>19.740000000000002</v>
       </c>
       <c r="N79">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>18.25</v>
       </c>
       <c r="O79">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>16.98</v>
       </c>
       <c r="P79">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>15.91</v>
       </c>
       <c r="Q79">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>14.97</v>
       </c>
       <c r="R79">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>14.16</v>
       </c>
       <c r="S79">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>13.44</v>
       </c>
       <c r="T79">
         <f t="shared" si="24"/>
-        <v>0.76</v>
+        <v>12.79</v>
       </c>
       <c r="U79">
         <f t="shared" si="24"/>
-        <v>0.76</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="25"/>
-        <v>0.56141278262881722</v>
+        <v>18.118300480783702</v>
       </c>
       <c r="B80">
         <f t="shared" si="25"/>
-        <v>0.56220999643564507</v>
+        <v>17.089805942107201</v>
       </c>
       <c r="C80">
         <f t="shared" si="25"/>
-        <v>0.56297807054622362</v>
+        <v>16.195518116529101</v>
       </c>
       <c r="D80">
         <f t="shared" si="25"/>
-        <v>0.56351470808922866</v>
+        <v>15.388350321351</v>
       </c>
       <c r="E80">
         <f t="shared" si="25"/>
-        <v>0.56371817919794565</v>
+        <v>14.6665495556064</v>
       </c>
       <c r="F80">
         <f t="shared" si="25"/>
-        <v>0.56380265106616967</v>
+        <v>14.0160063749017</v>
       </c>
       <c r="G80">
         <f t="shared" si="25"/>
-        <v>0.56404415599677427</v>
+        <v>13.4246608623012</v>
       </c>
       <c r="H80">
         <f t="shared" si="25"/>
-        <v>0.56471872629263142</v>
+        <v>12.882194442743</v>
       </c>
       <c r="I80">
         <f t="shared" si="25"/>
-        <v>0.56610239425661468</v>
+        <v>12.379622402586399</v>
       </c>
       <c r="J80">
         <f t="shared" si="25"/>
-        <v>0.5684711921915967</v>
+        <v>11.908969648673899</v>
       </c>
       <c r="L80">
         <f t="shared" si="26"/>
-        <v>0.57000000000000006</v>
+        <v>18.12</v>
       </c>
       <c r="M80">
         <f t="shared" si="24"/>
-        <v>0.57000000000000006</v>
+        <v>17.09</v>
       </c>
       <c r="N80">
         <f t="shared" si="24"/>
-        <v>0.57000000000000006</v>
+        <v>16.200000000000003</v>
       </c>
       <c r="O80">
         <f t="shared" si="24"/>
-        <v>0.57000000000000006</v>
+        <v>15.39</v>
       </c>
       <c r="P80">
         <f t="shared" si="24"/>
-        <v>0.57000000000000006</v>
+        <v>14.67</v>
       </c>
       <c r="Q80">
         <f t="shared" si="24"/>
-        <v>0.57000000000000006</v>
+        <v>14.02</v>
       </c>
       <c r="R80">
         <f t="shared" si="24"/>
-        <v>0.57000000000000006</v>
+        <v>13.43</v>
       </c>
       <c r="S80">
         <f t="shared" si="24"/>
-        <v>0.57000000000000006</v>
+        <v>12.89</v>
       </c>
       <c r="T80">
         <f t="shared" si="24"/>
-        <v>0.57000000000000006</v>
+        <v>12.379999999999999</v>
       </c>
       <c r="U80">
         <f t="shared" si="24"/>
-        <v>0.57000000000000006</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="25"/>
-        <v>0.41163965220751991</v>
+        <v>14.9790277604474</v>
       </c>
       <c r="B81">
         <f t="shared" si="25"/>
-        <v>0.41174592276936267</v>
+        <v>14.492085866436399</v>
       </c>
       <c r="C81">
         <f t="shared" si="25"/>
-        <v>0.41179181417003802</v>
+        <v>14.0497511967293</v>
       </c>
       <c r="D81">
         <f t="shared" si="25"/>
-        <v>0.41183467863829132</v>
+        <v>13.6357511803335</v>
       </c>
       <c r="E81">
         <f t="shared" si="25"/>
-        <v>0.41193186840286766</v>
+        <v>13.2359101486933</v>
       </c>
       <c r="F81">
         <f t="shared" si="25"/>
-        <v>0.41214073569251219</v>
+        <v>12.869930519959299</v>
       </c>
       <c r="G81">
         <f t="shared" si="25"/>
-        <v>0.4125186327359695</v>
+        <v>12.5134582452961</v>
       </c>
       <c r="H81">
         <f t="shared" si="25"/>
-        <v>0.41312291176198479</v>
+        <v>12.185265064685</v>
       </c>
       <c r="I81">
         <f t="shared" si="25"/>
-        <v>0.41401092499930303</v>
+        <v>11.8627545744791</v>
       </c>
       <c r="J81">
         <f t="shared" si="25"/>
-        <v>0.41524002467666954</v>
+        <v>11.5638039873725</v>
       </c>
       <c r="L81">
         <f t="shared" si="26"/>
-        <v>0.42</v>
+        <v>14.98</v>
       </c>
       <c r="M81">
         <f t="shared" si="24"/>
-        <v>0.42</v>
+        <v>14.5</v>
       </c>
       <c r="N81">
         <f t="shared" si="24"/>
-        <v>0.42</v>
+        <v>14.049999999999999</v>
       </c>
       <c r="O81">
         <f t="shared" si="24"/>
-        <v>0.42</v>
+        <v>13.64</v>
       </c>
       <c r="P81">
         <f t="shared" si="24"/>
-        <v>0.42</v>
+        <v>13.24</v>
       </c>
       <c r="Q81">
         <f t="shared" si="24"/>
-        <v>0.42</v>
+        <v>12.87</v>
       </c>
       <c r="R81">
         <f t="shared" si="24"/>
-        <v>0.42</v>
+        <v>12.52</v>
       </c>
       <c r="S81">
         <f t="shared" si="24"/>
-        <v>0.42</v>
+        <v>12.19</v>
       </c>
       <c r="T81">
         <f t="shared" si="24"/>
-        <v>0.42</v>
+        <v>11.87</v>
       </c>
       <c r="U81">
         <f t="shared" si="24"/>
-        <v>0.42</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="25"/>
-        <v>0.30127852509668002</v>
+        <v>12.3700835324476</v>
       </c>
       <c r="B82">
         <f t="shared" si="25"/>
-        <v>0.30140009436870946</v>
+        <v>12.244227344426101</v>
       </c>
       <c r="C82">
         <f t="shared" si="25"/>
-        <v>0.3015445249269213</v>
+        <v>12.120848784790601</v>
       </c>
       <c r="D82">
         <f t="shared" si="25"/>
-        <v>0.30171393684907999</v>
+        <v>11.9998446218578</v>
       </c>
       <c r="E82">
         <f t="shared" si="25"/>
-        <v>0.3019104502129491</v>
+        <v>11.8811150122058</v>
       </c>
       <c r="F82">
         <f t="shared" si="25"/>
-        <v>0.3021361850962927</v>
+        <v>11.7645632942967</v>
       </c>
       <c r="G82">
         <f t="shared" si="25"/>
-        <v>0.30239326157687463</v>
+        <v>11.6500957921496</v>
       </c>
       <c r="H82">
         <f t="shared" si="25"/>
-        <v>0.3026837997324589</v>
+        <v>11.527709044006899</v>
       </c>
       <c r="I82">
         <f t="shared" si="25"/>
-        <v>0.30300991964080942</v>
+        <v>11.4172437944089</v>
       </c>
       <c r="J82">
         <f t="shared" si="25"/>
-        <v>0.3033737413796902</v>
+        <v>11.308595173445299</v>
       </c>
       <c r="L82">
         <f t="shared" si="26"/>
-        <v>0.31</v>
+        <v>12.379999999999999</v>
       </c>
       <c r="M82">
         <f t="shared" si="24"/>
-        <v>0.31</v>
+        <v>12.25</v>
       </c>
       <c r="N82">
         <f t="shared" si="24"/>
-        <v>0.31</v>
+        <v>12.129999999999999</v>
       </c>
       <c r="O82">
         <f t="shared" si="24"/>
-        <v>0.31</v>
+        <v>12</v>
       </c>
       <c r="P82">
         <f t="shared" si="24"/>
-        <v>0.31</v>
+        <v>11.89</v>
       </c>
       <c r="Q82">
         <f t="shared" si="24"/>
-        <v>0.31</v>
+        <v>11.77</v>
       </c>
       <c r="R82">
         <f t="shared" si="24"/>
-        <v>0.31</v>
+        <v>11.66</v>
       </c>
       <c r="S82">
         <f t="shared" si="24"/>
-        <v>0.31</v>
+        <v>11.53</v>
       </c>
       <c r="T82">
         <f t="shared" si="24"/>
-        <v>0.31</v>
+        <v>11.42</v>
       </c>
       <c r="U82">
         <f t="shared" si="24"/>
-        <v>0.31</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -14927,7 +14937,7 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" ref="A99:J107" si="29">A87*10000</f>
+        <f t="shared" ref="A99:J106" si="29">A87*10000</f>
         <v>3.5459226130984702</v>
       </c>
       <c r="B99">

--- a/Данные/Kur_UD/all.xlsx
+++ b/Данные/Kur_UD/all.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>K_wz</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>i_p*10^4</t>
+  </si>
+  <si>
+    <t>Ya_Alpha</t>
   </si>
 </sst>
 </file>
@@ -4084,34 +4087,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.7836000000000002E-2</c:v>
+                  <c:v>4.5560000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0482000000000002E-2</c:v>
+                  <c:v>3.359E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5818000000000001E-2</c:v>
+                  <c:v>2.6510000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2597000000000003E-2</c:v>
+                  <c:v>2.1980000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0243000000000001E-2</c:v>
+                  <c:v>1.8939999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8467000000000001E-2</c:v>
+                  <c:v>1.6719999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7098000000000002E-2</c:v>
+                  <c:v>1.506E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5998999999999999E-2</c:v>
+                  <c:v>1.397E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5068999999999999E-2</c:v>
+                  <c:v>1.3369999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4192E-2</c:v>
+                  <c:v>1.341E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4200,34 +4203,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3923000000000002E-2</c:v>
+                  <c:v>4.4289999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.811E-2</c:v>
+                  <c:v>3.333E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4175000000000002E-2</c:v>
+                  <c:v>2.712E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1351999999999999E-2</c:v>
+                  <c:v>2.2910000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.925E-2</c:v>
+                  <c:v>1.9750000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7617000000000001E-2</c:v>
+                  <c:v>1.758E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6326E-2</c:v>
+                  <c:v>1.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5276E-2</c:v>
+                  <c:v>1.493E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4372999999999999E-2</c:v>
+                  <c:v>1.439E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.354E-2</c:v>
+                  <c:v>1.4419999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4316,34 +4319,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0293E-2</c:v>
+                  <c:v>4.2100000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5794000000000001E-2</c:v>
+                  <c:v>3.3210000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2567E-2</c:v>
+                  <c:v>2.7830000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0171000000000001E-2</c:v>
+                  <c:v>2.372E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8319000000000002E-2</c:v>
+                  <c:v>2.0740000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6841999999999999E-2</c:v>
+                  <c:v>1.8699999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5657000000000001E-2</c:v>
+                  <c:v>1.709E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4671999999999999E-2</c:v>
+                  <c:v>1.601E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3809999999999999E-2</c:v>
+                  <c:v>1.5539999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3023999999999999E-2</c:v>
+                  <c:v>1.5539999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4430,34 +4433,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6977000000000001E-2</c:v>
+                  <c:v>4.0920000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3584000000000001E-2</c:v>
+                  <c:v>3.3519999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1027000000000001E-2</c:v>
+                  <c:v>2.8389999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9036000000000001E-2</c:v>
+                  <c:v>2.4650000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7446E-2</c:v>
+                  <c:v>2.186E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6151000000000002E-2</c:v>
+                  <c:v>1.9790000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5068999999999999E-2</c:v>
+                  <c:v>1.843E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4159E-2</c:v>
+                  <c:v>1.738E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3358999999999999E-2</c:v>
+                  <c:v>1.6849999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2624999999999999E-2</c:v>
+                  <c:v>1.6829999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4544,34 +4547,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3705E-2</c:v>
+                  <c:v>3.9000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1313000000000002E-2</c:v>
+                  <c:v>3.3170000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9404000000000001E-2</c:v>
+                  <c:v>2.8830000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7847999999999999E-2</c:v>
+                  <c:v>2.555E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6558E-2</c:v>
+                  <c:v>2.3029999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5462E-2</c:v>
+                  <c:v>2.1380000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4537E-2</c:v>
+                  <c:v>1.9910000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3731999999999999E-2</c:v>
+                  <c:v>1.892E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3011999999999999E-2</c:v>
+                  <c:v>1.8389999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2341999999999999E-2</c:v>
+                  <c:v>1.846E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4660,34 +4663,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1546000000000003E-2</c:v>
+                  <c:v>3.8930000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9735000000000003E-2</c:v>
+                  <c:v>3.4499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8245000000000001E-2</c:v>
+                  <c:v>3.0340000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6974E-2</c:v>
+                  <c:v>2.764E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5901999999999999E-2</c:v>
+                  <c:v>2.5050000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4965999999999998E-2</c:v>
+                  <c:v>2.3410000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4157999999999999E-2</c:v>
+                  <c:v>2.1850000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3430999999999998E-2</c:v>
+                  <c:v>2.104E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2782999999999999E-2</c:v>
+                  <c:v>2.036E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2175999999999999E-2</c:v>
+                  <c:v>2.032E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4778,34 +4781,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8119E-2</c:v>
+                  <c:v>3.6470000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7090000000000001E-2</c:v>
+                  <c:v>3.3450000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6196000000000002E-2</c:v>
+                  <c:v>3.0230000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5389E-2</c:v>
+                  <c:v>2.823E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4666999999999999E-2</c:v>
+                  <c:v>2.6580000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4017E-2</c:v>
+                  <c:v>2.5240000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3424999999999999E-2</c:v>
+                  <c:v>2.4200000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2882999999999999E-2</c:v>
+                  <c:v>2.3440000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2379999999999999E-2</c:v>
+                  <c:v>2.2950000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1908999999999999E-2</c:v>
+                  <c:v>2.274E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4900,34 +4903,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4979999999999999E-2</c:v>
+                  <c:v>3.3250000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4492999999999999E-2</c:v>
+                  <c:v>3.2210000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.405E-2</c:v>
+                  <c:v>3.0530000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3635999999999999E-2</c:v>
+                  <c:v>2.9060000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3236E-2</c:v>
+                  <c:v>2.846E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2869999999999999E-2</c:v>
+                  <c:v>2.7340000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2513999999999999E-2</c:v>
+                  <c:v>2.6980000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2185999999999999E-2</c:v>
+                  <c:v>2.617E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1862999999999999E-2</c:v>
+                  <c:v>2.604E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1564E-2</c:v>
+                  <c:v>2.5540000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5022,34 +5025,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2371E-2</c:v>
+                  <c:v>3.1960000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2244999999999999E-2</c:v>
+                  <c:v>3.1510000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2121E-2</c:v>
+                  <c:v>3.1090000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1999999999999999E-2</c:v>
+                  <c:v>3.0700000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1881999999999998E-2</c:v>
+                  <c:v>3.0330000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1764999999999999E-2</c:v>
+                  <c:v>2.9989999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1651E-2</c:v>
+                  <c:v>2.967E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1528E-2</c:v>
+                  <c:v>3.009E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1417999999999999E-2</c:v>
+                  <c:v>2.9810000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1309E-2</c:v>
+                  <c:v>2.9550000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5380,34 +5383,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.8095292124458202E-4</c:v>
+                  <c:v>1.21920715089662E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0822865011616201E-4</c:v>
+                  <c:v>1.1459846850630599E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3237638253839503E-4</c:v>
+                  <c:v>1.0971991365988499E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5861398095996499E-4</c:v>
+                  <c:v>1.07098852524646E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.915626792711069E-4</c:v>
+                  <c:v>1.06517135310766E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1296151497636299E-3</c:v>
+                  <c:v>1.06864462076452E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2678226690955099E-3</c:v>
+                  <c:v>1.0775097966762999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.40251620292681E-3</c:v>
+                  <c:v>1.1052640402267101E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.54130621656381E-3</c:v>
+                  <c:v>1.1604124314709399E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6973457212519499E-3</c:v>
+                  <c:v>1.2731964461197901E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5496,34 +5499,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.5459226130984701E-4</c:v>
+                  <c:v>1.0676853534607399E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3327646123099401E-4</c:v>
+                  <c:v>9.8934047338947997E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1111877678882995E-4</c:v>
+                  <c:v>9.5559829624953098E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9148458548119096E-4</c:v>
+                  <c:v>9.3659486785320403E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7592041097408299E-4</c:v>
+                  <c:v>9.2129870814236503E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6284511297607604E-4</c:v>
+                  <c:v>9.2305875334539901E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4912833547554903E-4</c:v>
+                  <c:v>9.33546647733877E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3351389633003501E-4</c:v>
+                  <c:v>9.5741529382984097E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0209865869646E-3</c:v>
+                  <c:v>1.0075135629697401E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.11917213811201E-3</c:v>
+                  <c:v>1.09913106589787E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5612,34 +5615,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5796138854143098E-4</c:v>
+                  <c:v>9.1081921715724205E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0523933119851101E-4</c:v>
+                  <c:v>8.5578776126464203E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.52921550074297E-4</c:v>
+                  <c:v>8.3288308248026695E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0274638765416202E-4</c:v>
+                  <c:v>8.10477060922052E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5468482734391301E-4</c:v>
+                  <c:v>7.986396284361E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0758598968784596E-4</c:v>
+                  <c:v>8.0213303795440504E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5963366562668195E-4</c:v>
+                  <c:v>8.0701449381427603E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1088619826746499E-4</c:v>
+                  <c:v>8.2491753900715704E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6435448928844204E-4</c:v>
+                  <c:v>8.6923086960136403E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.24221725675956E-4</c:v>
+                  <c:v>9.4139363754663702E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5726,34 +5729,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.83877770248873E-4</c:v>
+                  <c:v>7.8724729660516201E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.11507409949185E-4</c:v>
+                  <c:v>7.4560545343667405E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.40000166258921E-4</c:v>
+                  <c:v>7.1784963161552605E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6977253528014599E-4</c:v>
+                  <c:v>6.9999082831031004E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0045452308364201E-4</c:v>
+                  <c:v>6.90092876266026E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3131239989535902E-4</c:v>
+                  <c:v>6.8728262047621197E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6146721220099302E-4</c:v>
+                  <c:v>6.9783470339486605E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9147508282831399E-4</c:v>
+                  <c:v>7.1261906732067502E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2297803962022498E-4</c:v>
+                  <c:v>7.4470732100353695E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5812165955629399E-4</c:v>
+                  <c:v>8.0102451957722099E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5840,34 +5843,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.3021662738757001E-4</c:v>
+                  <c:v>6.7014109079777996E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.45865021020605E-4</c:v>
+                  <c:v>6.3974959726642697E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6215455718334999E-4</c:v>
+                  <c:v>6.1804117875386799E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7895623237215301E-4</c:v>
+                  <c:v>6.0323515733173795E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9599447743766699E-4</c:v>
+                  <c:v>5.9436445977106205E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.12857587730497E-4</c:v>
+                  <c:v>5.9853594945722299E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.29356453388E-4</c:v>
+                  <c:v>6.0047551351123803E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4601324851132302E-4</c:v>
+                  <c:v>6.1161290965308104E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6360743916938002E-4</c:v>
+                  <c:v>6.35451788157369E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8311696018319199E-4</c:v>
+                  <c:v>6.8132741710674695E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5956,34 +5959,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.7195984401527803E-5</c:v>
+                  <c:v>5.7068609772918503E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5930428583858003E-5</c:v>
+                  <c:v>5.5620915904472205E-4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1.0492792398291499E-4</c:v>
+                  <c:v>5.3440184455549801E-4</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1.14082274692002E-4</c:v>
+                  <c:v>5.2839569764957502E-4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.2323384963517899E-4</c:v>
+                  <c:v>5.16373959492347E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.3220237826964699E-4</c:v>
+                  <c:v>5.1744998337730202E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>1.4107060828359301E-4</c:v>
+                  <c:v>5.1526396055780904E-4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>1.5012170249548699E-4</c:v>
+                  <c:v>5.2746142519011295E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>1.59713595436138E-4</c:v>
+                  <c:v>5.4162673210765501E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>1.7028201568817199E-4</c:v>
+                  <c:v>5.7347427353446096E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6074,34 +6077,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.8616717701319899E-5</c:v>
+                  <c:v>4.7588787178608498E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2619256827219598E-5</c:v>
+                  <c:v>4.6566721041799597E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6636906850712406E-5</c:v>
+                  <c:v>4.47258809802488E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0617778172974699E-5</c:v>
+                  <c:v>4.4215914989769302E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4525340077120106E-5</c:v>
+                  <c:v>4.3914228900456302E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8405388589566401E-5</c:v>
+                  <c:v>4.3868819320695799E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2333590439293201E-5</c:v>
+                  <c:v>4.4144980347072703E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6400900671462595E-5</c:v>
+                  <c:v>4.4816639967924598E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0714063784539403E-5</c:v>
+                  <c:v>4.5965834618138401E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5396683323032306E-5</c:v>
+                  <c:v>4.7684619215761697E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6196,34 +6199,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.7849082899907902E-5</c:v>
+                  <c:v>3.82064131327989E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9221740959456202E-5</c:v>
+                  <c:v>3.8351168206908899E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0583899046714701E-5</c:v>
+                  <c:v>3.7600839458514499E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.19460448590779E-5</c:v>
+                  <c:v>3.6993176766807602E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.33201804793325E-5</c:v>
+                  <c:v>3.7402591222884102E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4719831198673797E-5</c:v>
+                  <c:v>3.7074111351708598E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6160073593352602E-5</c:v>
+                  <c:v>3.7724080220491701E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7657586530346299E-5</c:v>
+                  <c:v>3.7735628860417297E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9230728777452199E-5</c:v>
+                  <c:v>3.8701078314717398E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0899646893195601E-5</c:v>
+                  <c:v>3.9125432049628799E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6318,34 +6321,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.4383390765228E-5</c:v>
+                  <c:v>3.2330537053270702E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4671238313822701E-5</c:v>
+                  <c:v>3.2238848597756998E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4963311538547501E-5</c:v>
+                  <c:v>3.21681110225889E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.52600932880931E-5</c:v>
+                  <c:v>3.2118917988078398E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5562083550157E-5</c:v>
+                  <c:v>3.20918882417004E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5869799859048199E-5</c:v>
+                  <c:v>3.2087665952018E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6183777748589201E-5</c:v>
+                  <c:v>3.2106921385057901E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6504571252174201E-5</c:v>
+                  <c:v>3.2931007551383198E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.68327534518405E-5</c:v>
+                  <c:v>3.2988630834511701E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7168917078211499E-5</c:v>
+                  <c:v>3.3072168746189998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6354,6 +6357,1302 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-B3F8-4A49-8D61-93F97BC2A330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1790762928"/>
+        <c:axId val="1790756272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1790762928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790756272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1790756272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790762928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2714510350194309E-2"/>
+          <c:y val="0.10680789538484335"/>
+          <c:w val="0.88522715386593964"/>
+          <c:h val="0.80256308005430366"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Н=0 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$40:$U$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5560.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9192.3000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13731.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19178.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25533.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32796.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40967.799999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50046.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60033.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70927.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$86:$J$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.21920715089662E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1459846850630599E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0971991365988499E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07098852524646E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.06517135310766E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.06864462076452E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0775097966762999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1052640402267101E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1604124314709399E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2731964461197901E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-056D-440B-AF42-419EF3A89E1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Н=2 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$41:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5533.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8525.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16442.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21366.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26935.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33148.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40004.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47505.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$87:$J$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0676853534607399E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8934047338947997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5559829624953098E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3659486785320403E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2129870814236503E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2305875334539901E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.33546647733877E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5741529382984097E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0075135629697401E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.09913106589787E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-056D-440B-AF42-419EF3A89E1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Н=4 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$42:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5521.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7945.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10808.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14111.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17853.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31719.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37221.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43162.299999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$88:$J$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.1081921715724205E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5578776126464203E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3288308248026695E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.10477060922052E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.986396284361E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0213303795440504E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0701449381427603E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2491753900715704E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6923086960136403E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4139363754663702E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-056D-440B-AF42-419EF3A89E1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Н=6 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$43:$U$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5475.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7391.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9594.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12084.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14861.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17926</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21277.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24915.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28840.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33052.400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$89:$J$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.8724729660516201E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4560545343667405E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1784963161552605E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9999082831031004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.90092876266026E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8728262047621197E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9783470339486605E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1261906732067502E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4470732100353695E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0102451957722099E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-056D-440B-AF42-419EF3A89E1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Н=8 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$44:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5536.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7004.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8644.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10457.700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14600.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19433.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22108.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24956.199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$90:$J$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.7014109079777996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3974959726642697E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1804117875386799E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0323515733173795E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9436445977106205E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9853594945722299E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0047551351123803E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1161290965308104E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.35451788157369E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8132741710674695E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-056D-440B-AF42-419EF3A89E1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Н=10 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$45:$U$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5142.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6221.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7402.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8687.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10074.300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13156.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14851.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16649.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$91:$J$91</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.7068609772918503E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5620915904472205E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>5.3440184455549801E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>5.2839569764957502E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>5.16373959492347E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>5.1744998337730202E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>5.1526396055780904E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>5.2746142519011295E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>5.4162673210765501E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>5.7347427353446096E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-056D-440B-AF42-419EF3A89E1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Н=12 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$46:$U$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5389.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6116.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6888.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7706.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8570.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9480.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10436.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11438.300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13579.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$92:$J$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.7588787178608498E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6566721041799597E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.47258809802488E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4215914989769302E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3914228900456302E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3868819320695799E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4144980347072703E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4816639967924598E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5965834618138401E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7684619215761697E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-056D-440B-AF42-419EF3A89E1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Н=14 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$47:$U$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5679.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6092.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6962.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7418.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7889.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8375.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8875.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9390.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9919.3000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$93:$J$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.82064131327989E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8351168206908899E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7600839458514499E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6993176766807602E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7402591222884102E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7074111351708598E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7724080220491701E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7735628860417297E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8701078314717398E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9125432049628799E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-056D-440B-AF42-419EF3A89E1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Н=16 км</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$L$48:$U$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6001.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6133.9000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6267.9000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6403.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6540.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6678.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6818.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7102.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$94:$J$94</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.2330537053270702E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2238848597756998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.21681110225889E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2118917988078398E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.20918882417004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2087665952018E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2106921385057901E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2931007551383198E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2988630834511701E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3072168746189998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-056D-440B-AF42-419EF3A89E1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6730,6 +8029,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9369,6 +10708,526 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9468,13 +11327,13 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>89646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>304001</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>141355</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9522,6 +11381,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9793,10 +11684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U106"/>
+  <dimension ref="A2:AF117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ54" sqref="AJ54"/>
+    <sheetView tabSelected="1" topLeftCell="H96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q110" sqref="Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12428,650 +14319,650 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3.7835373375550797E-2</v>
+        <v>4.5555667384735302E-3</v>
       </c>
       <c r="B53">
-        <v>3.04819277034616E-2</v>
+        <v>3.3580668535527899E-3</v>
       </c>
       <c r="C53">
-        <v>2.5817261817935699E-2</v>
+        <v>2.6502519626303198E-3</v>
       </c>
       <c r="D53">
-        <v>2.2596785361310798E-2</v>
+        <v>2.1977555187266398E-3</v>
       </c>
       <c r="E53">
-        <v>2.0242556671170499E-2</v>
+        <v>1.89355959451514E-3</v>
       </c>
       <c r="F53">
-        <v>1.8466024770846499E-2</v>
+        <v>1.67189425249016E-3</v>
       </c>
       <c r="G53">
-        <v>1.7097543541279799E-2</v>
+        <v>1.50515209063242E-3</v>
       </c>
       <c r="H53">
-        <v>1.59981219963534E-2</v>
+        <v>1.3962643999312701E-3</v>
       </c>
       <c r="I53">
-        <v>1.5068379530166501E-2</v>
+        <v>1.33619304021023E-3</v>
       </c>
       <c r="J53">
-        <v>1.4191265513024499E-2</v>
+        <v>1.34000208471826E-3</v>
       </c>
       <c r="L53">
         <f>ROUNDUP(A53,6)</f>
-        <v>3.7836000000000002E-2</v>
+        <v>4.5560000000000002E-3</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53:U61" si="17">ROUNDUP(B53,6)</f>
-        <v>3.0482000000000002E-2</v>
+        <v>3.359E-3</v>
       </c>
       <c r="N53">
         <f t="shared" si="17"/>
-        <v>2.5818000000000001E-2</v>
+        <v>2.6510000000000001E-3</v>
       </c>
       <c r="O53">
         <f t="shared" si="17"/>
-        <v>2.2597000000000003E-2</v>
+        <v>2.1980000000000003E-3</v>
       </c>
       <c r="P53">
         <f t="shared" si="17"/>
-        <v>2.0243000000000001E-2</v>
+        <v>1.8939999999999999E-3</v>
       </c>
       <c r="Q53">
         <f t="shared" si="17"/>
-        <v>1.8467000000000001E-2</v>
+        <v>1.6719999999999999E-3</v>
       </c>
       <c r="R53">
         <f t="shared" si="17"/>
-        <v>1.7098000000000002E-2</v>
+        <v>1.506E-3</v>
       </c>
       <c r="S53">
         <f t="shared" si="17"/>
-        <v>1.5998999999999999E-2</v>
+        <v>1.397E-3</v>
       </c>
       <c r="T53">
         <f t="shared" si="17"/>
-        <v>1.5068999999999999E-2</v>
+        <v>1.3369999999999999E-3</v>
       </c>
       <c r="U53">
         <f t="shared" si="17"/>
-        <v>1.4192E-2</v>
+        <v>1.341E-3</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3.3922627027312899E-2</v>
+        <v>4.4285066808920498E-3</v>
       </c>
       <c r="B54">
-        <v>2.8109605525882399E-2</v>
+        <v>3.3320560229346701E-3</v>
       </c>
       <c r="C54">
-        <v>2.4174175551141101E-2</v>
+        <v>2.7114139716715802E-3</v>
       </c>
       <c r="D54">
-        <v>2.1351324414149699E-2</v>
+        <v>2.2909819908104902E-3</v>
       </c>
       <c r="E54">
-        <v>1.9249656428712399E-2</v>
+        <v>1.9744683646187901E-3</v>
       </c>
       <c r="F54">
-        <v>1.7616216807724801E-2</v>
+        <v>1.7573674969741499E-3</v>
       </c>
       <c r="G54">
-        <v>1.6325196782404901E-2</v>
+        <v>1.5994357861304201E-3</v>
       </c>
       <c r="H54">
-        <v>1.52751039103706E-2</v>
+        <v>1.4926004459675801E-3</v>
       </c>
       <c r="I54">
-        <v>1.43728402772474E-2</v>
+        <v>1.4387518416635299E-3</v>
       </c>
       <c r="J54">
-        <v>1.3539763553577E-2</v>
+        <v>1.44100213613388E-3</v>
       </c>
       <c r="L54">
         <f t="shared" ref="L54:L61" si="18">ROUNDUP(A54,6)</f>
-        <v>3.3923000000000002E-2</v>
+        <v>4.4289999999999998E-3</v>
       </c>
       <c r="M54">
         <f t="shared" si="17"/>
-        <v>2.811E-2</v>
+        <v>3.333E-3</v>
       </c>
       <c r="N54">
         <f t="shared" si="17"/>
-        <v>2.4175000000000002E-2</v>
+        <v>2.712E-3</v>
       </c>
       <c r="O54">
         <f t="shared" si="17"/>
-        <v>2.1351999999999999E-2</v>
+        <v>2.2910000000000001E-3</v>
       </c>
       <c r="P54">
         <f t="shared" si="17"/>
-        <v>1.925E-2</v>
+        <v>1.9750000000000002E-3</v>
       </c>
       <c r="Q54">
         <f t="shared" si="17"/>
-        <v>1.7617000000000001E-2</v>
+        <v>1.758E-3</v>
       </c>
       <c r="R54">
         <f t="shared" si="17"/>
-        <v>1.6326E-2</v>
+        <v>1.5999999999999999E-3</v>
       </c>
       <c r="S54">
         <f t="shared" si="17"/>
-        <v>1.5276E-2</v>
+        <v>1.493E-3</v>
       </c>
       <c r="T54">
         <f t="shared" si="17"/>
-        <v>1.4372999999999999E-2</v>
+        <v>1.439E-3</v>
       </c>
       <c r="U54">
         <f t="shared" si="17"/>
-        <v>1.354E-2</v>
+        <v>1.4419999999999999E-3</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3.0292402803303298E-2</v>
+        <v>4.2098288613684198E-3</v>
       </c>
       <c r="B55">
-        <v>2.5793406339776601E-2</v>
+        <v>3.3200702640910399E-3</v>
       </c>
       <c r="C55">
-        <v>2.2566871932519501E-2</v>
+        <v>2.7824792193489501E-3</v>
       </c>
       <c r="D55">
-        <v>2.0170333008047301E-2</v>
+        <v>2.37115588835742E-3</v>
       </c>
       <c r="E55">
-        <v>1.8318705127943299E-2</v>
+        <v>2.0734279849161001E-3</v>
       </c>
       <c r="F55">
-        <v>1.6841088139829E-2</v>
+        <v>1.8699659098808301E-3</v>
       </c>
       <c r="G55">
-        <v>1.5656312393299902E-2</v>
+        <v>1.7084319583827001E-3</v>
       </c>
       <c r="H55">
-        <v>1.4671997673783599E-2</v>
+        <v>1.6003800584502099E-3</v>
       </c>
       <c r="I55">
-        <v>1.38093097069049E-2</v>
+        <v>1.5536843054379001E-3</v>
       </c>
       <c r="J55">
-        <v>1.30239888509791E-2</v>
+        <v>1.55304602723879E-3</v>
       </c>
       <c r="L55">
         <f t="shared" si="18"/>
-        <v>3.0293E-2</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="M55">
         <f t="shared" si="17"/>
-        <v>2.5794000000000001E-2</v>
+        <v>3.3210000000000002E-3</v>
       </c>
       <c r="N55">
         <f t="shared" si="17"/>
-        <v>2.2567E-2</v>
+        <v>2.7830000000000003E-3</v>
       </c>
       <c r="O55">
         <f t="shared" si="17"/>
-        <v>2.0171000000000001E-2</v>
+        <v>2.372E-3</v>
       </c>
       <c r="P55">
         <f t="shared" si="17"/>
-        <v>1.8319000000000002E-2</v>
+        <v>2.0740000000000003E-3</v>
       </c>
       <c r="Q55">
         <f t="shared" si="17"/>
-        <v>1.6841999999999999E-2</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="R55">
         <f t="shared" si="17"/>
-        <v>1.5657000000000001E-2</v>
+        <v>1.709E-3</v>
       </c>
       <c r="S55">
         <f t="shared" si="17"/>
-        <v>1.4671999999999999E-2</v>
+        <v>1.601E-3</v>
       </c>
       <c r="T55">
         <f t="shared" si="17"/>
-        <v>1.3809999999999999E-2</v>
+        <v>1.5539999999999998E-3</v>
       </c>
       <c r="U55">
         <f t="shared" si="17"/>
-        <v>1.3023999999999999E-2</v>
+        <v>1.5539999999999998E-3</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2.6976133183515501E-2</v>
+        <v>4.0915125788361303E-3</v>
       </c>
       <c r="B56">
-        <v>2.3583139431994301E-2</v>
+        <v>3.35197876832336E-3</v>
       </c>
       <c r="C56">
-        <v>2.10262023975137E-2</v>
+        <v>2.8382941687892902E-3</v>
       </c>
       <c r="D56">
-        <v>1.9035165906542199E-2</v>
+        <v>2.46416622537388E-3</v>
       </c>
       <c r="E56">
-        <v>1.7445298692900599E-2</v>
+        <v>2.1859253185602598E-3</v>
       </c>
       <c r="F56">
-        <v>1.61505482481051E-2</v>
+        <v>1.9782494484330698E-3</v>
       </c>
       <c r="G56">
-        <v>1.50684624518303E-2</v>
+        <v>1.8423630812137901E-3</v>
       </c>
       <c r="H56">
-        <v>1.41585667926664E-2</v>
+        <v>1.73789870305756E-3</v>
       </c>
       <c r="I56">
-        <v>1.3358362898814201E-2</v>
+        <v>1.6844649395409701E-3</v>
       </c>
       <c r="J56">
-        <v>1.2624458550175299E-2</v>
+        <v>1.6826350423700699E-3</v>
       </c>
       <c r="L56">
         <f t="shared" si="18"/>
-        <v>2.6977000000000001E-2</v>
+        <v>4.0920000000000002E-3</v>
       </c>
       <c r="M56">
         <f t="shared" si="17"/>
-        <v>2.3584000000000001E-2</v>
+        <v>3.3519999999999999E-3</v>
       </c>
       <c r="N56">
         <f t="shared" si="17"/>
-        <v>2.1027000000000001E-2</v>
+        <v>2.8389999999999999E-3</v>
       </c>
       <c r="O56">
         <f t="shared" si="17"/>
-        <v>1.9036000000000001E-2</v>
+        <v>2.4650000000000002E-3</v>
       </c>
       <c r="P56">
         <f t="shared" si="17"/>
-        <v>1.7446E-2</v>
+        <v>2.186E-3</v>
       </c>
       <c r="Q56">
         <f t="shared" si="17"/>
-        <v>1.6151000000000002E-2</v>
+        <v>1.9790000000000003E-3</v>
       </c>
       <c r="R56">
         <f t="shared" si="17"/>
-        <v>1.5068999999999999E-2</v>
+        <v>1.843E-3</v>
       </c>
       <c r="S56">
         <f t="shared" si="17"/>
-        <v>1.4159E-2</v>
+        <v>1.738E-3</v>
       </c>
       <c r="T56">
         <f t="shared" si="17"/>
-        <v>1.3358999999999999E-2</v>
+        <v>1.6849999999999999E-3</v>
       </c>
       <c r="U56">
         <f t="shared" si="17"/>
-        <v>1.2624999999999999E-2</v>
+        <v>1.6829999999999998E-3</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2.37048077651958E-2</v>
+        <v>3.8993861337968802E-3</v>
       </c>
       <c r="B57">
-        <v>2.13125538175046E-2</v>
+        <v>3.3163567512082201E-3</v>
       </c>
       <c r="C57">
-        <v>1.94036258954195E-2</v>
+        <v>2.8829211941298E-3</v>
       </c>
       <c r="D57">
-        <v>1.7847646235528099E-2</v>
+        <v>2.5540118932410702E-3</v>
       </c>
       <c r="E57">
-        <v>1.6557500796109799E-2</v>
+        <v>2.3023325983098802E-3</v>
       </c>
       <c r="F57">
-        <v>1.54616309203347E-2</v>
+        <v>2.1375691152196699E-3</v>
       </c>
       <c r="G57">
-        <v>1.45369722365457E-2</v>
+        <v>1.9908463557965599E-3</v>
       </c>
       <c r="H57">
-        <v>1.37313313075378E-2</v>
+        <v>1.8915916098111399E-3</v>
       </c>
       <c r="I57">
-        <v>1.30115313247168E-2</v>
+        <v>1.8383633731288501E-3</v>
       </c>
       <c r="J57">
-        <v>1.23412176389479E-2</v>
+        <v>1.8452133672065001E-3</v>
       </c>
       <c r="L57">
         <f t="shared" si="18"/>
-        <v>2.3705E-2</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="M57">
         <f t="shared" si="17"/>
-        <v>2.1313000000000002E-2</v>
+        <v>3.3170000000000001E-3</v>
       </c>
       <c r="N57">
         <f t="shared" si="17"/>
-        <v>1.9404000000000001E-2</v>
+        <v>2.8830000000000001E-3</v>
       </c>
       <c r="O57">
         <f t="shared" si="17"/>
-        <v>1.7847999999999999E-2</v>
+        <v>2.555E-3</v>
       </c>
       <c r="P57">
         <f t="shared" si="17"/>
-        <v>1.6558E-2</v>
+        <v>2.3029999999999999E-3</v>
       </c>
       <c r="Q57">
         <f t="shared" si="17"/>
-        <v>1.5462E-2</v>
+        <v>2.1380000000000001E-3</v>
       </c>
       <c r="R57">
         <f t="shared" si="17"/>
-        <v>1.4537E-2</v>
+        <v>1.9910000000000001E-3</v>
       </c>
       <c r="S57">
         <f t="shared" si="17"/>
-        <v>1.3731999999999999E-2</v>
+        <v>1.892E-3</v>
       </c>
       <c r="T57">
         <f t="shared" si="17"/>
-        <v>1.3011999999999999E-2</v>
+        <v>1.8389999999999999E-3</v>
       </c>
       <c r="U57">
         <f t="shared" si="17"/>
-        <v>1.2341999999999999E-2</v>
+        <v>1.846E-3</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2.1545089698077498E-2</v>
+        <v>3.8928614328684699E-3</v>
       </c>
       <c r="B58">
-        <v>1.9734480511428801E-2</v>
+        <v>3.4490387791973102E-3</v>
       </c>
       <c r="C58">
-        <v>1.82441951441733E-2</v>
+        <v>3.0337403896735899E-3</v>
       </c>
       <c r="D58">
-        <v>1.6973929855466099E-2</v>
+        <v>2.7639833461494201E-3</v>
       </c>
       <c r="E58">
-        <v>1.59019814720203E-2</v>
+        <v>2.5043846490095498E-3</v>
       </c>
       <c r="F58">
-        <v>1.4965708173159301E-2</v>
+        <v>2.3408655967896599E-3</v>
       </c>
       <c r="G58">
-        <v>1.41579835232077E-2</v>
+        <v>2.1848999585771202E-3</v>
       </c>
       <c r="H58">
-        <v>1.3430654405587E-2</v>
+        <v>2.10344156264096E-3</v>
       </c>
       <c r="I58">
-        <v>1.27824363201057E-2</v>
+        <v>2.0350921854378999E-3</v>
       </c>
       <c r="J58">
-        <v>1.21754298180021E-2</v>
+        <v>2.0311810269058E-3</v>
       </c>
       <c r="L58">
         <f t="shared" si="18"/>
-        <v>2.1546000000000003E-2</v>
+        <v>3.8930000000000002E-3</v>
       </c>
       <c r="M58">
         <f t="shared" si="17"/>
-        <v>1.9735000000000003E-2</v>
+        <v>3.4499999999999999E-3</v>
       </c>
       <c r="N58">
         <f t="shared" si="17"/>
-        <v>1.8245000000000001E-2</v>
+        <v>3.0340000000000002E-3</v>
       </c>
       <c r="O58">
         <f t="shared" si="17"/>
-        <v>1.6974E-2</v>
+        <v>2.764E-3</v>
       </c>
       <c r="P58">
         <f t="shared" si="17"/>
-        <v>1.5901999999999999E-2</v>
+        <v>2.5050000000000003E-3</v>
       </c>
       <c r="Q58">
         <f t="shared" si="17"/>
-        <v>1.4965999999999998E-2</v>
+        <v>2.3410000000000002E-3</v>
       </c>
       <c r="R58">
         <f t="shared" si="17"/>
-        <v>1.4157999999999999E-2</v>
+        <v>2.1850000000000003E-3</v>
       </c>
       <c r="S58">
         <f t="shared" si="17"/>
-        <v>1.3430999999999998E-2</v>
+        <v>2.104E-3</v>
       </c>
       <c r="T58">
         <f t="shared" si="17"/>
-        <v>1.2782999999999999E-2</v>
+        <v>2.036E-3</v>
       </c>
       <c r="U58">
         <f t="shared" si="17"/>
-        <v>1.2175999999999999E-2</v>
+        <v>2.032E-3</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1.8118300480783701E-2</v>
+        <v>3.6463254142626899E-3</v>
       </c>
       <c r="B59">
-        <v>1.7089805942107201E-2</v>
+        <v>3.34469329690923E-3</v>
       </c>
       <c r="C59">
-        <v>1.6195518116529101E-2</v>
+        <v>3.02291224100799E-3</v>
       </c>
       <c r="D59">
-        <v>1.5388350321351E-2</v>
+        <v>2.8226680672197701E-3</v>
       </c>
       <c r="E59">
-        <v>1.46665495556064E-2</v>
+        <v>2.6573779206943301E-3</v>
       </c>
       <c r="F59">
-        <v>1.4016006374901699E-2</v>
+        <v>2.5236384464975602E-3</v>
       </c>
       <c r="G59">
-        <v>1.3424660862301201E-2</v>
+        <v>2.41939826003027E-3</v>
       </c>
       <c r="H59">
-        <v>1.2882194442743E-2</v>
+        <v>2.3433825937197702E-3</v>
       </c>
       <c r="I59">
-        <v>1.23796224025864E-2</v>
+        <v>2.2948035129932301E-3</v>
       </c>
       <c r="J59">
-        <v>1.1908969648673899E-2</v>
+        <v>2.2732305896208701E-3</v>
       </c>
       <c r="L59">
         <f t="shared" si="18"/>
-        <v>1.8119E-2</v>
+        <v>3.6470000000000001E-3</v>
       </c>
       <c r="M59">
         <f t="shared" si="17"/>
-        <v>1.7090000000000001E-2</v>
+        <v>3.3450000000000003E-3</v>
       </c>
       <c r="N59">
         <f t="shared" si="17"/>
-        <v>1.6196000000000002E-2</v>
+        <v>3.0230000000000001E-3</v>
       </c>
       <c r="O59">
         <f t="shared" si="17"/>
-        <v>1.5389E-2</v>
+        <v>2.823E-3</v>
       </c>
       <c r="P59">
         <f t="shared" si="17"/>
-        <v>1.4666999999999999E-2</v>
+        <v>2.6580000000000002E-3</v>
       </c>
       <c r="Q59">
         <f t="shared" si="17"/>
-        <v>1.4017E-2</v>
+        <v>2.5240000000000002E-3</v>
       </c>
       <c r="R59">
         <f t="shared" si="17"/>
-        <v>1.3424999999999999E-2</v>
+        <v>2.4200000000000003E-3</v>
       </c>
       <c r="S59">
         <f t="shared" si="17"/>
-        <v>1.2882999999999999E-2</v>
+        <v>2.3440000000000002E-3</v>
       </c>
       <c r="T59">
         <f t="shared" si="17"/>
-        <v>1.2379999999999999E-2</v>
+        <v>2.2950000000000002E-3</v>
       </c>
       <c r="U59">
         <f t="shared" si="17"/>
-        <v>1.1908999999999999E-2</v>
+        <v>2.274E-3</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1.49790277604474E-2</v>
+        <v>3.3242072798800701E-3</v>
       </c>
       <c r="B60">
-        <v>1.44920858664364E-2</v>
+        <v>3.22085389508026E-3</v>
       </c>
       <c r="C60">
-        <v>1.40497511967293E-2</v>
+        <v>3.0521893181559498E-3</v>
       </c>
       <c r="D60">
-        <v>1.36357511803335E-2</v>
+        <v>2.90565141323843E-3</v>
       </c>
       <c r="E60">
-        <v>1.3235910148693301E-2</v>
+        <v>2.8452917998164E-3</v>
       </c>
       <c r="F60">
-        <v>1.2869930519959299E-2</v>
+        <v>2.73341846211483E-3</v>
       </c>
       <c r="G60">
-        <v>1.2513458245296099E-2</v>
+        <v>2.6970296678245202E-3</v>
       </c>
       <c r="H60">
-        <v>1.2185265064684999E-2</v>
+        <v>2.6169101722444302E-3</v>
       </c>
       <c r="I60">
-        <v>1.1862754574479099E-2</v>
+        <v>2.6036858895958702E-3</v>
       </c>
       <c r="J60">
-        <v>1.1563803987372501E-2</v>
+        <v>2.5534865346101502E-3</v>
       </c>
       <c r="L60">
         <f t="shared" si="18"/>
-        <v>1.4979999999999999E-2</v>
+        <v>3.3250000000000003E-3</v>
       </c>
       <c r="M60">
         <f t="shared" si="17"/>
-        <v>1.4492999999999999E-2</v>
+        <v>3.2210000000000003E-3</v>
       </c>
       <c r="N60">
         <f t="shared" si="17"/>
-        <v>1.405E-2</v>
+        <v>3.0530000000000002E-3</v>
       </c>
       <c r="O60">
         <f t="shared" si="17"/>
-        <v>1.3635999999999999E-2</v>
+        <v>2.9060000000000002E-3</v>
       </c>
       <c r="P60">
         <f t="shared" si="17"/>
-        <v>1.3236E-2</v>
+        <v>2.846E-3</v>
       </c>
       <c r="Q60">
         <f t="shared" si="17"/>
-        <v>1.2869999999999999E-2</v>
+        <v>2.7340000000000003E-3</v>
       </c>
       <c r="R60">
         <f t="shared" si="17"/>
-        <v>1.2513999999999999E-2</v>
+        <v>2.6980000000000003E-3</v>
       </c>
       <c r="S60">
         <f t="shared" si="17"/>
-        <v>1.2185999999999999E-2</v>
+        <v>2.617E-3</v>
       </c>
       <c r="T60">
         <f t="shared" si="17"/>
-        <v>1.1862999999999999E-2</v>
+        <v>2.604E-3</v>
       </c>
       <c r="U60">
         <f t="shared" si="17"/>
-        <v>1.1564E-2</v>
+        <v>2.5540000000000003E-3</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1.23700835324476E-2</v>
+        <v>3.1957808043279602E-3</v>
       </c>
       <c r="B61">
-        <v>1.22442273444261E-2</v>
+        <v>3.15080804168904E-3</v>
       </c>
       <c r="C61">
-        <v>1.2120848784790601E-2</v>
+        <v>3.1085996715217602E-3</v>
       </c>
       <c r="D61">
-        <v>1.19998446218578E-2</v>
+        <v>3.0691019492264E-3</v>
       </c>
       <c r="E61">
-        <v>1.18811150122058E-2</v>
+        <v>3.03226500554205E-3</v>
       </c>
       <c r="F61">
-        <v>1.17645632942967E-2</v>
+        <v>2.9980425151209301E-3</v>
       </c>
       <c r="G61">
-        <v>1.16500957921496E-2</v>
+        <v>2.966391410756E-3</v>
       </c>
       <c r="H61">
-        <v>1.1527709044006899E-2</v>
+        <v>3.00859271401445E-3</v>
       </c>
       <c r="I61">
-        <v>1.14172437944089E-2</v>
+        <v>2.9802032493359701E-3</v>
       </c>
       <c r="J61">
-        <v>1.1308595173445299E-2</v>
+        <v>2.9543253532525399E-3</v>
       </c>
       <c r="L61">
         <f t="shared" si="18"/>
-        <v>1.2371E-2</v>
+        <v>3.1960000000000001E-3</v>
       </c>
       <c r="M61">
         <f t="shared" si="17"/>
-        <v>1.2244999999999999E-2</v>
+        <v>3.1510000000000002E-3</v>
       </c>
       <c r="N61">
         <f t="shared" si="17"/>
-        <v>1.2121E-2</v>
+        <v>3.1090000000000002E-3</v>
       </c>
       <c r="O61">
         <f t="shared" si="17"/>
-        <v>1.1999999999999999E-2</v>
+        <v>3.0700000000000002E-3</v>
       </c>
       <c r="P61">
         <f t="shared" si="17"/>
-        <v>1.1881999999999998E-2</v>
+        <v>3.0330000000000001E-3</v>
       </c>
       <c r="Q61">
         <f t="shared" si="17"/>
-        <v>1.1764999999999999E-2</v>
+        <v>2.9989999999999999E-3</v>
       </c>
       <c r="R61">
         <f t="shared" si="17"/>
-        <v>1.1651E-2</v>
+        <v>2.967E-3</v>
       </c>
       <c r="S61">
         <f t="shared" si="17"/>
-        <v>1.1528E-2</v>
+        <v>3.009E-3</v>
       </c>
       <c r="T61">
         <f t="shared" si="17"/>
-        <v>1.1417999999999999E-2</v>
+        <v>2.9810000000000001E-3</v>
       </c>
       <c r="U61">
         <f t="shared" si="17"/>
-        <v>1.1309E-2</v>
+        <v>2.9550000000000002E-3</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -13825,1770 +15716,2425 @@
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>A53*1000</f>
-        <v>37.835373375550795</v>
+        <v>4.5555667384735301</v>
       </c>
       <c r="B74">
         <f t="shared" ref="B74:J74" si="23">B53*1000</f>
-        <v>30.481927703461601</v>
+        <v>3.3580668535527898</v>
       </c>
       <c r="C74">
         <f t="shared" si="23"/>
-        <v>25.817261817935698</v>
+        <v>2.6502519626303198</v>
       </c>
       <c r="D74">
         <f t="shared" si="23"/>
-        <v>22.596785361310797</v>
+        <v>2.1977555187266398</v>
       </c>
       <c r="E74">
         <f t="shared" si="23"/>
-        <v>20.242556671170501</v>
+        <v>1.89355959451514</v>
       </c>
       <c r="F74">
         <f t="shared" si="23"/>
-        <v>18.466024770846499</v>
+        <v>1.6718942524901601</v>
       </c>
       <c r="G74">
         <f t="shared" si="23"/>
-        <v>17.097543541279798</v>
+        <v>1.5051520906324201</v>
       </c>
       <c r="H74">
         <f t="shared" si="23"/>
-        <v>15.998121996353399</v>
+        <v>1.3962643999312701</v>
       </c>
       <c r="I74">
         <f t="shared" si="23"/>
-        <v>15.068379530166501</v>
+        <v>1.33619304021023</v>
       </c>
       <c r="J74">
         <f t="shared" si="23"/>
-        <v>14.191265513024499</v>
+        <v>1.3400020847182601</v>
       </c>
       <c r="L74">
         <f>ROUNDUP(A74,2)</f>
-        <v>37.839999999999996</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="M74">
         <f t="shared" ref="M74:U82" si="24">ROUNDUP(B74,2)</f>
-        <v>30.490000000000002</v>
+        <v>3.36</v>
       </c>
       <c r="N74">
         <f t="shared" si="24"/>
-        <v>25.82</v>
+        <v>2.6599999999999997</v>
       </c>
       <c r="O74">
         <f t="shared" si="24"/>
-        <v>22.6</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="P74">
         <f t="shared" si="24"/>
-        <v>20.25</v>
+        <v>1.9</v>
       </c>
       <c r="Q74">
         <f t="shared" si="24"/>
-        <v>18.470000000000002</v>
+        <v>1.68</v>
       </c>
       <c r="R74">
         <f t="shared" si="24"/>
-        <v>17.100000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="S74">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>1.4</v>
       </c>
       <c r="T74">
         <f t="shared" si="24"/>
-        <v>15.07</v>
+        <v>1.34</v>
       </c>
       <c r="U74">
         <f t="shared" si="24"/>
-        <v>14.2</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ref="A75:J82" si="25">A54*1000</f>
-        <v>33.922627027312899</v>
+        <v>4.4285066808920499</v>
       </c>
       <c r="B75">
         <f t="shared" si="25"/>
-        <v>28.109605525882401</v>
+        <v>3.3320560229346703</v>
       </c>
       <c r="C75">
         <f t="shared" si="25"/>
-        <v>24.174175551141101</v>
+        <v>2.7114139716715804</v>
       </c>
       <c r="D75">
         <f t="shared" si="25"/>
-        <v>21.351324414149698</v>
+        <v>2.29098199081049</v>
       </c>
       <c r="E75">
         <f t="shared" si="25"/>
-        <v>19.249656428712399</v>
+        <v>1.9744683646187902</v>
       </c>
       <c r="F75">
         <f t="shared" si="25"/>
-        <v>17.6162168077248</v>
+        <v>1.75736749697415</v>
       </c>
       <c r="G75">
         <f t="shared" si="25"/>
-        <v>16.325196782404902</v>
+        <v>1.59943578613042</v>
       </c>
       <c r="H75">
         <f t="shared" si="25"/>
-        <v>15.2751039103706</v>
+        <v>1.4926004459675801</v>
       </c>
       <c r="I75">
         <f t="shared" si="25"/>
-        <v>14.3728402772474</v>
+        <v>1.4387518416635299</v>
       </c>
       <c r="J75">
         <f t="shared" si="25"/>
-        <v>13.539763553577</v>
+        <v>1.4410021361338801</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75:L82" si="26">ROUNDUP(A75,2)</f>
-        <v>33.93</v>
+        <v>4.43</v>
       </c>
       <c r="M75">
         <f t="shared" si="24"/>
-        <v>28.110000000000003</v>
+        <v>3.34</v>
       </c>
       <c r="N75">
         <f t="shared" si="24"/>
-        <v>24.180000000000003</v>
+        <v>2.7199999999999998</v>
       </c>
       <c r="O75">
         <f t="shared" si="24"/>
-        <v>21.360000000000003</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P75">
         <f t="shared" si="24"/>
-        <v>19.25</v>
+        <v>1.98</v>
       </c>
       <c r="Q75">
         <f t="shared" si="24"/>
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="R75">
         <f t="shared" si="24"/>
-        <v>16.330000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="S75">
         <f t="shared" si="24"/>
-        <v>15.28</v>
+        <v>1.5</v>
       </c>
       <c r="T75">
         <f t="shared" si="24"/>
-        <v>14.379999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="U75">
         <f t="shared" si="24"/>
-        <v>13.54</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="25"/>
-        <v>30.292402803303297</v>
+        <v>4.20982886136842</v>
       </c>
       <c r="B76">
         <f t="shared" si="25"/>
-        <v>25.793406339776599</v>
+        <v>3.32007026409104</v>
       </c>
       <c r="C76">
         <f t="shared" si="25"/>
-        <v>22.566871932519501</v>
+        <v>2.78247921934895</v>
       </c>
       <c r="D76">
         <f t="shared" si="25"/>
-        <v>20.170333008047301</v>
+        <v>2.37115588835742</v>
       </c>
       <c r="E76">
         <f t="shared" si="25"/>
-        <v>18.3187051279433</v>
+        <v>2.0734279849161004</v>
       </c>
       <c r="F76">
         <f t="shared" si="25"/>
-        <v>16.841088139829001</v>
+        <v>1.8699659098808301</v>
       </c>
       <c r="G76">
         <f t="shared" si="25"/>
-        <v>15.656312393299901</v>
+        <v>1.7084319583827001</v>
       </c>
       <c r="H76">
         <f t="shared" si="25"/>
-        <v>14.671997673783599</v>
+        <v>1.6003800584502099</v>
       </c>
       <c r="I76">
         <f t="shared" si="25"/>
-        <v>13.8093097069049</v>
+        <v>1.5536843054379001</v>
       </c>
       <c r="J76">
         <f t="shared" si="25"/>
-        <v>13.0239888509791</v>
+        <v>1.55304602723879</v>
       </c>
       <c r="L76">
         <f t="shared" si="26"/>
-        <v>30.3</v>
+        <v>4.21</v>
       </c>
       <c r="M76">
         <f t="shared" si="24"/>
-        <v>25.8</v>
+        <v>3.3299999999999996</v>
       </c>
       <c r="N76">
         <f t="shared" si="24"/>
-        <v>22.57</v>
+        <v>2.7899999999999996</v>
       </c>
       <c r="O76">
         <f t="shared" si="24"/>
-        <v>20.180000000000003</v>
+        <v>2.38</v>
       </c>
       <c r="P76">
         <f t="shared" si="24"/>
-        <v>18.32</v>
+        <v>2.0799999999999996</v>
       </c>
       <c r="Q76">
         <f t="shared" si="24"/>
-        <v>16.850000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="R76">
         <f t="shared" si="24"/>
-        <v>15.66</v>
+        <v>1.71</v>
       </c>
       <c r="S76">
         <f t="shared" si="24"/>
-        <v>14.68</v>
+        <v>1.61</v>
       </c>
       <c r="T76">
         <f t="shared" si="24"/>
-        <v>13.81</v>
+        <v>1.56</v>
       </c>
       <c r="U76">
         <f t="shared" si="24"/>
-        <v>13.03</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="25"/>
-        <v>26.9761331835155</v>
+        <v>4.09151257883613</v>
       </c>
       <c r="B77">
         <f t="shared" si="25"/>
-        <v>23.583139431994301</v>
+        <v>3.3519787683233599</v>
       </c>
       <c r="C77">
         <f t="shared" si="25"/>
-        <v>21.0262023975137</v>
+        <v>2.83829416878929</v>
       </c>
       <c r="D77">
         <f t="shared" si="25"/>
-        <v>19.035165906542197</v>
+        <v>2.4641662253738801</v>
       </c>
       <c r="E77">
         <f t="shared" si="25"/>
-        <v>17.4452986929006</v>
+        <v>2.1859253185602596</v>
       </c>
       <c r="F77">
         <f t="shared" si="25"/>
-        <v>16.1505482481051</v>
+        <v>1.9782494484330697</v>
       </c>
       <c r="G77">
         <f t="shared" si="25"/>
-        <v>15.0684624518303</v>
+        <v>1.8423630812137901</v>
       </c>
       <c r="H77">
         <f t="shared" si="25"/>
-        <v>14.158566792666401</v>
+        <v>1.7378987030575599</v>
       </c>
       <c r="I77">
         <f t="shared" si="25"/>
-        <v>13.358362898814201</v>
+        <v>1.6844649395409701</v>
       </c>
       <c r="J77">
         <f t="shared" si="25"/>
-        <v>12.6244585501753</v>
+        <v>1.68263504237007</v>
       </c>
       <c r="L77">
         <f t="shared" si="26"/>
-        <v>26.98</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M77">
         <f t="shared" si="24"/>
-        <v>23.59</v>
+        <v>3.36</v>
       </c>
       <c r="N77">
         <f t="shared" si="24"/>
-        <v>21.03</v>
+        <v>2.84</v>
       </c>
       <c r="O77">
         <f t="shared" si="24"/>
-        <v>19.040000000000003</v>
+        <v>2.4699999999999998</v>
       </c>
       <c r="P77">
         <f t="shared" si="24"/>
-        <v>17.450000000000003</v>
+        <v>2.19</v>
       </c>
       <c r="Q77">
         <f t="shared" si="24"/>
-        <v>16.16</v>
+        <v>1.98</v>
       </c>
       <c r="R77">
         <f t="shared" si="24"/>
-        <v>15.07</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
         <f t="shared" si="24"/>
-        <v>14.16</v>
+        <v>1.74</v>
       </c>
       <c r="T77">
         <f t="shared" si="24"/>
-        <v>13.36</v>
+        <v>1.69</v>
       </c>
       <c r="U77">
         <f t="shared" si="24"/>
-        <v>12.629999999999999</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="25"/>
-        <v>23.704807765195799</v>
+        <v>3.89938613379688</v>
       </c>
       <c r="B78">
         <f t="shared" si="25"/>
-        <v>21.3125538175046</v>
+        <v>3.3163567512082199</v>
       </c>
       <c r="C78">
         <f t="shared" si="25"/>
-        <v>19.403625895419498</v>
+        <v>2.8829211941297999</v>
       </c>
       <c r="D78">
         <f t="shared" si="25"/>
-        <v>17.847646235528099</v>
+        <v>2.55401189324107</v>
       </c>
       <c r="E78">
         <f t="shared" si="25"/>
-        <v>16.5575007961098</v>
+        <v>2.3023325983098801</v>
       </c>
       <c r="F78">
         <f t="shared" si="25"/>
-        <v>15.4616309203347</v>
+        <v>2.1375691152196699</v>
       </c>
       <c r="G78">
         <f t="shared" si="25"/>
-        <v>14.536972236545701</v>
+        <v>1.9908463557965599</v>
       </c>
       <c r="H78">
         <f t="shared" si="25"/>
-        <v>13.731331307537801</v>
+        <v>1.8915916098111398</v>
       </c>
       <c r="I78">
         <f t="shared" si="25"/>
-        <v>13.011531324716801</v>
+        <v>1.83836337312885</v>
       </c>
       <c r="J78">
         <f t="shared" si="25"/>
-        <v>12.341217638947899</v>
+        <v>1.8452133672065001</v>
       </c>
       <c r="L78">
         <f t="shared" si="26"/>
-        <v>23.71</v>
+        <v>3.9</v>
       </c>
       <c r="M78">
         <f t="shared" si="24"/>
-        <v>21.32</v>
+        <v>3.32</v>
       </c>
       <c r="N78">
         <f t="shared" si="24"/>
-        <v>19.41</v>
+        <v>2.8899999999999997</v>
       </c>
       <c r="O78">
         <f t="shared" si="24"/>
-        <v>17.850000000000001</v>
+        <v>2.5599999999999996</v>
       </c>
       <c r="P78">
         <f t="shared" si="24"/>
-        <v>16.560000000000002</v>
+        <v>2.3099999999999996</v>
       </c>
       <c r="Q78">
         <f t="shared" si="24"/>
-        <v>15.47</v>
+        <v>2.1399999999999997</v>
       </c>
       <c r="R78">
         <f t="shared" si="24"/>
-        <v>14.54</v>
+        <v>2</v>
       </c>
       <c r="S78">
         <f t="shared" si="24"/>
-        <v>13.74</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
         <f t="shared" si="24"/>
-        <v>13.02</v>
+        <v>1.84</v>
       </c>
       <c r="U78">
         <f t="shared" si="24"/>
-        <v>12.35</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="25"/>
-        <v>21.545089698077497</v>
+        <v>3.8928614328684699</v>
       </c>
       <c r="B79">
         <f t="shared" si="25"/>
-        <v>19.734480511428799</v>
+        <v>3.4490387791973101</v>
       </c>
       <c r="C79">
         <f t="shared" si="25"/>
-        <v>18.2441951441733</v>
+        <v>3.0337403896735897</v>
       </c>
       <c r="D79">
         <f t="shared" si="25"/>
-        <v>16.9739298554661</v>
+        <v>2.7639833461494203</v>
       </c>
       <c r="E79">
         <f t="shared" si="25"/>
-        <v>15.901981472020301</v>
+        <v>2.5043846490095496</v>
       </c>
       <c r="F79">
         <f t="shared" si="25"/>
-        <v>14.965708173159301</v>
+        <v>2.3408655967896599</v>
       </c>
       <c r="G79">
         <f t="shared" si="25"/>
-        <v>14.157983523207701</v>
+        <v>2.18489995857712</v>
       </c>
       <c r="H79">
         <f t="shared" si="25"/>
-        <v>13.430654405586999</v>
+        <v>2.1034415626409602</v>
       </c>
       <c r="I79">
         <f t="shared" si="25"/>
-        <v>12.782436320105701</v>
+        <v>2.0350921854378998</v>
       </c>
       <c r="J79">
         <f t="shared" si="25"/>
-        <v>12.175429818002099</v>
+        <v>2.0311810269057999</v>
       </c>
       <c r="L79">
         <f t="shared" si="26"/>
-        <v>21.55</v>
+        <v>3.9</v>
       </c>
       <c r="M79">
         <f t="shared" si="24"/>
-        <v>19.740000000000002</v>
+        <v>3.4499999999999997</v>
       </c>
       <c r="N79">
         <f t="shared" si="24"/>
-        <v>18.25</v>
+        <v>3.0399999999999996</v>
       </c>
       <c r="O79">
         <f t="shared" si="24"/>
-        <v>16.98</v>
+        <v>2.7699999999999996</v>
       </c>
       <c r="P79">
         <f t="shared" si="24"/>
-        <v>15.91</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="Q79">
         <f t="shared" si="24"/>
-        <v>14.97</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="R79">
         <f t="shared" si="24"/>
-        <v>14.16</v>
+        <v>2.19</v>
       </c>
       <c r="S79">
         <f t="shared" si="24"/>
-        <v>13.44</v>
+        <v>2.11</v>
       </c>
       <c r="T79">
         <f t="shared" si="24"/>
-        <v>12.79</v>
+        <v>2.0399999999999996</v>
       </c>
       <c r="U79">
         <f t="shared" si="24"/>
-        <v>12.18</v>
+        <v>2.0399999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="25"/>
-        <v>18.118300480783702</v>
+        <v>3.64632541426269</v>
       </c>
       <c r="B80">
         <f t="shared" si="25"/>
-        <v>17.089805942107201</v>
+        <v>3.34469329690923</v>
       </c>
       <c r="C80">
         <f t="shared" si="25"/>
-        <v>16.195518116529101</v>
+        <v>3.0229122410079898</v>
       </c>
       <c r="D80">
         <f t="shared" si="25"/>
-        <v>15.388350321351</v>
+        <v>2.8226680672197699</v>
       </c>
       <c r="E80">
         <f t="shared" si="25"/>
-        <v>14.6665495556064</v>
+        <v>2.65737792069433</v>
       </c>
       <c r="F80">
         <f t="shared" si="25"/>
-        <v>14.0160063749017</v>
+        <v>2.5236384464975603</v>
       </c>
       <c r="G80">
         <f t="shared" si="25"/>
-        <v>13.4246608623012</v>
+        <v>2.4193982600302699</v>
       </c>
       <c r="H80">
         <f t="shared" si="25"/>
-        <v>12.882194442743</v>
+        <v>2.3433825937197703</v>
       </c>
       <c r="I80">
         <f t="shared" si="25"/>
-        <v>12.379622402586399</v>
+        <v>2.29480351299323</v>
       </c>
       <c r="J80">
         <f t="shared" si="25"/>
-        <v>11.908969648673899</v>
+        <v>2.2732305896208702</v>
       </c>
       <c r="L80">
         <f t="shared" si="26"/>
-        <v>18.12</v>
+        <v>3.65</v>
       </c>
       <c r="M80">
         <f t="shared" si="24"/>
-        <v>17.09</v>
+        <v>3.3499999999999996</v>
       </c>
       <c r="N80">
         <f t="shared" si="24"/>
-        <v>16.200000000000003</v>
+        <v>3.03</v>
       </c>
       <c r="O80">
         <f t="shared" si="24"/>
-        <v>15.39</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="P80">
         <f t="shared" si="24"/>
-        <v>14.67</v>
+        <v>2.6599999999999997</v>
       </c>
       <c r="Q80">
         <f t="shared" si="24"/>
-        <v>14.02</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="R80">
         <f t="shared" si="24"/>
-        <v>13.43</v>
+        <v>2.42</v>
       </c>
       <c r="S80">
         <f t="shared" si="24"/>
-        <v>12.89</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="T80">
         <f t="shared" si="24"/>
-        <v>12.379999999999999</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U80">
         <f t="shared" si="24"/>
-        <v>11.91</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="25"/>
-        <v>14.9790277604474</v>
+        <v>3.3242072798800701</v>
       </c>
       <c r="B81">
         <f t="shared" si="25"/>
-        <v>14.492085866436399</v>
+        <v>3.2208538950802601</v>
       </c>
       <c r="C81">
         <f t="shared" si="25"/>
-        <v>14.0497511967293</v>
+        <v>3.0521893181559498</v>
       </c>
       <c r="D81">
         <f t="shared" si="25"/>
-        <v>13.6357511803335</v>
+        <v>2.9056514132384299</v>
       </c>
       <c r="E81">
         <f t="shared" si="25"/>
-        <v>13.2359101486933</v>
+        <v>2.8452917998163998</v>
       </c>
       <c r="F81">
         <f t="shared" si="25"/>
-        <v>12.869930519959299</v>
+        <v>2.7334184621148299</v>
       </c>
       <c r="G81">
         <f t="shared" si="25"/>
-        <v>12.5134582452961</v>
+        <v>2.6970296678245202</v>
       </c>
       <c r="H81">
         <f t="shared" si="25"/>
-        <v>12.185265064685</v>
+        <v>2.6169101722444301</v>
       </c>
       <c r="I81">
         <f t="shared" si="25"/>
-        <v>11.8627545744791</v>
+        <v>2.6036858895958703</v>
       </c>
       <c r="J81">
         <f t="shared" si="25"/>
-        <v>11.5638039873725</v>
+        <v>2.5534865346101503</v>
       </c>
       <c r="L81">
         <f t="shared" si="26"/>
-        <v>14.98</v>
+        <v>3.3299999999999996</v>
       </c>
       <c r="M81">
         <f t="shared" si="24"/>
-        <v>14.5</v>
+        <v>3.23</v>
       </c>
       <c r="N81">
         <f t="shared" si="24"/>
-        <v>14.049999999999999</v>
+        <v>3.0599999999999996</v>
       </c>
       <c r="O81">
         <f t="shared" si="24"/>
-        <v>13.64</v>
+        <v>2.9099999999999997</v>
       </c>
       <c r="P81">
         <f t="shared" si="24"/>
-        <v>13.24</v>
+        <v>2.8499999999999996</v>
       </c>
       <c r="Q81">
         <f t="shared" si="24"/>
-        <v>12.87</v>
+        <v>2.7399999999999998</v>
       </c>
       <c r="R81">
         <f t="shared" si="24"/>
-        <v>12.52</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="S81">
         <f t="shared" si="24"/>
-        <v>12.19</v>
+        <v>2.6199999999999997</v>
       </c>
       <c r="T81">
         <f t="shared" si="24"/>
-        <v>11.87</v>
+        <v>2.61</v>
       </c>
       <c r="U81">
         <f t="shared" si="24"/>
-        <v>11.57</v>
+        <v>2.5599999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="25"/>
-        <v>12.3700835324476</v>
+        <v>3.1957808043279603</v>
       </c>
       <c r="B82">
         <f t="shared" si="25"/>
-        <v>12.244227344426101</v>
+        <v>3.1508080416890398</v>
       </c>
       <c r="C82">
         <f t="shared" si="25"/>
-        <v>12.120848784790601</v>
+        <v>3.1085996715217603</v>
       </c>
       <c r="D82">
         <f t="shared" si="25"/>
-        <v>11.9998446218578</v>
+        <v>3.0691019492264</v>
       </c>
       <c r="E82">
         <f t="shared" si="25"/>
-        <v>11.8811150122058</v>
+        <v>3.0322650055420501</v>
       </c>
       <c r="F82">
         <f t="shared" si="25"/>
-        <v>11.7645632942967</v>
+        <v>2.9980425151209302</v>
       </c>
       <c r="G82">
         <f t="shared" si="25"/>
-        <v>11.6500957921496</v>
+        <v>2.9663914107560001</v>
       </c>
       <c r="H82">
         <f t="shared" si="25"/>
-        <v>11.527709044006899</v>
+        <v>3.0085927140144499</v>
       </c>
       <c r="I82">
         <f t="shared" si="25"/>
-        <v>11.4172437944089</v>
+        <v>2.98020324933597</v>
       </c>
       <c r="J82">
         <f t="shared" si="25"/>
-        <v>11.308595173445299</v>
+        <v>2.95432535325254</v>
       </c>
       <c r="L82">
         <f t="shared" si="26"/>
-        <v>12.379999999999999</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="M82">
         <f t="shared" si="24"/>
-        <v>12.25</v>
+        <v>3.1599999999999997</v>
       </c>
       <c r="N82">
         <f t="shared" si="24"/>
-        <v>12.129999999999999</v>
+        <v>3.11</v>
       </c>
       <c r="O82">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>3.07</v>
       </c>
       <c r="P82">
         <f t="shared" si="24"/>
-        <v>11.89</v>
+        <v>3.0399999999999996</v>
       </c>
       <c r="Q82">
         <f t="shared" si="24"/>
-        <v>11.77</v>
+        <v>3</v>
       </c>
       <c r="R82">
         <f t="shared" si="24"/>
-        <v>11.66</v>
+        <v>2.9699999999999998</v>
       </c>
       <c r="S82">
         <f t="shared" si="24"/>
-        <v>11.53</v>
+        <v>3.01</v>
       </c>
       <c r="T82">
         <f t="shared" si="24"/>
-        <v>11.42</v>
+        <v>2.9899999999999998</v>
       </c>
       <c r="U82">
         <f t="shared" si="24"/>
-        <v>11.31</v>
+        <v>2.96</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>4.8095292124458202E-4</v>
+        <v>1.21920715089662E-3</v>
       </c>
       <c r="B86">
-        <v>6.0822865011616201E-4</v>
+        <v>1.1459846850630599E-3</v>
       </c>
       <c r="C86">
-        <v>7.3237638253839503E-4</v>
+        <v>1.0971991365988499E-3</v>
       </c>
       <c r="D86">
-        <v>8.5861398095996499E-4</v>
+        <v>1.07098852524646E-3</v>
       </c>
       <c r="E86">
-        <v>9.915626792711069E-4</v>
+        <v>1.06517135310766E-3</v>
       </c>
       <c r="F86">
-        <v>1.1296151497636299E-3</v>
+        <v>1.06864462076452E-3</v>
       </c>
       <c r="G86">
-        <v>1.2678226690955099E-3</v>
+        <v>1.0775097966762999E-3</v>
       </c>
       <c r="H86">
-        <v>1.40251620292681E-3</v>
+        <v>1.1052640402267101E-3</v>
       </c>
       <c r="I86">
-        <v>1.54130621656381E-3</v>
+        <v>1.1604124314709399E-3</v>
       </c>
       <c r="J86">
-        <v>1.6973457212519499E-3</v>
+        <v>1.2731964461197901E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>3.5459226130984701E-4</v>
+        <v>1.0676853534607399E-3</v>
       </c>
       <c r="B87">
-        <v>4.3327646123099401E-4</v>
+        <v>9.8934047338947997E-4</v>
       </c>
       <c r="C87">
-        <v>5.1111877678882995E-4</v>
+        <v>9.5559829624953098E-4</v>
       </c>
       <c r="D87">
-        <v>5.9148458548119096E-4</v>
+        <v>9.3659486785320403E-4</v>
       </c>
       <c r="E87">
-        <v>6.7592041097408299E-4</v>
+        <v>9.2129870814236503E-4</v>
       </c>
       <c r="F87">
-        <v>7.6284511297607604E-4</v>
+        <v>9.2305875334539901E-4</v>
       </c>
       <c r="G87">
-        <v>8.4912833547554903E-4</v>
+        <v>9.33546647733877E-4</v>
       </c>
       <c r="H87">
-        <v>9.3351389633003501E-4</v>
+        <v>9.5741529382984097E-4</v>
       </c>
       <c r="I87">
-        <v>1.0209865869646E-3</v>
+        <v>1.0075135629697401E-3</v>
       </c>
       <c r="J87">
-        <v>1.11917213811201E-3</v>
+        <v>1.09913106589787E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2.5796138854143098E-4</v>
+        <v>9.1081921715724205E-4</v>
       </c>
       <c r="B88">
-        <v>3.0523933119851101E-4</v>
+        <v>8.5578776126464203E-4</v>
       </c>
       <c r="C88">
-        <v>3.52921550074297E-4</v>
+        <v>8.3288308248026695E-4</v>
       </c>
       <c r="D88">
-        <v>4.0274638765416202E-4</v>
+        <v>8.10477060922052E-4</v>
       </c>
       <c r="E88">
-        <v>4.5468482734391301E-4</v>
+        <v>7.986396284361E-4</v>
       </c>
       <c r="F88">
-        <v>5.0758598968784596E-4</v>
+        <v>8.0213303795440504E-4</v>
       </c>
       <c r="G88">
-        <v>5.5963366562668195E-4</v>
+        <v>8.0701449381427603E-4</v>
       </c>
       <c r="H88">
-        <v>6.1088619826746499E-4</v>
+        <v>8.2491753900715704E-4</v>
       </c>
       <c r="I88">
-        <v>6.6435448928844204E-4</v>
+        <v>8.6923086960136403E-4</v>
       </c>
       <c r="J88">
-        <v>7.24221725675956E-4</v>
+        <v>9.4139363754663702E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1.83877770248873E-4</v>
+        <v>7.8724729660516201E-4</v>
       </c>
       <c r="B89">
-        <v>2.11507409949185E-4</v>
+        <v>7.4560545343667405E-4</v>
       </c>
       <c r="C89">
-        <v>2.40000166258921E-4</v>
+        <v>7.1784963161552605E-4</v>
       </c>
       <c r="D89">
-        <v>2.6977253528014599E-4</v>
+        <v>6.9999082831031004E-4</v>
       </c>
       <c r="E89">
-        <v>3.0045452308364201E-4</v>
+        <v>6.90092876266026E-4</v>
       </c>
       <c r="F89">
-        <v>3.3131239989535902E-4</v>
+        <v>6.8728262047621197E-4</v>
       </c>
       <c r="G89">
-        <v>3.6146721220099302E-4</v>
+        <v>6.9783470339486605E-4</v>
       </c>
       <c r="H89">
-        <v>3.9147508282831399E-4</v>
+        <v>7.1261906732067502E-4</v>
       </c>
       <c r="I89">
-        <v>4.2297803962022498E-4</v>
+        <v>7.4470732100353695E-4</v>
       </c>
       <c r="J89">
-        <v>4.5812165955629399E-4</v>
+        <v>8.0102451957722099E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1.3021662738757001E-4</v>
+        <v>6.7014109079777996E-4</v>
       </c>
       <c r="B90">
-        <v>1.45865021020605E-4</v>
+        <v>6.3974959726642697E-4</v>
       </c>
       <c r="C90">
-        <v>1.6215455718334999E-4</v>
+        <v>6.1804117875386799E-4</v>
       </c>
       <c r="D90">
-        <v>1.7895623237215301E-4</v>
+        <v>6.0323515733173795E-4</v>
       </c>
       <c r="E90">
-        <v>1.9599447743766699E-4</v>
+        <v>5.9436445977106205E-4</v>
       </c>
       <c r="F90">
-        <v>2.12857587730497E-4</v>
+        <v>5.9853594945722299E-4</v>
       </c>
       <c r="G90">
-        <v>2.29356453388E-4</v>
+        <v>6.0047551351123803E-4</v>
       </c>
       <c r="H90">
-        <v>2.4601324851132302E-4</v>
+        <v>6.1161290965308104E-4</v>
       </c>
       <c r="I90">
-        <v>2.6360743916938002E-4</v>
+        <v>6.35451788157369E-4</v>
       </c>
       <c r="J90">
-        <v>2.8311696018319199E-4</v>
+        <v>6.8132741710674695E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>8.7195984401527803E-5</v>
+        <v>5.7068609772918503E-4</v>
       </c>
       <c r="B91" s="1">
-        <v>9.5930428583858003E-5</v>
+        <v>5.5620915904472205E-4</v>
       </c>
       <c r="C91">
-        <v>1.0492792398291499E-4</v>
+        <v>5.3440184455549801E-4</v>
       </c>
       <c r="D91">
-        <v>1.14082274692002E-4</v>
+        <v>5.2839569764957502E-4</v>
       </c>
       <c r="E91">
-        <v>1.2323384963517899E-4</v>
+        <v>5.16373959492347E-4</v>
       </c>
       <c r="F91">
-        <v>1.3220237826964699E-4</v>
+        <v>5.1744998337730202E-4</v>
       </c>
       <c r="G91">
-        <v>1.4107060828359301E-4</v>
+        <v>5.1526396055780904E-4</v>
       </c>
       <c r="H91">
-        <v>1.5012170249548699E-4</v>
+        <v>5.2746142519011295E-4</v>
       </c>
       <c r="I91">
-        <v>1.59713595436138E-4</v>
+        <v>5.4162673210765501E-4</v>
       </c>
       <c r="J91">
-        <v>1.7028201568817199E-4</v>
+        <v>5.7347427353446096E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>5.8616717701319899E-5</v>
+        <v>4.7588787178608498E-4</v>
       </c>
       <c r="B92" s="1">
-        <v>6.2619256827219598E-5</v>
+        <v>4.6566721041799597E-4</v>
       </c>
       <c r="C92" s="1">
-        <v>6.6636906850712406E-5</v>
+        <v>4.47258809802488E-4</v>
       </c>
       <c r="D92" s="1">
-        <v>7.0617778172974699E-5</v>
+        <v>4.4215914989769302E-4</v>
       </c>
       <c r="E92" s="1">
-        <v>7.4525340077120106E-5</v>
+        <v>4.3914228900456302E-4</v>
       </c>
       <c r="F92" s="1">
-        <v>7.8405388589566401E-5</v>
+        <v>4.3868819320695799E-4</v>
       </c>
       <c r="G92" s="1">
-        <v>8.2333590439293201E-5</v>
+        <v>4.4144980347072703E-4</v>
       </c>
       <c r="H92" s="1">
-        <v>8.6400900671462595E-5</v>
+        <v>4.4816639967924598E-4</v>
       </c>
       <c r="I92" s="1">
-        <v>9.0714063784539403E-5</v>
+        <v>4.5965834618138401E-4</v>
       </c>
       <c r="J92" s="1">
-        <v>9.5396683323032306E-5</v>
+        <v>4.7684619215761697E-4</v>
+      </c>
+      <c r="L92" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>3.7849082899907902E-5</v>
+        <v>3.82064131327989E-4</v>
       </c>
       <c r="B93" s="1">
-        <v>3.9221740959456202E-5</v>
+        <v>3.8351168206908899E-4</v>
       </c>
       <c r="C93" s="1">
-        <v>4.0583899046714701E-5</v>
+        <v>3.7600839458514499E-4</v>
       </c>
       <c r="D93" s="1">
-        <v>4.19460448590779E-5</v>
+        <v>3.6993176766807602E-4</v>
       </c>
       <c r="E93" s="1">
-        <v>4.33201804793325E-5</v>
+        <v>3.7402591222884102E-4</v>
       </c>
       <c r="F93" s="1">
-        <v>4.4719831198673797E-5</v>
+        <v>3.7074111351708598E-4</v>
       </c>
       <c r="G93" s="1">
-        <v>4.6160073593352602E-5</v>
+        <v>3.7724080220491701E-4</v>
       </c>
       <c r="H93" s="1">
-        <v>4.7657586530346299E-5</v>
+        <v>3.7735628860417297E-4</v>
       </c>
       <c r="I93" s="1">
-        <v>4.9230728777452199E-5</v>
+        <v>3.8701078314717398E-4</v>
       </c>
       <c r="J93" s="1">
-        <v>5.0899646893195601E-5</v>
+        <v>3.9125432049628799E-4</v>
+      </c>
+      <c r="L93">
+        <v>0.26763018102663499</v>
+      </c>
+      <c r="M93">
+        <v>0.34126321334270998</v>
+      </c>
+      <c r="N93">
+        <v>0.41399804700450898</v>
+      </c>
+      <c r="O93">
+        <v>0.487310128956912</v>
+      </c>
+      <c r="P93">
+        <v>0.56252327953818204</v>
+      </c>
+      <c r="Q93">
+        <v>0.63918194537295903</v>
+      </c>
+      <c r="R93">
+        <v>0.71588100855877801</v>
+      </c>
+      <c r="S93">
+        <v>0.79158649341851695</v>
+      </c>
+      <c r="T93">
+        <v>0.86844669636085503</v>
+      </c>
+      <c r="U93">
+        <v>0.95014512338425405</v>
+      </c>
+      <c r="W93">
+        <f>ROUNDUP(L93,3)</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="X93">
+        <f t="shared" ref="X93:AF101" si="27">ROUNDUP(M93,3)</f>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="27"/>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="27"/>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="27"/>
+        <v>0.56300000000000006</v>
+      </c>
+      <c r="AB93">
+        <f t="shared" si="27"/>
+        <v>0.64</v>
+      </c>
+      <c r="AC93">
+        <f t="shared" si="27"/>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="27"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="27"/>
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="27"/>
+        <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>2.4383390765228E-5</v>
+        <v>3.2330537053270702E-4</v>
       </c>
       <c r="B94" s="1">
-        <v>2.4671238313822701E-5</v>
+        <v>3.2238848597756998E-4</v>
       </c>
       <c r="C94" s="1">
-        <v>2.4963311538547501E-5</v>
+        <v>3.21681110225889E-4</v>
       </c>
       <c r="D94" s="1">
-        <v>2.52600932880931E-5</v>
+        <v>3.2118917988078398E-4</v>
       </c>
       <c r="E94" s="1">
-        <v>2.5562083550157E-5</v>
+        <v>3.20918882417004E-4</v>
       </c>
       <c r="F94" s="1">
-        <v>2.5869799859048199E-5</v>
+        <v>3.2087665952018E-4</v>
       </c>
       <c r="G94" s="1">
-        <v>2.6183777748589201E-5</v>
+        <v>3.2106921385057901E-4</v>
       </c>
       <c r="H94" s="1">
-        <v>2.6504571252174201E-5</v>
+        <v>3.2931007551383198E-4</v>
       </c>
       <c r="I94" s="1">
-        <v>2.68327534518405E-5</v>
+        <v>3.2988630834511701E-4</v>
       </c>
       <c r="J94" s="1">
-        <v>2.7168917078211499E-5</v>
+        <v>3.3072168746189998E-4</v>
+      </c>
+      <c r="L94">
+        <v>0.24109376600188501</v>
+      </c>
+      <c r="M94">
+        <v>0.29691591815377899</v>
+      </c>
+      <c r="N94">
+        <v>0.35243541053983302</v>
+      </c>
+      <c r="O94">
+        <v>0.40881808395265001</v>
+      </c>
+      <c r="P94">
+        <v>0.466605960698811</v>
+      </c>
+      <c r="Q94">
+        <v>0.52525083964209396</v>
+      </c>
+      <c r="R94">
+        <v>0.58367247740056805</v>
+      </c>
+      <c r="S94">
+        <v>0.64144111467767695</v>
+      </c>
+      <c r="T94">
+        <v>0.70026917345580397</v>
+      </c>
+      <c r="U94">
+        <v>0.76275464021641104</v>
+      </c>
+      <c r="W94">
+        <f t="shared" ref="W94:W101" si="28">ROUNDUP(L94,3)</f>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="27"/>
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="27"/>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="27"/>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="27"/>
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AB94">
+        <f t="shared" si="27"/>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="AC94">
+        <f t="shared" si="27"/>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="27"/>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="27"/>
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="27"/>
+        <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>0.21635540235741499</v>
+      </c>
+      <c r="M95">
+        <v>0.25776194272772601</v>
+      </c>
+      <c r="N95">
+        <v>0.29933128581465102</v>
+      </c>
+      <c r="O95">
+        <v>0.34180673860439298</v>
+      </c>
+      <c r="P95">
+        <v>0.38517837814773498</v>
+      </c>
+      <c r="Q95">
+        <v>0.42895596851042</v>
+      </c>
+      <c r="R95">
+        <v>0.47237145726204499</v>
+      </c>
+      <c r="S95">
+        <v>0.51545102343126703</v>
+      </c>
+      <c r="T95">
+        <v>0.55946427891371098</v>
+      </c>
+      <c r="U95">
+        <v>0.60615952202032597</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="28"/>
+        <v>0.217</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="27"/>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="27"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="27"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="27"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="27"/>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AC95">
+        <f t="shared" si="27"/>
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="AD95">
+        <f t="shared" si="27"/>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="AE95">
+        <f t="shared" si="27"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AF95">
+        <f t="shared" si="27"/>
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
+      <c r="L96">
+        <v>0.19240984389912499</v>
+      </c>
+      <c r="M96">
+        <v>0.22243740338773799</v>
+      </c>
+      <c r="N96">
+        <v>0.25291586739288802</v>
+      </c>
+      <c r="O96">
+        <v>0.28406802313188101</v>
+      </c>
+      <c r="P96">
+        <v>0.31569828594169402</v>
+      </c>
+      <c r="Q96">
+        <v>0.34741959413692702</v>
+      </c>
+      <c r="R96">
+        <v>0.37877154102280802</v>
+      </c>
+      <c r="S96">
+        <v>0.41004637731010102</v>
+      </c>
+      <c r="T96">
+        <v>0.44210318868760301</v>
+      </c>
+      <c r="U96">
+        <v>0.47605362981680299</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="28"/>
+        <v>0.193</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="27"/>
+        <v>0.223</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="27"/>
+        <v>0.253</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="27"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="27"/>
+        <v>0.316</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="27"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AC96">
+        <f t="shared" si="27"/>
+        <v>0.379</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="27"/>
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="27"/>
+        <v>0.443</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="27"/>
+        <v>0.47699999999999998</v>
+      </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>0.17185809966073701</v>
+      </c>
+      <c r="M97">
+        <v>0.192907351428146</v>
+      </c>
+      <c r="N97">
+        <v>0.214380184936141</v>
+      </c>
+      <c r="O97">
+        <v>0.23619120918275099</v>
+      </c>
+      <c r="P97">
+        <v>0.25815751390888397</v>
+      </c>
+      <c r="Q97">
+        <v>0.280007764518864</v>
+      </c>
+      <c r="R97">
+        <v>0.30161820964379898</v>
+      </c>
+      <c r="S97">
+        <v>0.32333242888201202</v>
+      </c>
+      <c r="T97">
+        <v>0.34566168878563203</v>
+      </c>
+      <c r="U97">
+        <v>0.36924045165476999</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="28"/>
+        <v>0.17200000000000001</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="27"/>
+        <v>0.193</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="27"/>
+        <v>0.215</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="27"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="27"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="27"/>
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AC97">
+        <f t="shared" si="27"/>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="27"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="27"/>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="27"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>A86*10000</f>
-        <v>4.8095292124458204</v>
+        <v>12.192071508966199</v>
       </c>
       <c r="B98">
-        <f t="shared" ref="B98:J98" si="27">B86*10000</f>
-        <v>6.0822865011616205</v>
+        <f t="shared" ref="B98:J98" si="29">B86*10000</f>
+        <v>11.459846850630599</v>
       </c>
       <c r="C98">
+        <f t="shared" si="29"/>
+        <v>10.971991365988499</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="29"/>
+        <v>10.7098852524646</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="29"/>
+        <v>10.6517135310766</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="29"/>
+        <v>10.686446207645199</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="29"/>
+        <v>10.775097966762999</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="29"/>
+        <v>11.052640402267102</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="29"/>
+        <v>11.604124314709399</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="29"/>
+        <v>12.731964461197901</v>
+      </c>
+      <c r="L98">
+        <v>0.146598102082628</v>
+      </c>
+      <c r="M98">
+        <v>0.161264976897178</v>
+      </c>
+      <c r="N98">
+        <v>0.176152793552974</v>
+      </c>
+      <c r="O98">
+        <v>0.191171809477685</v>
+      </c>
+      <c r="P98">
+        <v>0.20618795906474199</v>
+      </c>
+      <c r="Q98">
+        <v>0.22105070196552501</v>
+      </c>
+      <c r="R98">
+        <v>0.23582954383566701</v>
+      </c>
+      <c r="S98">
+        <v>0.25076114999261701</v>
+      </c>
+      <c r="T98">
+        <v>0.26614358601701998</v>
+      </c>
+      <c r="U98">
+        <v>0.28233538317757001</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="28"/>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="X98">
         <f t="shared" si="27"/>
-        <v>7.3237638253839501</v>
-      </c>
-      <c r="D98">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Y98">
         <f t="shared" si="27"/>
-        <v>8.5861398095996506</v>
-      </c>
-      <c r="E98">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="Z98">
         <f t="shared" si="27"/>
-        <v>9.9156267927110697</v>
-      </c>
-      <c r="F98">
+        <v>0.192</v>
+      </c>
+      <c r="AA98">
         <f t="shared" si="27"/>
-        <v>11.296151497636298</v>
-      </c>
-      <c r="G98">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AB98">
         <f t="shared" si="27"/>
-        <v>12.6782266909551</v>
-      </c>
-      <c r="H98">
+        <v>0.222</v>
+      </c>
+      <c r="AC98">
         <f t="shared" si="27"/>
-        <v>14.025162029268101</v>
-      </c>
-      <c r="I98">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AD98">
         <f t="shared" si="27"/>
-        <v>15.413062165638099</v>
-      </c>
-      <c r="J98">
+        <v>0.251</v>
+      </c>
+      <c r="AE98">
         <f t="shared" si="27"/>
-        <v>16.973457212519499</v>
-      </c>
-      <c r="L98">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="27"/>
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" ref="A99:J106" si="30">A87*10000</f>
+        <v>10.6768535346074</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="30"/>
+        <v>9.8934047338947995</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="30"/>
+        <v>9.5559829624953103</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="30"/>
+        <v>9.3659486785320407</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="30"/>
+        <v>9.2129870814236501</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="30"/>
+        <v>9.2305875334539902</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="30"/>
+        <v>9.3354664773387697</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="30"/>
+        <v>9.5741529382984094</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="30"/>
+        <v>10.075135629697401</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="30"/>
+        <v>10.9913106589787</v>
+      </c>
+      <c r="L99">
+        <v>0.130511629577721</v>
+      </c>
+      <c r="M99">
+        <v>0.13922568351732301</v>
+      </c>
+      <c r="N99">
+        <v>0.147956266720253</v>
+      </c>
+      <c r="O99">
+        <v>0.15664581855464399</v>
+      </c>
+      <c r="P99">
+        <v>0.16525398423187801</v>
+      </c>
+      <c r="Q99">
+        <v>0.173831633376721</v>
+      </c>
+      <c r="R99">
+        <v>0.18246264402339599</v>
+      </c>
+      <c r="S99">
+        <v>0.191247643846263</v>
+      </c>
+      <c r="T99">
+        <v>0.200304010159818</v>
+      </c>
+      <c r="U99">
+        <v>0.209765869918699</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="28"/>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="27"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="27"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="27"/>
+        <v>0.157</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="27"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="27"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AC99">
+        <f t="shared" si="27"/>
+        <v>0.183</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="27"/>
+        <v>0.192</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="27"/>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="27"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="30"/>
+        <v>9.108192171572421</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="30"/>
+        <v>8.5578776126464202</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="30"/>
+        <v>8.3288308248026688</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="30"/>
+        <v>8.1047706092205196</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="30"/>
+        <v>7.9863962843609997</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="30"/>
+        <v>8.0213303795440503</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="30"/>
+        <v>8.0701449381427608</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="30"/>
+        <v>8.2491753900715707</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="30"/>
+        <v>8.6923086960136402</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="30"/>
+        <v>9.4139363754663705</v>
+      </c>
+      <c r="L100">
+        <v>0.114933907292862</v>
+      </c>
+      <c r="M100">
+        <v>0.119071430919263</v>
+      </c>
+      <c r="N100">
+        <v>0.123193011766489</v>
+      </c>
+      <c r="O100">
+        <v>0.127314572554241</v>
+      </c>
+      <c r="P100">
+        <v>0.131454324738495</v>
+      </c>
+      <c r="Q100">
+        <v>0.135632768511501</v>
+      </c>
+      <c r="R100">
+        <v>0.13987269280178499</v>
+      </c>
+      <c r="S100">
+        <v>0.14419917527414799</v>
+      </c>
+      <c r="T100">
+        <v>0.14863958232966601</v>
+      </c>
+      <c r="U100">
+        <v>0.15322356910569099</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="28"/>
+        <v>0.115</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="27"/>
+        <v>0.12</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="27"/>
+        <v>0.124</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="27"/>
+        <v>0.128</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="27"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="27"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="27"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="27"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="27"/>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="27"/>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="30"/>
+        <v>7.8724729660516202</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="30"/>
+        <v>7.4560545343667401</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="30"/>
+        <v>7.1784963161552602</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="30"/>
+        <v>6.9999082831031005</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="30"/>
+        <v>6.9009287626602598</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="30"/>
+        <v>6.87282620476212</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="30"/>
+        <v>6.9783470339486602</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="30"/>
+        <v>7.1261906732067501</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="30"/>
+        <v>7.4470732100353692</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="30"/>
+        <v>8.0102451957722103</v>
+      </c>
+      <c r="L101">
+        <v>0.10116631594221399</v>
+      </c>
+      <c r="M101">
+        <v>0.102319304036289</v>
+      </c>
+      <c r="N101">
+        <v>0.103481034619172</v>
+      </c>
+      <c r="O101">
+        <v>0.10465249613547201</v>
+      </c>
+      <c r="P101">
+        <v>0.105834708322149</v>
+      </c>
+      <c r="Q101">
+        <v>0.10702872220851101</v>
+      </c>
+      <c r="R101">
+        <v>0.108235620116211</v>
+      </c>
+      <c r="S101">
+        <v>0.109456515659252</v>
+      </c>
+      <c r="T101">
+        <v>0.110692553743984</v>
+      </c>
+      <c r="U101">
+        <v>0.11194491056910599</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="28"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="27"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="27"/>
+        <v>0.104</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="27"/>
+        <v>0.105</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="27"/>
+        <v>0.106</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="27"/>
+        <v>0.108</v>
+      </c>
+      <c r="AC101">
+        <f t="shared" si="27"/>
+        <v>0.109</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="27"/>
+        <v>0.11</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="27"/>
+        <v>0.111</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="27"/>
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="30"/>
+        <v>6.7014109079777997</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="30"/>
+        <v>6.3974959726642693</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="30"/>
+        <v>6.1804117875386799</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="30"/>
+        <v>6.0323515733173796</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="30"/>
+        <v>5.9436445977106205</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="30"/>
+        <v>5.9853594945722302</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="30"/>
+        <v>6.0047551351123802</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="30"/>
+        <v>6.1161290965308099</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="30"/>
+        <v>6.35451788157369</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="30"/>
+        <v>6.8132741710674694</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="30"/>
+        <v>5.7068609772918499</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="30"/>
+        <v>5.5620915904472206</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="30"/>
+        <v>5.3440184455549797</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="30"/>
+        <v>5.2839569764957499</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="30"/>
+        <v>5.1637395949234701</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="30"/>
+        <v>5.1744998337730204</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="30"/>
+        <v>5.1526396055780905</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="30"/>
+        <v>5.2746142519011299</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="30"/>
+        <v>5.4162673210765497</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="30"/>
+        <v>5.7347427353446099</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="30"/>
+        <v>4.75887871786085</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="30"/>
+        <v>4.6566721041799601</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="30"/>
+        <v>4.4725880980248798</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="30"/>
+        <v>4.4215914989769303</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="30"/>
+        <v>4.3914228900456305</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="30"/>
+        <v>4.3868819320695795</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="30"/>
+        <v>4.41449803470727</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="30"/>
+        <v>4.4816639967924594</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="30"/>
+        <v>4.5965834618138404</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="30"/>
+        <v>4.7684619215761694</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="30"/>
+        <v>3.8206413132798902</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="30"/>
+        <v>3.8351168206908897</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="30"/>
+        <v>3.7600839458514499</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="30"/>
+        <v>3.6993176766807601</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="30"/>
+        <v>3.7402591222884101</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="30"/>
+        <v>3.7074111351708599</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="30"/>
+        <v>3.77240802204917</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="30"/>
+        <v>3.7735628860417298</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="30"/>
+        <v>3.8701078314717399</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="30"/>
+        <v>3.9125432049628799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="30"/>
+        <v>3.23305370532707</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="30"/>
+        <v>3.2238848597756999</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="30"/>
+        <v>3.2168111022588901</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="30"/>
+        <v>3.2118917988078399</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="30"/>
+        <v>3.2091888241700399</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="30"/>
+        <v>3.2087665952018001</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="30"/>
+        <v>3.2106921385057903</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="30"/>
+        <v>3.2931007551383198</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="30"/>
+        <v>3.2988630834511703</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="30"/>
+        <v>3.3072168746189998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A109">
         <f>ROUNDUP(A98,2)</f>
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="M98">
-        <f t="shared" ref="M98:U106" si="28">ROUNDUP(B98,2)</f>
-        <v>6.09</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="28"/>
-        <v>7.33</v>
-      </c>
-      <c r="O98">
-        <f t="shared" si="28"/>
-        <v>8.59</v>
-      </c>
-      <c r="P98">
-        <f t="shared" si="28"/>
-        <v>9.92</v>
-      </c>
-      <c r="Q98">
-        <f t="shared" si="28"/>
-        <v>11.299999999999999</v>
-      </c>
-      <c r="R98">
-        <f t="shared" si="28"/>
-        <v>12.68</v>
-      </c>
-      <c r="S98">
-        <f t="shared" si="28"/>
-        <v>14.03</v>
-      </c>
-      <c r="T98">
-        <f t="shared" si="28"/>
-        <v>15.42</v>
-      </c>
-      <c r="U98">
-        <f t="shared" si="28"/>
-        <v>16.98</v>
+        <v>12.2</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ref="B109:J109" si="31">ROUNDUP(B98,2)</f>
+        <v>11.459999999999999</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="31"/>
+        <v>10.98</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="31"/>
+        <v>10.709999999999999</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="31"/>
+        <v>10.66</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="31"/>
+        <v>10.69</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="31"/>
+        <v>10.78</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="31"/>
+        <v>11.06</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="31"/>
+        <v>11.61</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="31"/>
+        <v>12.74</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" ref="A99:J106" si="29">A87*10000</f>
-        <v>3.5459226130984702</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="29"/>
-        <v>4.3327646123099397</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="29"/>
-        <v>5.1111877678882998</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="29"/>
-        <v>5.9148458548119098</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="29"/>
-        <v>6.7592041097408302</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="29"/>
-        <v>7.6284511297607605</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="29"/>
-        <v>8.49128335475549</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="29"/>
-        <v>9.3351389633003503</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="29"/>
-        <v>10.209865869646</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="29"/>
-        <v>11.1917213811201</v>
-      </c>
-      <c r="L99">
-        <f t="shared" ref="L99:L106" si="30">ROUNDUP(A99,2)</f>
-        <v>3.55</v>
-      </c>
-      <c r="M99">
-        <f t="shared" si="28"/>
-        <v>4.34</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="28"/>
-        <v>5.12</v>
-      </c>
-      <c r="O99">
-        <f t="shared" si="28"/>
-        <v>5.92</v>
-      </c>
-      <c r="P99">
-        <f t="shared" si="28"/>
-        <v>6.76</v>
-      </c>
-      <c r="Q99">
-        <f t="shared" si="28"/>
-        <v>7.63</v>
-      </c>
-      <c r="R99">
-        <f t="shared" si="28"/>
-        <v>8.5</v>
-      </c>
-      <c r="S99">
-        <f t="shared" si="28"/>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" ref="A110:J118" si="32">ROUNDUP(A99,2)</f>
+        <v>10.68</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="32"/>
+        <v>9.9</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="32"/>
+        <v>9.56</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="32"/>
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="32"/>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="32"/>
+        <v>9.24</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="32"/>
         <v>9.34</v>
       </c>
-      <c r="T99">
-        <f t="shared" si="28"/>
-        <v>10.209999999999999</v>
-      </c>
-      <c r="U99">
-        <f t="shared" si="28"/>
-        <v>11.2</v>
+      <c r="H110">
+        <f t="shared" si="32"/>
+        <v>9.58</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="32"/>
+        <v>10.08</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="32"/>
+        <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="29"/>
-        <v>2.57961388541431</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="29"/>
-        <v>3.0523933119851101</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="29"/>
-        <v>3.52921550074297</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="29"/>
-        <v>4.0274638765416206</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="29"/>
-        <v>4.5468482734391298</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="29"/>
-        <v>5.0758598968784598</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="29"/>
-        <v>5.5963366562668195</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="29"/>
-        <v>6.1088619826746502</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="29"/>
-        <v>6.6435448928844201</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="29"/>
-        <v>7.2422172567595604</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="30"/>
-        <v>2.5799999999999996</v>
-      </c>
-      <c r="M100">
-        <f t="shared" si="28"/>
-        <v>3.0599999999999996</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="28"/>
-        <v>3.53</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="28"/>
-        <v>4.0299999999999994</v>
-      </c>
-      <c r="P100">
-        <f t="shared" si="28"/>
-        <v>4.55</v>
-      </c>
-      <c r="Q100">
-        <f t="shared" si="28"/>
-        <v>5.08</v>
-      </c>
-      <c r="R100">
-        <f t="shared" si="28"/>
-        <v>5.6</v>
-      </c>
-      <c r="S100">
-        <f t="shared" si="28"/>
-        <v>6.1099999999999994</v>
-      </c>
-      <c r="T100">
-        <f t="shared" si="28"/>
-        <v>6.6499999999999995</v>
-      </c>
-      <c r="U100">
-        <f t="shared" si="28"/>
-        <v>7.25</v>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="32"/>
+        <v>9.11</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="32"/>
+        <v>8.56</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="32"/>
+        <v>8.33</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="32"/>
+        <v>8.11</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="32"/>
+        <v>7.99</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="32"/>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="32"/>
+        <v>8.08</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="32"/>
+        <v>8.25</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="32"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="32"/>
+        <v>9.42</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="29"/>
-        <v>1.83877770248873</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="29"/>
-        <v>2.1150740994918498</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="29"/>
-        <v>2.4000016625892098</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="29"/>
-        <v>2.6977253528014598</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="29"/>
-        <v>3.00454523083642</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="29"/>
-        <v>3.3131239989535901</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="29"/>
-        <v>3.6146721220099303</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="29"/>
-        <v>3.91475082828314</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="29"/>
-        <v>4.2297803962022495</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="29"/>
-        <v>4.5812165955629398</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="30"/>
-        <v>1.84</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="28"/>
-        <v>2.1199999999999997</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="28"/>
-        <v>2.4099999999999997</v>
-      </c>
-      <c r="O101">
-        <f t="shared" si="28"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="P101">
-        <f t="shared" si="28"/>
-        <v>3.01</v>
-      </c>
-      <c r="Q101">
-        <f t="shared" si="28"/>
-        <v>3.32</v>
-      </c>
-      <c r="R101">
-        <f t="shared" si="28"/>
-        <v>3.6199999999999997</v>
-      </c>
-      <c r="S101">
-        <f t="shared" si="28"/>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="32"/>
+        <v>7.88</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="32"/>
+        <v>7.46</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="32"/>
+        <v>7.18</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="32"/>
+        <v>6.91</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="32"/>
+        <v>6.88</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="32"/>
+        <v>6.9799999999999995</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="32"/>
+        <v>7.13</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="32"/>
+        <v>7.45</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="32"/>
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="32"/>
+        <v>6.71</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="32"/>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="32"/>
+        <v>6.1899999999999995</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="32"/>
+        <v>6.04</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="32"/>
+        <v>5.95</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="32"/>
+        <v>5.99</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="32"/>
+        <v>6.01</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="32"/>
+        <v>6.12</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="32"/>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="32"/>
+        <v>6.8199999999999994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="32"/>
+        <v>5.71</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="32"/>
+        <v>5.5699999999999994</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="32"/>
+        <v>5.35</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="32"/>
+        <v>5.29</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="32"/>
+        <v>5.17</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="32"/>
+        <v>5.18</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="32"/>
+        <v>5.16</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="32"/>
+        <v>5.2799999999999994</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="32"/>
+        <v>5.42</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="32"/>
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="32"/>
+        <v>4.76</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="32"/>
+        <v>4.66</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="32"/>
+        <v>4.4799999999999995</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="32"/>
+        <v>4.43</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="32"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="32"/>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="32"/>
+        <v>4.42</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="32"/>
+        <v>4.49</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="32"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="32"/>
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="32"/>
+        <v>3.8299999999999996</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="32"/>
+        <v>3.84</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="32"/>
+        <v>3.7699999999999996</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="32"/>
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="32"/>
+        <v>3.75</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="32"/>
+        <v>3.71</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="32"/>
+        <v>3.78</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="32"/>
+        <v>3.78</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="32"/>
+        <v>3.88</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="32"/>
         <v>3.92</v>
       </c>
-      <c r="T101">
-        <f t="shared" si="28"/>
-        <v>4.2299999999999995</v>
-      </c>
-      <c r="U101">
-        <f t="shared" si="28"/>
-        <v>4.59</v>
-      </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="29"/>
-        <v>1.3021662738757001</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="29"/>
-        <v>1.4586502102060501</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="29"/>
-        <v>1.6215455718334999</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="29"/>
-        <v>1.7895623237215301</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="29"/>
-        <v>1.9599447743766698</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="29"/>
-        <v>2.1285758773049701</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="29"/>
-        <v>2.2935645338800001</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="29"/>
-        <v>2.4601324851132302</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="29"/>
-        <v>2.6360743916938003</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="29"/>
-        <v>2.8311696018319199</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="30"/>
-        <v>1.31</v>
-      </c>
-      <c r="M102">
-        <f t="shared" si="28"/>
-        <v>1.46</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="28"/>
-        <v>1.6300000000000001</v>
-      </c>
-      <c r="O102">
-        <f t="shared" si="28"/>
-        <v>1.79</v>
-      </c>
-      <c r="P102">
-        <f t="shared" si="28"/>
-        <v>1.96</v>
-      </c>
-      <c r="Q102">
-        <f t="shared" si="28"/>
-        <v>2.13</v>
-      </c>
-      <c r="R102">
-        <f t="shared" si="28"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S102">
-        <f t="shared" si="28"/>
-        <v>2.4699999999999998</v>
-      </c>
-      <c r="T102">
-        <f t="shared" si="28"/>
-        <v>2.6399999999999997</v>
-      </c>
-      <c r="U102">
-        <f t="shared" si="28"/>
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="29"/>
-        <v>0.87195984401527804</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="29"/>
-        <v>0.95930428583858007</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="29"/>
-        <v>1.0492792398291499</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="29"/>
-        <v>1.1408227469200201</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="29"/>
-        <v>1.2323384963517898</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="29"/>
-        <v>1.3220237826964698</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="29"/>
-        <v>1.4107060828359301</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="29"/>
-        <v>1.50121702495487</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="29"/>
-        <v>1.5971359543613799</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="29"/>
-        <v>1.7028201568817198</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="30"/>
-        <v>0.88</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="28"/>
-        <v>0.96</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="28"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P103">
-        <f t="shared" si="28"/>
-        <v>1.24</v>
-      </c>
-      <c r="Q103">
-        <f t="shared" si="28"/>
-        <v>1.33</v>
-      </c>
-      <c r="R103">
-        <f t="shared" si="28"/>
-        <v>1.42</v>
-      </c>
-      <c r="S103">
-        <f t="shared" si="28"/>
-        <v>1.51</v>
-      </c>
-      <c r="T103">
-        <f t="shared" si="28"/>
-        <v>1.6</v>
-      </c>
-      <c r="U103">
-        <f t="shared" si="28"/>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f t="shared" si="29"/>
-        <v>0.58616717701319898</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="29"/>
-        <v>0.62619256827219594</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="29"/>
-        <v>0.66636906850712407</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="29"/>
-        <v>0.70617778172974699</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="29"/>
-        <v>0.74525340077120106</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="29"/>
-        <v>0.78405388589566405</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="29"/>
-        <v>0.82333590439293203</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="29"/>
-        <v>0.86400900671462599</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="29"/>
-        <v>0.907140637845394</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="29"/>
-        <v>0.95396683323032305</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="30"/>
-        <v>0.59</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="28"/>
-        <v>0.63</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="28"/>
-        <v>0.67</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="28"/>
-        <v>0.71</v>
-      </c>
-      <c r="P104">
-        <f t="shared" si="28"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q104">
-        <f t="shared" si="28"/>
-        <v>0.79</v>
-      </c>
-      <c r="R104">
-        <f t="shared" si="28"/>
-        <v>0.83</v>
-      </c>
-      <c r="S104">
-        <f t="shared" si="28"/>
-        <v>0.87</v>
-      </c>
-      <c r="T104">
-        <f t="shared" si="28"/>
-        <v>0.91</v>
-      </c>
-      <c r="U104">
-        <f t="shared" si="28"/>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <f t="shared" si="29"/>
-        <v>0.37849082899907904</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="29"/>
-        <v>0.39221740959456203</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="29"/>
-        <v>0.405838990467147</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="29"/>
-        <v>0.41946044859077902</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="29"/>
-        <v>0.43320180479332498</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="29"/>
-        <v>0.44719831198673798</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="29"/>
-        <v>0.46160073593352602</v>
-      </c>
-      <c r="H105">
-        <f t="shared" si="29"/>
-        <v>0.47657586530346302</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="29"/>
-        <v>0.49230728777452198</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="29"/>
-        <v>0.50899646893195605</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="30"/>
-        <v>0.38</v>
-      </c>
-      <c r="M105">
-        <f t="shared" si="28"/>
-        <v>0.4</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="28"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="28"/>
-        <v>0.42</v>
-      </c>
-      <c r="P105">
-        <f t="shared" si="28"/>
-        <v>0.44</v>
-      </c>
-      <c r="Q105">
-        <f t="shared" si="28"/>
-        <v>0.45</v>
-      </c>
-      <c r="R105">
-        <f t="shared" si="28"/>
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="S105">
-        <f t="shared" si="28"/>
-        <v>0.48</v>
-      </c>
-      <c r="T105">
-        <f t="shared" si="28"/>
-        <v>0.5</v>
-      </c>
-      <c r="U105">
-        <f t="shared" si="28"/>
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f t="shared" si="29"/>
-        <v>0.24383390765228</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="29"/>
-        <v>0.24671238313822702</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="29"/>
-        <v>0.249633115385475</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="29"/>
-        <v>0.252600932880931</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="29"/>
-        <v>0.25562083550157</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="29"/>
-        <v>0.25869799859048198</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="29"/>
-        <v>0.26183777748589199</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="29"/>
-        <v>0.26504571252174203</v>
-      </c>
-      <c r="I106">
-        <f t="shared" si="29"/>
-        <v>0.26832753451840502</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="29"/>
-        <v>0.27168917078211496</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="30"/>
-        <v>0.25</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="28"/>
-        <v>0.25</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="28"/>
-        <v>0.25</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="28"/>
-        <v>0.26</v>
-      </c>
-      <c r="P106">
-        <f t="shared" si="28"/>
-        <v>0.26</v>
-      </c>
-      <c r="Q106">
-        <f t="shared" si="28"/>
-        <v>0.26</v>
-      </c>
-      <c r="R106">
-        <f t="shared" si="28"/>
-        <v>0.27</v>
-      </c>
-      <c r="S106">
-        <f t="shared" si="28"/>
-        <v>0.27</v>
-      </c>
-      <c r="T106">
-        <f t="shared" si="28"/>
-        <v>0.27</v>
-      </c>
-      <c r="U106">
-        <f t="shared" si="28"/>
-        <v>0.28000000000000003</v>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="32"/>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="32"/>
+        <v>3.23</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="32"/>
+        <v>3.2199999999999998</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="32"/>
+        <v>3.2199999999999998</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="32"/>
+        <v>3.21</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="32"/>
+        <v>3.21</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="32"/>
+        <v>3.2199999999999998</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="32"/>
+        <v>3.3</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="32"/>
+        <v>3.3</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="32"/>
+        <v>3.3099999999999996</v>
       </c>
     </row>
   </sheetData>
